--- a/soccer/php/result/analyze/分析主表.xlsx
+++ b/soccer/php/result/analyze/分析主表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -968,7 +968,38 @@
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t>：天皇杯</t>
+          <t>：天皇杯
+非大</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="FangSong"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>赛</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>前期的友</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="FangSong"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>谊赛</t>
         </r>
       </text>
     </comment>
@@ -1550,12 +1581,68 @@
         </r>
       </text>
     </comment>
+    <comment ref="AG3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>作成者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+二分法</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="FangSong"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>赔率都在</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>1.70-1.80之</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="FangSong"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>间算势均力敌</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1638" uniqueCount="621">
   <si>
     <t>A</t>
     <phoneticPr fontId="1"/>
@@ -2639,376 +2726,6 @@
   </si>
   <si>
     <t>鹿儿岛联队</t>
-  </si>
-  <si>
-    <r>
-      <t>全包模式
-2800场  让球 
-主胜
-收益   100127     最大基数     598450
-主平
-收益   110185     最大基数     185675
-主负
-收益   90471     最大基数     4440734
-主平的收益开始降低，出现了连续不中的意外，从概率来看，依然性价比很高
-要考虑一个完善的撒手方案
-1600</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>场</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>让</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>球 
-主</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">胜
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>收益   61051     最大基数     598450
-主平
-收益   71275     最大基数     37300
-主</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">负
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">收益   54878     最大基数     680700
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>让平的收益比爆高，让平的出现概率如此之高？是否需要再增加数据验证一下</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-主</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">胜
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>800</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>场</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">   收益   23325.7     最大基数     8068400
-主平
-800</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>场</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">   收益   32079     最大基数     25900
-主</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">负
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>800</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>场</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">   收益   29265.5     最大基数     802700
-1600</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>场</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  
-主</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">胜
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>收益   52752     最大基数     8068400
-主平
-收益   73020     最大基数     543400
-主</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">负
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>收益   59566     最大基数     11541200
-粗略的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>统计收益比后，最划算的买主平依然是仅仅比理财高了</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1个百分点
-接下来考</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>虑见好就收的模式</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>搏冷（模</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>拟</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>输入区</t>
@@ -3775,11 +3492,6 @@
 买家不买账仍然很多
 继续升赔</t>
     </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>总结
-假设庄家知道结果</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3905,23 +3617,6 @@
   </si>
   <si>
     <r>
-      <t>二分法</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>总结</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
       <t>主</t>
     </r>
     <r>
@@ -4288,51 +3983,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>有升有降，最</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>终降</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>一路降</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>有升有降，最</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>终</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>降</t>
-    </r>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -4558,33 +4209,231 @@
     <t>一路降</t>
   </si>
   <si>
+    <t>一路升</t>
+  </si>
+  <si>
+    <t>升</t>
+  </si>
+  <si>
+    <t>库亚巴</t>
+  </si>
+  <si>
+    <t>科林蒂安</t>
+  </si>
+  <si>
+    <t>福塔雷萨</t>
+  </si>
+  <si>
+    <t>弗塔莱萨</t>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>低</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>有升有降，主降</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>降</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>有升有降</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>有升有降</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>降1次</t>
+  </si>
+  <si>
+    <t>升1次</t>
+  </si>
+  <si>
+    <t>一路升</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>一路降</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>高</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>无</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>无</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>降</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>一路升</t>
-  </si>
-  <si>
-    <t>一路升</t>
+    <t>低</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>升1次，大升</t>
+  </si>
+  <si>
+    <t>足总杯</t>
+  </si>
+  <si>
+    <t>莫克姆</t>
+  </si>
+  <si>
+    <t>摩尔坎比</t>
+  </si>
+  <si>
+    <t>卢顿</t>
+  </si>
+  <si>
+    <t>切尔滕汉姆</t>
+  </si>
+  <si>
+    <t>切尔腾纳姆</t>
+  </si>
+  <si>
+    <t>阿克宁顿</t>
+  </si>
+  <si>
+    <t>艾宁顿</t>
+  </si>
+  <si>
+    <t>卡利斯尔联</t>
+  </si>
+  <si>
+    <t>曼斯菲尔德</t>
+  </si>
+  <si>
+    <t>曼斯菲德</t>
+  </si>
+  <si>
+    <t>剑桥联</t>
+  </si>
+  <si>
+    <t>格里姆斯比</t>
+  </si>
+  <si>
+    <t>格林斯比</t>
+  </si>
+  <si>
+    <t>约维尔</t>
+  </si>
+  <si>
+    <t>朴次茅斯</t>
+  </si>
+  <si>
+    <t>耶奥维尔</t>
+  </si>
+  <si>
+    <t>朴茨茅斯</t>
+  </si>
+  <si>
+    <t>普利茅斯</t>
+  </si>
+  <si>
+    <t>纽波特郡</t>
+  </si>
+  <si>
+    <t>牛津联</t>
+  </si>
+  <si>
+    <t>埃克塞特城</t>
+  </si>
+  <si>
+    <t>埃克塞特</t>
+  </si>
+  <si>
+    <t>北安普敦</t>
+  </si>
+  <si>
+    <t>威科姆</t>
+  </si>
+  <si>
+    <t>北安普顿城</t>
+  </si>
+  <si>
+    <t>韦康比</t>
+  </si>
+  <si>
+    <t>克劳利</t>
+  </si>
+  <si>
+    <t>克拉雷镇</t>
+  </si>
+  <si>
+    <t>巴尼特</t>
+  </si>
+  <si>
+    <t>莱顿东方</t>
+  </si>
+  <si>
+    <t>斯蒂文尼奇</t>
+  </si>
+  <si>
+    <t>升2次</t>
+  </si>
+  <si>
+    <t>低</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>2分法的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>赔率虽然是这个规律，但是其他的赔率是有变化的</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>这一场临赔有变化，只是二分法的结果未变</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>这次的冷门其实算不上冷，因为反结果是一个经常出现的一边倒并且不出冷门的结果，但这一场1.79对1.85，其实不能严格算是一边倒的对局，今后有类似比赛可以特殊对待一下，去选择稍高的那个赔率</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>这一场同样是严重的势均力敌</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一路降，大降</t>
+  </si>
+  <si>
+    <t>一路升，大升</t>
+  </si>
+  <si>
+    <t>这一场赔率不算降的太多但是也比平时一般比赛赔率降的多，而且初赔算不上一遍倒，不是特别冷</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>升</t>
-  </si>
-  <si>
-    <t>升</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>这一场虽然不出冷门有模板，但是本场的赔率初赔依然是势均力敌，后续类似情况可以考虑</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4695,7 +4544,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4759,12 +4608,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5143,7 +4986,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -11692,11 +11535,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BW47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="9" ySplit="3" topLeftCell="AS4" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="9" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BA19" sqref="BA19:BV19"/>
+      <selection pane="bottomRight" activeCell="W33" sqref="W33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12111,7 +11954,7 @@
       </c>
       <c r="BT4" s="35"/>
       <c r="BU4" s="12" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="BV4" s="12"/>
       <c r="BW4" s="22"/>
@@ -14684,10 +14527,10 @@
       <c r="D17" s="7"/>
       <c r="E17" s="8"/>
       <c r="F17" s="7" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
@@ -14901,10 +14744,10 @@
       <c r="D18" s="7"/>
       <c r="E18" s="8"/>
       <c r="F18" s="7" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
@@ -15096,10 +14939,10 @@
       <c r="D19" s="7"/>
       <c r="E19" s="8"/>
       <c r="F19" s="9" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
@@ -27446,18 +27289,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI138"/>
+  <dimension ref="A1:AI136"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="7" ySplit="4" topLeftCell="H53" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="7" ySplit="5" topLeftCell="T102" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AA61" sqref="AA61"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="AG121" sqref="AG121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="40"/>
+    <col min="1" max="1" width="9" style="77"/>
     <col min="2" max="2" width="11.25" style="43" customWidth="1"/>
     <col min="3" max="4" width="9" style="44"/>
     <col min="5" max="5" width="17.25" style="45" bestFit="1" customWidth="1"/>
@@ -27476,29 +27319,23 @@
     <col min="36" max="16384" width="9" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="2:34" x14ac:dyDescent="0.15">
+      <c r="V1" s="40" t="s">
+        <v>572</v>
+      </c>
+      <c r="W1" s="40" t="s">
+        <v>611</v>
+      </c>
+      <c r="X1" s="40" t="s">
+        <v>573</v>
+      </c>
+      <c r="Y1" s="40" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="2" spans="2:34" x14ac:dyDescent="0.15">
+      <c r="B2" s="50" t="s">
         <v>211</v>
-      </c>
-      <c r="B1" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="V1" s="40" t="s">
-        <v>561</v>
-      </c>
-      <c r="W1" s="40" t="s">
-        <v>553</v>
-      </c>
-      <c r="X1" s="40" t="s">
-        <v>475</v>
-      </c>
-      <c r="Y1" s="40" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="B2" s="50" t="s">
-        <v>213</v>
       </c>
       <c r="C2" s="51"/>
       <c r="D2" s="51"/>
@@ -27520,16 +27357,16 @@
       <c r="T2" s="51"/>
       <c r="U2" s="52"/>
       <c r="V2" s="40" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="W2" s="40" t="s">
-        <v>553</v>
+        <v>576</v>
       </c>
       <c r="X2" s="40" t="s">
-        <v>475</v>
+        <v>574</v>
       </c>
       <c r="Y2" s="40" t="s">
-        <v>568</v>
+        <v>619</v>
       </c>
       <c r="AA2" s="40">
         <v>1</v>
@@ -27538,120 +27375,112 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B3" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>213</v>
+      </c>
+      <c r="D3" s="44" t="s">
         <v>214</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="E3" s="45" t="s">
         <v>215</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="F3" s="46" t="s">
         <v>216</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="G3" s="46" t="s">
         <v>217</v>
       </c>
-      <c r="F3" s="46" t="s">
+      <c r="H3" s="44" t="s">
         <v>218</v>
       </c>
-      <c r="G3" s="46" t="s">
+      <c r="I3" s="44" t="s">
         <v>219</v>
       </c>
-      <c r="H3" s="44" t="s">
+      <c r="J3" s="46" t="s">
         <v>220</v>
       </c>
-      <c r="I3" s="44" t="s">
+      <c r="K3" s="46" t="s">
         <v>221</v>
       </c>
-      <c r="J3" s="46" t="s">
+      <c r="L3" s="46" t="s">
         <v>222</v>
       </c>
-      <c r="K3" s="46" t="s">
+      <c r="M3" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="L3" s="46" t="s">
+      <c r="N3" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="M3" s="44" t="s">
+      <c r="O3" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="N3" s="44" t="s">
+      <c r="P3" s="44" t="s">
         <v>226</v>
       </c>
-      <c r="O3" s="44" t="s">
+      <c r="Q3" s="44" t="s">
         <v>227</v>
       </c>
-      <c r="P3" s="44" t="s">
+      <c r="R3" s="44" t="s">
         <v>228</v>
       </c>
-      <c r="Q3" s="44" t="s">
+      <c r="S3" s="44" t="s">
         <v>229</v>
       </c>
-      <c r="R3" s="44" t="s">
+      <c r="T3" s="47" t="s">
         <v>230</v>
       </c>
-      <c r="S3" s="44" t="s">
+      <c r="U3" s="48" t="s">
         <v>231</v>
       </c>
-      <c r="T3" s="47" t="s">
-        <v>232</v>
-      </c>
-      <c r="U3" s="48" t="s">
-        <v>233</v>
-      </c>
       <c r="V3" s="49" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="W3" s="40" t="s">
+        <v>435</v>
+      </c>
+      <c r="X3" s="49" t="s">
         <v>437</v>
       </c>
-      <c r="X3" s="49" t="s">
-        <v>439</v>
-      </c>
       <c r="Y3" s="40" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="Z3" s="49" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="AA3" s="49" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="AB3" s="49" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="AC3" s="49"/>
       <c r="AD3" s="49"/>
       <c r="AE3" s="49"/>
-      <c r="AG3" s="49" t="s">
-        <v>442</v>
-      </c>
+      <c r="AG3" s="49"/>
       <c r="AH3" s="49"/>
-      <c r="AI3" s="40" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="2:34" x14ac:dyDescent="0.15">
       <c r="V4" s="40" t="s">
-        <v>566</v>
-      </c>
-      <c r="W4" s="49" t="s">
-        <v>553</v>
+        <v>555</v>
+      </c>
+      <c r="W4" s="40" t="s">
+        <v>472</v>
       </c>
       <c r="X4" s="40" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="Y4" s="40" t="s">
-        <v>568</v>
-      </c>
-      <c r="AA4" s="40">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.15">
+        <v>473</v>
+      </c>
+      <c r="AD4" s="40">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:34" x14ac:dyDescent="0.15">
       <c r="J5" s="46">
         <v>3</v>
       </c>
@@ -27661,8 +27490,32 @@
       <c r="L5" s="46">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="V5" s="40" t="s">
+        <v>564</v>
+      </c>
+      <c r="W5" s="40" t="s">
+        <v>564</v>
+      </c>
+      <c r="X5" s="40" t="s">
+        <v>564</v>
+      </c>
+      <c r="Y5" s="40" t="s">
+        <v>564</v>
+      </c>
+      <c r="Z5" s="40" t="s">
+        <v>564</v>
+      </c>
+      <c r="AA5" s="40" t="s">
+        <v>564</v>
+      </c>
+      <c r="AB5" s="40" t="s">
+        <v>564</v>
+      </c>
+      <c r="AD5" s="40">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B6" s="43">
         <v>42610</v>
       </c>
@@ -27670,7 +27523,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="44" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E6" s="45">
         <v>42610.625</v>
@@ -27679,7 +27532,7 @@
         <v>209</v>
       </c>
       <c r="G6" s="41" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H6" s="42" t="s">
         <v>209</v>
@@ -27724,26 +27577,26 @@
         <v>3</v>
       </c>
       <c r="V6" s="40" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="W6" s="40" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="X6" s="40" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="Y6" s="40" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="AD6" s="40">
         <f>IF(V6=$V$4,1,0)+IF(W6=$W$4,1,0)+IF(X6=$X$4,1,0)+IF(Y6=$Y$4,1,0)+IF(Z6=$Z$4,1,0)+IF(AA6=$AA$4,1,0)+IF(AB6=$AB$4,1,0)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AG6" s="40" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.15">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="7" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B7" s="43">
         <v>42610</v>
       </c>
@@ -27751,22 +27604,22 @@
         <v>2</v>
       </c>
       <c r="D7" s="44" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E7" s="45">
         <v>42610.625</v>
       </c>
       <c r="F7" s="41" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="G7" s="41" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H7" s="42" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="I7" s="42" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="J7" s="41">
         <v>1.57</v>
@@ -27805,26 +27658,26 @@
         <v>1</v>
       </c>
       <c r="V7" s="40" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="W7" s="40" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="X7" s="40" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="Y7" s="40" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="AD7" s="40">
         <f t="shared" ref="AD7:AD70" si="0">IF(V7=$V$4,1,0)+IF(W7=$W$4,1,0)+IF(X7=$X$4,1,0)+IF(Y7=$Y$4,1,0)+IF(Z7=$Z$4,1,0)+IF(AA7=$AA$4,1,0)+IF(AB7=$AB$4,1,0)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AG7" s="49" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.15">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="8" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B8" s="43">
         <v>42610</v>
       </c>
@@ -27832,22 +27685,22 @@
         <v>3</v>
       </c>
       <c r="D8" s="44" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E8" s="45">
         <v>42610.708333333336</v>
       </c>
       <c r="F8" s="41" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G8" s="41" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="H8" s="42" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="I8" s="42" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="J8" s="41">
         <v>1.1399999999999999</v>
@@ -27886,26 +27739,26 @@
         <v>3</v>
       </c>
       <c r="V8" s="40" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="W8" s="40" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="X8" s="40" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="Y8" s="40" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="AD8" s="40">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AG8" s="49" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.15">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="9" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B9" s="43">
         <v>42610</v>
       </c>
@@ -27913,19 +27766,19 @@
         <v>4</v>
       </c>
       <c r="D9" s="44" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E9" s="45">
         <v>42610.75</v>
       </c>
       <c r="F9" s="41" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G9" s="41" t="s">
         <v>54</v>
       </c>
       <c r="H9" s="42" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I9" s="42" t="s">
         <v>54</v>
@@ -27967,26 +27820,26 @@
         <v>0</v>
       </c>
       <c r="V9" s="40" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="W9" s="40" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="X9" s="40" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="Y9" s="40" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="Z9" s="40" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="AD9" s="40">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B10" s="43">
         <v>42610</v>
       </c>
@@ -27994,22 +27847,22 @@
         <v>5</v>
       </c>
       <c r="D10" s="44" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E10" s="45">
         <v>42610.75</v>
       </c>
       <c r="F10" s="41" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G10" s="41" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H10" s="42" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="I10" s="42" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="J10" s="41">
         <v>2.36</v>
@@ -28049,13 +27902,13 @@
       </c>
       <c r="AD10" s="40">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG10" s="40" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.15">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="11" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B11" s="43">
         <v>42610</v>
       </c>
@@ -28063,22 +27916,22 @@
         <v>6</v>
       </c>
       <c r="D11" s="44" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E11" s="45">
         <v>42610.75</v>
       </c>
       <c r="F11" s="41" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G11" s="41" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H11" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="I11" s="42" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="J11" s="41">
         <v>2.52</v>
@@ -28117,23 +27970,26 @@
         <v>1</v>
       </c>
       <c r="V11" s="40" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="W11" s="40" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="X11" s="40" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="Y11" s="40" t="s">
-        <v>517</v>
+        <v>513</v>
+      </c>
+      <c r="AB11" s="40">
+        <v>1</v>
       </c>
       <c r="AD11" s="40">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B12" s="43">
         <v>42610</v>
       </c>
@@ -28141,22 +27997,22 @@
         <v>7</v>
       </c>
       <c r="D12" s="44" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E12" s="45">
         <v>42610.770833333336</v>
       </c>
       <c r="F12" s="41" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G12" s="41" t="s">
+        <v>311</v>
+      </c>
+      <c r="H12" s="42" t="s">
         <v>313</v>
       </c>
-      <c r="H12" s="42" t="s">
-        <v>315</v>
-      </c>
       <c r="I12" s="42" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="J12" s="41">
         <v>0</v>
@@ -28196,13 +28052,13 @@
       </c>
       <c r="AD12" s="40">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG12" s="40" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.15">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="13" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B13" s="43">
         <v>42610</v>
       </c>
@@ -28210,22 +28066,22 @@
         <v>8</v>
       </c>
       <c r="D13" s="44" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E13" s="45">
         <v>42610.8125</v>
       </c>
       <c r="F13" s="41" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G13" s="41" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="H13" s="42" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="I13" s="42" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="J13" s="41">
         <v>2.12</v>
@@ -28265,13 +28121,13 @@
       </c>
       <c r="AD13" s="40">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG13" s="40" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.15">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="14" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B14" s="43">
         <v>42610</v>
       </c>
@@ -28279,22 +28135,22 @@
         <v>9</v>
       </c>
       <c r="D14" s="44" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E14" s="45">
         <v>42610.8125</v>
       </c>
       <c r="F14" s="41" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G14" s="41" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="H14" s="42" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I14" s="42" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="J14" s="41">
         <v>2.0099999999999998</v>
@@ -28333,23 +28189,23 @@
         <v>1</v>
       </c>
       <c r="V14" s="40" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="W14" s="40" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="X14" s="40" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="Y14" s="40" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="AD14" s="40">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B15" s="43">
         <v>42610</v>
       </c>
@@ -28357,22 +28213,22 @@
         <v>10</v>
       </c>
       <c r="D15" s="44" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E15" s="45">
         <v>42610.8125</v>
       </c>
       <c r="F15" s="41" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G15" s="41" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H15" s="42" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="I15" s="42" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="J15" s="41">
         <v>2.15</v>
@@ -28411,23 +28267,23 @@
         <v>3</v>
       </c>
       <c r="V15" s="40" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="W15" s="40" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="X15" s="40" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="Y15" s="40" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="AD15" s="40">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B16" s="43">
         <v>42610</v>
       </c>
@@ -28490,10 +28346,10 @@
       </c>
       <c r="AD16" s="40">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG16" s="40" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="17" spans="2:33" x14ac:dyDescent="0.15">
@@ -28504,22 +28360,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="44" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E17" s="45">
         <v>42610.854166666664</v>
       </c>
       <c r="F17" s="41" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G17" s="41" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H17" s="42" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I17" s="42" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="J17" s="41">
         <v>1.92</v>
@@ -28559,10 +28415,10 @@
       </c>
       <c r="AD17" s="40">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG17" s="40" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="18" spans="2:33" x14ac:dyDescent="0.15">
@@ -28573,22 +28429,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="44" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E18" s="45">
         <v>42610.854166666664</v>
       </c>
       <c r="F18" s="41" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G18" s="41" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H18" s="42" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I18" s="42" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J18" s="41">
         <v>8</v>
@@ -28627,20 +28483,20 @@
         <v>0</v>
       </c>
       <c r="V18" s="40" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="W18" s="40" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="X18" s="40" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="Y18" s="40" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="AD18" s="40">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="2:33" x14ac:dyDescent="0.15">
@@ -28651,22 +28507,22 @@
         <v>14</v>
       </c>
       <c r="D19" s="44" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E19" s="45">
         <v>42610.854166666664</v>
       </c>
       <c r="F19" s="41" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G19" s="41" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H19" s="42" t="s">
+        <v>299</v>
+      </c>
+      <c r="I19" s="42" t="s">
         <v>301</v>
-      </c>
-      <c r="I19" s="42" t="s">
-        <v>303</v>
       </c>
       <c r="J19" s="41">
         <v>3.8</v>
@@ -28705,20 +28561,20 @@
         <v>1</v>
       </c>
       <c r="V19" s="40" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="W19" s="40" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="X19" s="40" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="Y19" s="40" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="AD19" s="40">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="2:33" x14ac:dyDescent="0.15">
@@ -28729,22 +28585,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="44" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E20" s="45">
         <v>42610.854166666664</v>
       </c>
       <c r="F20" s="41" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G20" s="41" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H20" s="42" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I20" s="42" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J20" s="41">
         <v>1.4</v>
@@ -28784,10 +28640,10 @@
       </c>
       <c r="AD20" s="40">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG20" s="40" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="21" spans="2:33" x14ac:dyDescent="0.15">
@@ -28798,22 +28654,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="44" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E21" s="45">
         <v>42610.875</v>
       </c>
       <c r="F21" s="41" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G21" s="41" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H21" s="42" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="I21" s="42" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="J21" s="41">
         <v>1.94</v>
@@ -28852,20 +28708,23 @@
         <v>1</v>
       </c>
       <c r="V21" s="40" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="W21" s="40" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="X21" s="40" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="Y21" s="40" t="s">
-        <v>444</v>
+        <v>441</v>
+      </c>
+      <c r="AB21" s="40">
+        <v>1</v>
       </c>
       <c r="AD21" s="40">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="2:33" x14ac:dyDescent="0.15">
@@ -28876,22 +28735,22 @@
         <v>17</v>
       </c>
       <c r="D22" s="44" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E22" s="45">
         <v>42610.875</v>
       </c>
       <c r="F22" s="41" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G22" s="41" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="H22" s="42" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="I22" s="42" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J22" s="41">
         <v>1.65</v>
@@ -28931,10 +28790,10 @@
       </c>
       <c r="AD22" s="40">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG22" s="40" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="23" spans="2:33" x14ac:dyDescent="0.15">
@@ -28945,22 +28804,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="44" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E23" s="45">
         <v>42610.875</v>
       </c>
       <c r="F23" s="41" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G23" s="41" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="H23" s="42" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I23" s="42" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J23" s="41">
         <v>1.78</v>
@@ -28999,20 +28858,20 @@
         <v>3</v>
       </c>
       <c r="V23" s="40" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="W23" s="40" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="X23" s="40" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="Y23" s="40" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="AD23" s="40">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="2:33" x14ac:dyDescent="0.15">
@@ -29023,22 +28882,22 @@
         <v>19</v>
       </c>
       <c r="D24" s="44" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E24" s="45">
         <v>42610.875</v>
       </c>
       <c r="F24" s="41" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="G24" s="41" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="H24" s="42" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="I24" s="42" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="J24" s="41">
         <v>3.2</v>
@@ -29077,20 +28936,20 @@
         <v>3</v>
       </c>
       <c r="V24" s="40" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="W24" s="40" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="X24" s="40" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="Y24" s="40" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="AD24" s="40">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="2:33" x14ac:dyDescent="0.15">
@@ -29101,22 +28960,22 @@
         <v>20</v>
       </c>
       <c r="D25" s="44" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E25" s="45">
         <v>42610.895833333336</v>
       </c>
       <c r="F25" s="41" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G25" s="41" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H25" s="42" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="I25" s="42" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="J25" s="41">
         <v>1.8</v>
@@ -29155,23 +29014,23 @@
         <v>1</v>
       </c>
       <c r="V25" s="40" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="W25" s="40" t="s">
+        <v>449</v>
+      </c>
+      <c r="X25" s="40" t="s">
         <v>452</v>
       </c>
-      <c r="X25" s="40" t="s">
-        <v>455</v>
-      </c>
       <c r="Y25" s="40" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="AD25" s="40">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AG25" s="40" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
     </row>
     <row r="26" spans="2:33" x14ac:dyDescent="0.15">
@@ -29182,22 +29041,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="44" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E26" s="45">
         <v>42610.895833333336</v>
       </c>
       <c r="F26" s="41" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G26" s="41" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H26" s="42" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I26" s="42" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="J26" s="41">
         <v>1.93</v>
@@ -29237,10 +29096,10 @@
       </c>
       <c r="AD26" s="40">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG26" s="40" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="27" spans="2:33" x14ac:dyDescent="0.15">
@@ -29251,22 +29110,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="44" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E27" s="45">
         <v>42610.916666666664</v>
       </c>
       <c r="F27" s="41" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="G27" s="41" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="H27" s="42" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="I27" s="42" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="J27" s="41">
         <v>1.88</v>
@@ -29306,10 +29165,10 @@
       </c>
       <c r="AD27" s="40">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG27" s="40" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="28" spans="2:33" x14ac:dyDescent="0.15">
@@ -29320,22 +29179,22 @@
         <v>23</v>
       </c>
       <c r="D28" s="44" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E28" s="45">
         <v>42610.916666666664</v>
       </c>
       <c r="F28" s="41" t="s">
+        <v>411</v>
+      </c>
+      <c r="G28" s="41" t="s">
+        <v>412</v>
+      </c>
+      <c r="H28" s="42" t="s">
+        <v>411</v>
+      </c>
+      <c r="I28" s="42" t="s">
         <v>413</v>
-      </c>
-      <c r="G28" s="41" t="s">
-        <v>414</v>
-      </c>
-      <c r="H28" s="42" t="s">
-        <v>413</v>
-      </c>
-      <c r="I28" s="42" t="s">
-        <v>415</v>
       </c>
       <c r="J28" s="41">
         <v>1.3</v>
@@ -29374,20 +29233,20 @@
         <v>3</v>
       </c>
       <c r="V28" s="40" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="W28" s="40" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="X28" s="40" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="Y28" s="40" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="AD28" s="40">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="2:33" x14ac:dyDescent="0.15">
@@ -29398,22 +29257,22 @@
         <v>24</v>
       </c>
       <c r="D29" s="44" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E29" s="45">
         <v>42610.916666666664</v>
       </c>
       <c r="F29" s="41" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G29" s="41" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H29" s="42" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I29" s="42" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="J29" s="41">
         <v>1.26</v>
@@ -29452,23 +29311,23 @@
         <v>0</v>
       </c>
       <c r="V29" s="40" t="s">
-        <v>530</v>
+        <v>568</v>
       </c>
       <c r="W29" s="40" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="X29" s="40" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="Y29" s="40" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="AD29" s="40">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AG29" s="40" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="30" spans="2:33" x14ac:dyDescent="0.15">
@@ -29479,22 +29338,22 @@
         <v>25</v>
       </c>
       <c r="D30" s="44" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E30" s="45">
         <v>42610.947916666664</v>
       </c>
       <c r="F30" s="41" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G30" s="41" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H30" s="42" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="I30" s="42" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J30" s="41">
         <v>1.28</v>
@@ -29533,16 +29392,16 @@
         <v>3</v>
       </c>
       <c r="V30" s="40" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="W30" s="40" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="X30" s="40" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="Y30" s="40" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="AD30" s="40">
         <f t="shared" si="0"/>
@@ -29563,13 +29422,13 @@
         <v>42610.958333333336</v>
       </c>
       <c r="F31" s="41" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G31" s="41" t="s">
         <v>21</v>
       </c>
       <c r="H31" s="42" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I31" s="42" t="s">
         <v>21</v>
@@ -29611,23 +29470,23 @@
         <v>1</v>
       </c>
       <c r="V31" s="40" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="W31" s="40" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="X31" s="40" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="Y31" s="40" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="Z31" s="40" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="AD31" s="40">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="2:33" x14ac:dyDescent="0.15">
@@ -29638,22 +29497,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="44" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E32" s="45">
         <v>42610.958333333336</v>
       </c>
       <c r="F32" s="41" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G32" s="41" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H32" s="42" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I32" s="42" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="J32" s="41">
         <v>2</v>
@@ -29693,10 +29552,10 @@
       </c>
       <c r="AD32" s="40">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG32" s="40" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="33" spans="2:35" x14ac:dyDescent="0.15">
@@ -29761,16 +29620,16 @@
         <v>0</v>
       </c>
       <c r="V33" s="40" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="W33" s="40" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="X33" s="40" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="Y33" s="40" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="AD33" s="40">
         <f t="shared" si="0"/>
@@ -29794,13 +29653,13 @@
         <v>160</v>
       </c>
       <c r="G34" s="41" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="H34" s="42" t="s">
         <v>160</v>
       </c>
       <c r="I34" s="42" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="J34" s="41">
         <v>2.2000000000000002</v>
@@ -29840,10 +29699,10 @@
       </c>
       <c r="AD34" s="40">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG34" s="40" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="35" spans="2:35" x14ac:dyDescent="0.15">
@@ -29854,22 +29713,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="44" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E35" s="45">
         <v>42610.979166666664</v>
       </c>
       <c r="F35" s="41" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G35" s="41" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="H35" s="42" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I35" s="42" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="J35" s="41">
         <v>2.2000000000000002</v>
@@ -29909,10 +29768,10 @@
       </c>
       <c r="AD35" s="40">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG35" s="40" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="36" spans="2:35" x14ac:dyDescent="0.15">
@@ -29923,22 +29782,22 @@
         <v>31</v>
       </c>
       <c r="D36" s="44" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E36" s="45">
         <v>42610.979166666664</v>
       </c>
       <c r="F36" s="41" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="G36" s="41" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="H36" s="42" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="I36" s="42" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="J36" s="41">
         <v>6.4</v>
@@ -29977,20 +29836,20 @@
         <v>1</v>
       </c>
       <c r="V36" s="40" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="W36" s="40" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="X36" s="40" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="Y36" s="40" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="AD36" s="40">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="2:35" x14ac:dyDescent="0.15">
@@ -30001,22 +29860,22 @@
         <v>32</v>
       </c>
       <c r="D37" s="44" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E37" s="45">
         <v>42610.979166666664</v>
       </c>
       <c r="F37" s="41" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="G37" s="41" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H37" s="42" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I37" s="42" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="J37" s="41">
         <v>1.41</v>
@@ -30055,20 +29914,20 @@
         <v>3</v>
       </c>
       <c r="V37" s="40" t="s">
-        <v>532</v>
+        <v>568</v>
       </c>
       <c r="W37" s="40" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="X37" s="40" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="Y37" s="40" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="AD37" s="40">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="2:35" x14ac:dyDescent="0.15">
@@ -30079,22 +29938,22 @@
         <v>33</v>
       </c>
       <c r="D38" s="44" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E38" s="45">
         <v>42610.979166666664</v>
       </c>
       <c r="F38" s="41" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G38" s="41" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="H38" s="42" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I38" s="42" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="J38" s="41">
         <v>1.35</v>
@@ -30133,23 +29992,23 @@
         <v>1</v>
       </c>
       <c r="V38" s="40" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="W38" s="40" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="X38" s="40" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="Y38" s="40" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="AD38" s="40">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AG38" s="40" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="39" spans="2:35" x14ac:dyDescent="0.15">
@@ -30160,22 +30019,22 @@
         <v>34</v>
       </c>
       <c r="D39" s="44" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E39" s="45">
         <v>42611</v>
       </c>
       <c r="F39" s="41" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G39" s="41" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H39" s="42" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I39" s="42" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="J39" s="41">
         <v>1.2</v>
@@ -30214,29 +30073,29 @@
         <v>0</v>
       </c>
       <c r="V39" s="40" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="W39" s="40" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="X39" s="40" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="Y39" s="40" t="s">
+        <v>513</v>
+      </c>
+      <c r="Z39" s="40" t="s">
         <v>517</v>
-      </c>
-      <c r="Z39" s="40" t="s">
-        <v>521</v>
       </c>
       <c r="AD39" s="40">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF39" s="40" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="AG39" s="40" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="40" spans="2:35" x14ac:dyDescent="0.15">
@@ -30258,10 +30117,10 @@
       <c r="U40" s="42"/>
       <c r="AD40" s="40">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AI40" s="53" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="41" spans="2:35" x14ac:dyDescent="0.15">
@@ -30272,22 +30131,22 @@
         <v>35</v>
       </c>
       <c r="D41" s="44" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E41" s="45">
         <v>42611</v>
       </c>
       <c r="F41" s="41" t="s">
+        <v>395</v>
+      </c>
+      <c r="G41" s="41" t="s">
         <v>397</v>
       </c>
-      <c r="G41" s="41" t="s">
-        <v>399</v>
-      </c>
       <c r="H41" s="42" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I41" s="42" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J41" s="41">
         <v>1.54</v>
@@ -30326,23 +30185,23 @@
         <v>3</v>
       </c>
       <c r="V41" s="40" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="W41" s="40" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="X41" s="40" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="Y41" s="40" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="AD41" s="40">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AI41" s="40" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="42" spans="2:35" x14ac:dyDescent="0.15">
@@ -30353,22 +30212,22 @@
         <v>36</v>
       </c>
       <c r="D42" s="44" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E42" s="45">
         <v>42611</v>
       </c>
       <c r="F42" s="41" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G42" s="41" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H42" s="42" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="I42" s="42" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="J42" s="41">
         <v>1.1399999999999999</v>
@@ -30407,23 +30266,23 @@
         <v>3</v>
       </c>
       <c r="V42" s="40" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="W42" s="40" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="X42" s="40" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="Y42" s="40" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="AD42" s="40">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AG42" s="40" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="43" spans="2:35" x14ac:dyDescent="0.15">
@@ -30434,22 +30293,22 @@
         <v>37</v>
       </c>
       <c r="D43" s="44" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E43" s="45">
         <v>42611</v>
       </c>
       <c r="F43" s="41" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G43" s="41" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H43" s="42" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="I43" s="42" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="J43" s="41">
         <v>1.59</v>
@@ -30488,16 +30347,16 @@
         <v>0</v>
       </c>
       <c r="V43" s="40" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="W43" s="40" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="X43" s="40" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="Y43" s="40" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="AB43" s="40">
         <v>1</v>
@@ -30507,7 +30366,7 @@
         <v>2</v>
       </c>
       <c r="AG43" s="49" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="44" spans="2:35" x14ac:dyDescent="0.15">
@@ -30518,22 +30377,22 @@
         <v>38</v>
       </c>
       <c r="D44" s="44" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E44" s="45">
         <v>42611</v>
       </c>
       <c r="F44" s="41" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G44" s="41" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="H44" s="42" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="I44" s="42" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="J44" s="41">
         <v>2.12</v>
@@ -30572,23 +30431,23 @@
         <v>0</v>
       </c>
       <c r="V44" s="40" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="W44" s="40" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="X44" s="40" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="Y44" s="40" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="AD44" s="40">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AG44" s="49" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="45" spans="2:35" x14ac:dyDescent="0.15">
@@ -30599,22 +30458,22 @@
         <v>39</v>
       </c>
       <c r="D45" s="44" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E45" s="45">
         <v>42611.010416666664</v>
       </c>
       <c r="F45" s="41" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="G45" s="41" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H45" s="42" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="I45" s="42" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J45" s="41">
         <v>2.2000000000000002</v>
@@ -30653,46 +30512,46 @@
         <v>0</v>
       </c>
       <c r="V45" s="40" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="W45" s="40" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="X45" s="40" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="Y45" s="40" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="AD45" s="40">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B46" s="43">
         <v>42610</v>
       </c>
-      <c r="C46" s="77">
+      <c r="C46" s="44">
         <v>40</v>
       </c>
       <c r="D46" s="44" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E46" s="45">
         <v>42611.010416666664</v>
       </c>
       <c r="F46" s="41" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G46" s="41" t="s">
+        <v>240</v>
+      </c>
+      <c r="H46" s="42" t="s">
+        <v>245</v>
+      </c>
+      <c r="I46" s="42" t="s">
         <v>242</v>
-      </c>
-      <c r="H46" s="42" t="s">
-        <v>247</v>
-      </c>
-      <c r="I46" s="42" t="s">
-        <v>244</v>
       </c>
       <c r="J46" s="41">
         <v>1.65</v>
@@ -30731,20 +30590,20 @@
         <v>3</v>
       </c>
       <c r="V46" s="40" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="W46" s="40" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="X46" s="40" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="Y46" s="40" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="AD46" s="40">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="2:35" x14ac:dyDescent="0.15">
@@ -30755,22 +30614,22 @@
         <v>41</v>
       </c>
       <c r="D47" s="44" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E47" s="45">
         <v>42611.010416666664</v>
       </c>
       <c r="F47" s="41" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G47" s="41" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H47" s="42" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="I47" s="42" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="J47" s="41">
         <v>1.85</v>
@@ -30809,20 +30668,20 @@
         <v>0</v>
       </c>
       <c r="V47" s="40" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="W47" s="40" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="X47" s="40" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="Y47" s="40" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="AD47" s="40">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="2:35" x14ac:dyDescent="0.15">
@@ -30833,22 +30692,22 @@
         <v>42</v>
       </c>
       <c r="D48" s="44" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E48" s="45">
         <v>42611.010416666664</v>
       </c>
       <c r="F48" s="41" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G48" s="41" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H48" s="42" t="s">
+        <v>380</v>
+      </c>
+      <c r="I48" s="42" t="s">
         <v>382</v>
-      </c>
-      <c r="I48" s="42" t="s">
-        <v>384</v>
       </c>
       <c r="J48" s="41">
         <v>2.1</v>
@@ -30887,16 +30746,16 @@
         <v>1</v>
       </c>
       <c r="V48" s="40" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="W48" s="40" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="X48" s="40" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="Y48" s="40" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="AB48" s="40">
         <v>1</v>
@@ -30906,10 +30765,10 @@
         <v>3</v>
       </c>
       <c r="AG48" s="40" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="49" spans="2:35" x14ac:dyDescent="0.15">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="49" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B49" s="43">
         <v>42610</v>
       </c>
@@ -30923,16 +30782,16 @@
         <v>42611.041666666664</v>
       </c>
       <c r="F49" s="41" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G49" s="41" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H49" s="42" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="I49" s="42" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="J49" s="41">
         <v>2.16</v>
@@ -30971,32 +30830,32 @@
         <v>1</v>
       </c>
       <c r="V49" s="40" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="W49" s="40" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="X49" s="40" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="Y49" s="40" t="s">
+        <v>513</v>
+      </c>
+      <c r="Z49" s="40" t="s">
         <v>517</v>
-      </c>
-      <c r="Z49" s="40" t="s">
-        <v>521</v>
       </c>
       <c r="AB49" s="40">
         <v>1</v>
       </c>
       <c r="AD49" s="40">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AG49" s="49" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="50" spans="2:35" x14ac:dyDescent="0.15">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="50" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B50" s="43">
         <v>42610</v>
       </c>
@@ -31004,22 +30863,22 @@
         <v>44</v>
       </c>
       <c r="D50" s="44" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E50" s="45">
         <v>42611.041666666664</v>
       </c>
       <c r="F50" s="41" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G50" s="41" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H50" s="42" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="I50" s="42" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J50" s="41">
         <v>2.5099999999999998</v>
@@ -31058,23 +30917,23 @@
         <v>0</v>
       </c>
       <c r="V50" s="40" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="W50" s="40" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="X50" s="40" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="Y50" s="40" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="AD50" s="40">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="2:35" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B51" s="43">
         <v>42610</v>
       </c>
@@ -31082,22 +30941,22 @@
         <v>45</v>
       </c>
       <c r="D51" s="44" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E51" s="45">
         <v>42611.041666666664</v>
       </c>
       <c r="F51" s="41" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G51" s="41" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H51" s="42" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="I51" s="42" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="J51" s="41">
         <v>1.97</v>
@@ -31136,26 +30995,26 @@
         <v>0</v>
       </c>
       <c r="V51" s="40" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="W51" s="40" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="X51" s="40" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="Y51" s="40" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="AD51" s="40">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AG51" s="40" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="52" spans="2:35" x14ac:dyDescent="0.15">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="52" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B52" s="43">
         <v>42610</v>
       </c>
@@ -31163,22 +31022,22 @@
         <v>46</v>
       </c>
       <c r="D52" s="44" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E52" s="45">
         <v>42611.048611111109</v>
       </c>
       <c r="F52" s="41" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="G52" s="41" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="H52" s="42" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="I52" s="42" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="J52" s="41">
         <v>3.02</v>
@@ -31217,26 +31076,26 @@
         <v>1</v>
       </c>
       <c r="V52" s="40" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="W52" s="40" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="X52" s="40" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="Y52" s="40" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="AB52" s="40">
         <v>1</v>
       </c>
       <c r="AD52" s="40">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="2:35" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B53" s="43">
         <v>42610</v>
       </c>
@@ -31244,22 +31103,22 @@
         <v>47</v>
       </c>
       <c r="D53" s="44" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E53" s="45">
         <v>42611.083333333336</v>
       </c>
       <c r="F53" s="41" t="s">
+        <v>390</v>
+      </c>
+      <c r="G53" s="41" t="s">
+        <v>398</v>
+      </c>
+      <c r="H53" s="42" t="s">
         <v>392</v>
       </c>
-      <c r="G53" s="41" t="s">
-        <v>400</v>
-      </c>
-      <c r="H53" s="42" t="s">
-        <v>394</v>
-      </c>
       <c r="I53" s="42" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="J53" s="41">
         <v>1.63</v>
@@ -31298,16 +31157,16 @@
         <v>0</v>
       </c>
       <c r="V53" s="40" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="W53" s="40" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="X53" s="40" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="Y53" s="40" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="AB53" s="40">
         <v>1</v>
@@ -31317,7 +31176,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B54" s="43">
         <v>42610</v>
       </c>
@@ -31325,22 +31184,22 @@
         <v>48</v>
       </c>
       <c r="D54" s="44" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E54" s="45">
         <v>42611.083333333336</v>
       </c>
       <c r="F54" s="41" t="s">
+        <v>420</v>
+      </c>
+      <c r="G54" s="41" t="s">
+        <v>421</v>
+      </c>
+      <c r="H54" s="42" t="s">
         <v>422</v>
       </c>
-      <c r="G54" s="41" t="s">
+      <c r="I54" s="42" t="s">
         <v>423</v>
-      </c>
-      <c r="H54" s="42" t="s">
-        <v>424</v>
-      </c>
-      <c r="I54" s="42" t="s">
-        <v>425</v>
       </c>
       <c r="J54" s="41">
         <v>1.76</v>
@@ -31379,26 +31238,26 @@
         <v>1</v>
       </c>
       <c r="V54" s="40" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="W54" s="40" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="X54" s="40" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="Y54" s="40" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="AD54" s="40">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AG54" s="49" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="55" spans="2:35" x14ac:dyDescent="0.15">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="55" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B55" s="43">
         <v>42610</v>
       </c>
@@ -31406,22 +31265,22 @@
         <v>49</v>
       </c>
       <c r="D55" s="44" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E55" s="45">
         <v>42611.083333333336</v>
       </c>
       <c r="F55" s="41" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G55" s="41" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H55" s="42" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I55" s="42" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J55" s="41">
         <v>1.97</v>
@@ -31460,23 +31319,23 @@
         <v>0</v>
       </c>
       <c r="V55" s="40" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="W55" s="40" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="X55" s="40" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="Y55" s="40" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="AD55" s="40">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="2:35" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:35" x14ac:dyDescent="0.15">
       <c r="F56" s="41"/>
       <c r="G56" s="41"/>
       <c r="H56" s="42"/>
@@ -31495,13 +31354,13 @@
       <c r="U56" s="42"/>
       <c r="AD56" s="40">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AI56" s="53" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="57" spans="2:35" x14ac:dyDescent="0.15">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="57" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B57" s="43">
         <v>42610</v>
       </c>
@@ -31509,22 +31368,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="44" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E57" s="45">
         <v>42611.09375</v>
       </c>
       <c r="F57" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="G57" s="41" t="s">
+        <v>287</v>
+      </c>
+      <c r="H57" s="42" t="s">
         <v>246</v>
       </c>
-      <c r="G57" s="41" t="s">
-        <v>289</v>
-      </c>
-      <c r="H57" s="42" t="s">
-        <v>248</v>
-      </c>
       <c r="I57" s="42" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J57" s="41">
         <v>5.9</v>
@@ -31563,26 +31422,26 @@
         <v>1</v>
       </c>
       <c r="V57" s="40" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="W57" s="40" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="X57" s="40" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="Y57" s="40" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="Z57" s="40" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="AD57" s="40">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="2:35" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B58" s="43">
         <v>42610</v>
       </c>
@@ -31590,22 +31449,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="44" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E58" s="45">
         <v>42611.104166666664</v>
       </c>
       <c r="F58" s="41" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G58" s="41" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="H58" s="42" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="I58" s="42" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="J58" s="41">
         <v>4.5</v>
@@ -31644,23 +31503,26 @@
         <v>0</v>
       </c>
       <c r="V58" s="40" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="W58" s="40" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="X58" s="40" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="Y58" s="40" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="AD58" s="40">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="2:35" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A59" s="77">
+        <v>1</v>
+      </c>
       <c r="B59" s="43">
         <v>42610</v>
       </c>
@@ -31674,16 +31536,16 @@
         <v>42611.104166666664</v>
       </c>
       <c r="F59" s="41" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G59" s="41" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="H59" s="42" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="I59" s="42" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="J59" s="41">
         <v>1.37</v>
@@ -31722,23 +31584,23 @@
         <v>1</v>
       </c>
       <c r="V59" s="40" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="W59" s="40" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="X59" s="40" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="Y59" s="40" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="AD59" s="40">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="2:35" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B60" s="43">
         <v>42610</v>
       </c>
@@ -31746,22 +31608,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="44" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E60" s="45">
         <v>42611.114583333336</v>
       </c>
       <c r="F60" s="41" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G60" s="41" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H60" s="42" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="I60" s="42" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J60" s="41">
         <v>5</v>
@@ -31800,19 +31662,19 @@
         <v>3</v>
       </c>
       <c r="V60" s="40" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="W60" s="40" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="X60" s="40" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="Y60" s="40" t="s">
+        <v>513</v>
+      </c>
+      <c r="Z60" s="40" t="s">
         <v>517</v>
-      </c>
-      <c r="Z60" s="40" t="s">
-        <v>521</v>
       </c>
       <c r="AA60" s="40">
         <v>1</v>
@@ -31822,10 +31684,10 @@
       </c>
       <c r="AD60" s="40">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="2:35" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B61" s="43">
         <v>42610</v>
       </c>
@@ -31833,22 +31695,22 @@
         <v>54</v>
       </c>
       <c r="D61" s="44" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E61" s="45">
         <v>42611.114583333336</v>
       </c>
       <c r="F61" s="41" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="G61" s="41" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H61" s="42" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="I61" s="42" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="J61" s="41">
         <v>5.05</v>
@@ -31887,23 +31749,23 @@
         <v>0</v>
       </c>
       <c r="V61" s="40" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="W61" s="40" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="X61" s="40" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="Y61" s="40" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="AD61" s="40">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="2:35" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B62" s="43">
         <v>42610</v>
       </c>
@@ -31911,22 +31773,22 @@
         <v>55</v>
       </c>
       <c r="D62" s="44" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E62" s="45">
         <v>42611.114583333336</v>
       </c>
       <c r="F62" s="41" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G62" s="41" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H62" s="42" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I62" s="42" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="J62" s="41">
         <v>1.65</v>
@@ -31965,23 +31827,23 @@
         <v>3</v>
       </c>
       <c r="V62" s="40" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="W62" s="40" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="X62" s="40" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="Y62" s="40" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="AD62" s="40">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B63" s="43">
         <v>42610</v>
       </c>
@@ -31989,22 +31851,22 @@
         <v>56</v>
       </c>
       <c r="D63" s="44" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E63" s="45">
         <v>42611.114583333336</v>
       </c>
       <c r="F63" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="G63" s="41" t="s">
         <v>253</v>
       </c>
-      <c r="G63" s="41" t="s">
-        <v>255</v>
-      </c>
       <c r="H63" s="42" t="s">
+        <v>251</v>
+      </c>
+      <c r="I63" s="42" t="s">
         <v>253</v>
-      </c>
-      <c r="I63" s="42" t="s">
-        <v>255</v>
       </c>
       <c r="J63" s="41">
         <v>2.2200000000000002</v>
@@ -32043,26 +31905,26 @@
         <v>1</v>
       </c>
       <c r="V63" s="40" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="W63" s="40" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="X63" s="40" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="Y63" s="40" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="AB63" s="40">
         <v>1</v>
       </c>
       <c r="AD63" s="40">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" spans="2:35" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B64" s="43">
         <v>42610</v>
       </c>
@@ -32070,22 +31932,22 @@
         <v>57</v>
       </c>
       <c r="D64" s="44" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E64" s="45">
         <v>42611.114583333336</v>
       </c>
       <c r="F64" s="41" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G64" s="41" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H64" s="42" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I64" s="42" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J64" s="41">
         <v>1.91</v>
@@ -32124,26 +31986,26 @@
         <v>3</v>
       </c>
       <c r="V64" s="40" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="W64" s="40" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="X64" s="40" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="Y64" s="40" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="AB64" s="40">
         <v>1</v>
       </c>
       <c r="AD64" s="40">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="2:33" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:33" x14ac:dyDescent="0.15">
       <c r="B65" s="43">
         <v>42610</v>
       </c>
@@ -32151,22 +32013,22 @@
         <v>58</v>
       </c>
       <c r="D65" s="44" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E65" s="45">
         <v>42611.114583333336</v>
       </c>
       <c r="F65" s="41" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G65" s="41" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H65" s="42" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="I65" s="42" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="J65" s="41">
         <v>1.47</v>
@@ -32205,23 +32067,23 @@
         <v>1</v>
       </c>
       <c r="V65" s="40" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="W65" s="40" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="X65" s="40" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="Y65" s="40" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="AD65" s="40">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="2:33" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:33" x14ac:dyDescent="0.15">
       <c r="B66" s="43">
         <v>42610</v>
       </c>
@@ -32229,22 +32091,22 @@
         <v>59</v>
       </c>
       <c r="D66" s="44" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E66" s="45">
         <v>42611.114583333336</v>
       </c>
       <c r="F66" s="41" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G66" s="41" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H66" s="42" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I66" s="42" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="J66" s="41">
         <v>1.44</v>
@@ -32283,23 +32145,23 @@
         <v>1</v>
       </c>
       <c r="V66" s="40" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="W66" s="40" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="X66" s="40" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="Y66" s="40" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="AD66" s="40">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:33" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:33" x14ac:dyDescent="0.15">
       <c r="B67" s="43">
         <v>42610</v>
       </c>
@@ -32307,22 +32169,22 @@
         <v>60</v>
       </c>
       <c r="D67" s="44" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E67" s="45">
         <v>42611.114583333336</v>
       </c>
       <c r="F67" s="41" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G67" s="41" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H67" s="42" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="I67" s="42" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J67" s="41">
         <v>5.25</v>
@@ -32361,29 +32223,29 @@
         <v>3</v>
       </c>
       <c r="V67" s="40" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="W67" s="40" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="X67" s="40" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="Y67" s="40" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="Z67" s="40" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="AB67" s="40">
         <v>1</v>
       </c>
       <c r="AD67" s="40">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68" spans="2:33" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:33" x14ac:dyDescent="0.15">
       <c r="B68" s="43">
         <v>42610</v>
       </c>
@@ -32445,16 +32307,16 @@
         <v>3</v>
       </c>
       <c r="V68" s="40" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="W68" s="40" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="X68" s="40" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="Y68" s="40" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="AB68" s="40">
         <v>1</v>
@@ -32464,7 +32326,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:33" x14ac:dyDescent="0.15">
       <c r="B69" s="43">
         <v>42610</v>
       </c>
@@ -32472,22 +32334,22 @@
         <v>62</v>
       </c>
       <c r="D69" s="44" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E69" s="45">
         <v>42611.125</v>
       </c>
       <c r="F69" s="41" t="s">
+        <v>427</v>
+      </c>
+      <c r="G69" s="41" t="s">
+        <v>428</v>
+      </c>
+      <c r="H69" s="42" t="s">
         <v>429</v>
       </c>
-      <c r="G69" s="41" t="s">
-        <v>430</v>
-      </c>
-      <c r="H69" s="42" t="s">
-        <v>431</v>
-      </c>
       <c r="I69" s="42" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="J69" s="41">
         <v>2.62</v>
@@ -32526,29 +32388,29 @@
         <v>0</v>
       </c>
       <c r="V69" s="40" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="W69" s="40" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="X69" s="40" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="Y69" s="40" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="AB69" s="40">
         <v>1</v>
       </c>
       <c r="AD69" s="40">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG69" s="49" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="70" spans="2:33" x14ac:dyDescent="0.15">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="70" spans="1:33" x14ac:dyDescent="0.15">
       <c r="B70" s="43">
         <v>42610</v>
       </c>
@@ -32556,22 +32418,22 @@
         <v>63</v>
       </c>
       <c r="D70" s="44" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E70" s="45">
         <v>42611.125</v>
       </c>
       <c r="F70" s="41" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G70" s="41" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H70" s="42" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="I70" s="42" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J70" s="41">
         <v>3.02</v>
@@ -32610,16 +32472,16 @@
         <v>0</v>
       </c>
       <c r="V70" s="40" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="W70" s="40" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="X70" s="40" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="Y70" s="40" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="AB70" s="40">
         <v>1</v>
@@ -32629,7 +32491,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:33" x14ac:dyDescent="0.15">
       <c r="B71" s="43">
         <v>42610</v>
       </c>
@@ -32637,22 +32499,22 @@
         <v>64</v>
       </c>
       <c r="D71" s="44" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E71" s="45">
         <v>42611.125</v>
       </c>
       <c r="F71" s="41" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G71" s="41" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H71" s="42" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="I71" s="42" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J71" s="41">
         <v>1.81</v>
@@ -32691,26 +32553,26 @@
         <v>0</v>
       </c>
       <c r="V71" s="40" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="W71" s="40" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="X71" s="40" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="Y71" s="40" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="AA71" s="40">
         <v>1</v>
       </c>
       <c r="AD71" s="40">
-        <f t="shared" ref="AD71:AD134" si="1">IF(V71=$V$4,1,0)+IF(W71=$W$4,1,0)+IF(X71=$X$4,1,0)+IF(Y71=$Y$4,1,0)+IF(Z71=$Z$4,1,0)+IF(AA71=$AA$4,1,0)+IF(AB71=$AB$4,1,0)</f>
+        <f t="shared" ref="AD71:AD100" si="1">IF(V71=$V$4,1,0)+IF(W71=$W$4,1,0)+IF(X71=$X$4,1,0)+IF(Y71=$Y$4,1,0)+IF(Z71=$Z$4,1,0)+IF(AA71=$AA$4,1,0)+IF(AB71=$AB$4,1,0)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:33" x14ac:dyDescent="0.15">
       <c r="B72" s="43">
         <v>42610</v>
       </c>
@@ -32718,22 +32580,22 @@
         <v>65</v>
       </c>
       <c r="D72" s="44" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E72" s="45">
         <v>42611.125</v>
       </c>
       <c r="F72" s="41" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G72" s="41" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="H72" s="42" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="I72" s="42" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="J72" s="41">
         <v>1.58</v>
@@ -32772,16 +32634,16 @@
         <v>0</v>
       </c>
       <c r="V72" s="40" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="W72" s="40" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="X72" s="40" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="Y72" s="40" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="AA72" s="40">
         <v>1</v>
@@ -32791,10 +32653,10 @@
       </c>
       <c r="AD72" s="40">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="2:33" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:33" x14ac:dyDescent="0.15">
       <c r="B73" s="43">
         <v>42610</v>
       </c>
@@ -32802,22 +32664,22 @@
         <v>66</v>
       </c>
       <c r="D73" s="44" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E73" s="45">
         <v>42611.125</v>
       </c>
       <c r="F73" s="41" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G73" s="41" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H73" s="42" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="I73" s="42" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="J73" s="41">
         <v>3.2</v>
@@ -32856,16 +32718,16 @@
         <v>1</v>
       </c>
       <c r="V73" s="40" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="W73" s="40" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="X73" s="40" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="Y73" s="40" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="AB73" s="40">
         <v>1</v>
@@ -32875,7 +32737,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:33" x14ac:dyDescent="0.15">
       <c r="B74" s="43">
         <v>42610</v>
       </c>
@@ -32889,16 +32751,16 @@
         <v>42611.135416666664</v>
       </c>
       <c r="F74" s="41" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G74" s="41" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H74" s="42" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I74" s="42" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J74" s="41">
         <v>1.73</v>
@@ -32937,23 +32799,23 @@
         <v>1</v>
       </c>
       <c r="V74" s="40" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="W74" s="40" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="X74" s="40" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="Y74" s="40" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="AD74" s="40">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="2:33" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:33" x14ac:dyDescent="0.15">
       <c r="B75" s="43">
         <v>42610</v>
       </c>
@@ -32961,22 +32823,22 @@
         <v>68</v>
       </c>
       <c r="D75" s="44" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E75" s="45">
         <v>42611.135416666664</v>
       </c>
       <c r="F75" s="41" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G75" s="41" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H75" s="42" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I75" s="42" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="J75" s="41">
         <v>2.0499999999999998</v>
@@ -33015,16 +32877,16 @@
         <v>1</v>
       </c>
       <c r="V75" s="40" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="W75" s="40" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="X75" s="40" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="Y75" s="40" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="AB75" s="40">
         <v>1</v>
@@ -33034,7 +32896,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:33" x14ac:dyDescent="0.15">
       <c r="B76" s="43">
         <v>42610</v>
       </c>
@@ -33042,22 +32904,22 @@
         <v>69</v>
       </c>
       <c r="D76" s="44" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E76" s="45">
         <v>42611.177083333336</v>
       </c>
       <c r="F76" s="41" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G76" s="41" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H76" s="42" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I76" s="42" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J76" s="41">
         <v>2.41</v>
@@ -33096,29 +32958,29 @@
         <v>0</v>
       </c>
       <c r="V76" s="40" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="W76" s="40" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="X76" s="40" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="Y76" s="40" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="Z76" s="40" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="AA76" s="40">
         <v>1</v>
       </c>
       <c r="AD76" s="40">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:33" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:33" x14ac:dyDescent="0.15">
       <c r="B77" s="43">
         <v>42610</v>
       </c>
@@ -33126,22 +32988,22 @@
         <v>70</v>
       </c>
       <c r="D77" s="44" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E77" s="45">
         <v>42611.1875</v>
       </c>
       <c r="F77" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="G77" s="41" t="s">
+        <v>317</v>
+      </c>
+      <c r="H77" s="42" t="s">
         <v>307</v>
       </c>
-      <c r="G77" s="41" t="s">
-        <v>319</v>
-      </c>
-      <c r="H77" s="42" t="s">
-        <v>309</v>
-      </c>
       <c r="I77" s="42" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J77" s="41">
         <v>2.0499999999999998</v>
@@ -33180,26 +33042,26 @@
         <v>3</v>
       </c>
       <c r="V77" s="40" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="W77" s="40" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="X77" s="40" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="Y77" s="40" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="AB77" s="40">
         <v>1</v>
       </c>
       <c r="AD77" s="40">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="2:33" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:33" x14ac:dyDescent="0.15">
       <c r="B78" s="43">
         <v>42610</v>
       </c>
@@ -33207,22 +33069,22 @@
         <v>71</v>
       </c>
       <c r="D78" s="44" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E78" s="45">
         <v>42611.208333333336</v>
       </c>
       <c r="F78" s="41" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G78" s="41" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H78" s="42" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I78" s="42" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="J78" s="41">
         <v>1.56</v>
@@ -33261,23 +33123,26 @@
         <v>3</v>
       </c>
       <c r="V78" s="40" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="W78" s="40" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="X78" s="40" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="Y78" s="40" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="AD78" s="40">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="2:33" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A79" s="77">
+        <v>1</v>
+      </c>
       <c r="B79" s="43">
         <v>42610</v>
       </c>
@@ -33291,13 +33156,13 @@
         <v>42611.208333333336</v>
       </c>
       <c r="F79" s="41" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="G79" s="41" t="s">
         <v>194</v>
       </c>
       <c r="H79" s="42" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I79" s="42" t="s">
         <v>194</v>
@@ -33339,26 +33204,26 @@
         <v>3</v>
       </c>
       <c r="V79" s="40" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="W79" s="40" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="X79" s="40" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="Y79" s="40" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="AB79" s="40">
         <v>1</v>
       </c>
       <c r="AD79" s="40">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="2:33" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:33" x14ac:dyDescent="0.15">
       <c r="B80" s="43">
         <v>42610</v>
       </c>
@@ -33366,22 +33231,22 @@
         <v>73</v>
       </c>
       <c r="D80" s="44" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E80" s="45">
         <v>42611.229166666664</v>
       </c>
       <c r="F80" s="41" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="G80" s="41" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H80" s="42" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="I80" s="42" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="J80" s="41">
         <v>2.2200000000000002</v>
@@ -33420,16 +33285,16 @@
         <v>0</v>
       </c>
       <c r="V80" s="40" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="W80" s="40" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="X80" s="40" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="Y80" s="40" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="AA80" s="40">
         <v>1</v>
@@ -33447,22 +33312,22 @@
         <v>74</v>
       </c>
       <c r="D81" s="44" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E81" s="45">
         <v>42611.229166666664</v>
       </c>
       <c r="F81" s="41" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G81" s="41" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="H81" s="42" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="I81" s="42" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="J81" s="41">
         <v>1.56</v>
@@ -33501,20 +33366,20 @@
         <v>1</v>
       </c>
       <c r="V81" s="40" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="W81" s="40" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="X81" s="40" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="Y81" s="40" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="AD81" s="40">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="2:33" x14ac:dyDescent="0.15">
@@ -33525,22 +33390,22 @@
         <v>75</v>
       </c>
       <c r="D82" s="44" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E82" s="45">
         <v>42611.25</v>
       </c>
       <c r="F82" s="41" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G82" s="41" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H82" s="42" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="I82" s="42" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="J82" s="41">
         <v>2.1</v>
@@ -33579,23 +33444,23 @@
         <v>0</v>
       </c>
       <c r="V82" s="40" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="W82" s="40" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="X82" s="40" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="Y82" s="40" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="AA82" s="40">
         <v>1</v>
       </c>
       <c r="AD82" s="40">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="2:33" x14ac:dyDescent="0.15">
@@ -33606,22 +33471,22 @@
         <v>76</v>
       </c>
       <c r="D83" s="44" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E83" s="45">
         <v>42611.291666666664</v>
       </c>
       <c r="F83" s="41" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="G83" s="41" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H83" s="42" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="I83" s="42" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="J83" s="41">
         <v>2.4500000000000002</v>
@@ -33660,20 +33525,20 @@
         <v>1</v>
       </c>
       <c r="V83" s="40" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="W83" s="40" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="X83" s="40" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="Y83" s="40" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="AD83" s="40">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="2:33" x14ac:dyDescent="0.15">
@@ -33684,22 +33549,22 @@
         <v>77</v>
       </c>
       <c r="D84" s="44" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E84" s="45">
         <v>42611.291666666664</v>
       </c>
       <c r="F84" s="41" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G84" s="41" t="s">
+        <v>304</v>
+      </c>
+      <c r="H84" s="42" t="s">
+        <v>309</v>
+      </c>
+      <c r="I84" s="42" t="s">
         <v>306</v>
-      </c>
-      <c r="H84" s="42" t="s">
-        <v>311</v>
-      </c>
-      <c r="I84" s="42" t="s">
-        <v>308</v>
       </c>
       <c r="J84" s="41">
         <v>1.83</v>
@@ -33738,20 +33603,20 @@
         <v>0</v>
       </c>
       <c r="V84" s="40" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="W84" s="40" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="X84" s="40" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="Y84" s="40" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="AD84" s="40">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="2:33" x14ac:dyDescent="0.15">
@@ -33768,16 +33633,16 @@
         <v>42611.291666666664</v>
       </c>
       <c r="F85" s="41" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G85" s="41" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="H85" s="42" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="I85" s="42" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="J85" s="41">
         <v>2.15</v>
@@ -33816,26 +33681,26 @@
         <v>1</v>
       </c>
       <c r="V85" s="40" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="W85" s="40" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="X85" s="40" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="Y85" s="40" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="AB85" s="40">
         <v>1</v>
       </c>
       <c r="AD85" s="40">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG85" s="49" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="86" spans="2:33" x14ac:dyDescent="0.15">
@@ -33846,22 +33711,22 @@
         <v>79</v>
       </c>
       <c r="D86" s="44" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E86" s="45">
         <v>42611.291666666664</v>
       </c>
       <c r="F86" s="41" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G86" s="41" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H86" s="42" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="I86" s="42" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J86" s="41">
         <v>2.2200000000000002</v>
@@ -33900,23 +33765,23 @@
         <v>1</v>
       </c>
       <c r="V86" s="40" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="W86" s="40" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="X86" s="40" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="Y86" s="40" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="AB86" s="40">
         <v>1</v>
       </c>
       <c r="AD86" s="40">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="2:33" x14ac:dyDescent="0.15">
@@ -33927,22 +33792,22 @@
         <v>1</v>
       </c>
       <c r="D87" s="44" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="E87" s="45">
         <v>42613.75</v>
       </c>
       <c r="F87" s="41" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="G87" s="41" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="H87" s="42" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="I87" s="42" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="J87" s="41">
         <v>3</v>
@@ -33981,26 +33846,26 @@
         <v>1</v>
       </c>
       <c r="V87" s="40" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="W87" s="40" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="X87" s="40" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="Y87" s="40" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="AB87" s="40">
         <v>1</v>
       </c>
       <c r="AD87" s="40">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG87" s="49" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
     </row>
     <row r="88" spans="2:33" x14ac:dyDescent="0.15">
@@ -34011,22 +33876,22 @@
         <v>2</v>
       </c>
       <c r="D88" s="44" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="E88" s="45">
         <v>42613.75</v>
       </c>
       <c r="F88" s="41" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="G88" s="41" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="H88" s="42" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="I88" s="42" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="J88" s="41">
         <v>2.98</v>
@@ -34065,23 +33930,23 @@
         <v>3</v>
       </c>
       <c r="V88" s="40" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="W88" s="40" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="X88" s="40" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="Y88" s="40" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="AA88" s="40">
         <v>1</v>
       </c>
       <c r="AD88" s="40">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="2:33" x14ac:dyDescent="0.15">
@@ -34092,22 +33957,22 @@
         <v>3</v>
       </c>
       <c r="D89" s="44" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="E89" s="45">
         <v>42613.75</v>
       </c>
       <c r="F89" s="41" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="G89" s="41" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="H89" s="42" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="I89" s="42" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="J89" s="41">
         <v>1.81</v>
@@ -34146,23 +34011,23 @@
         <v>0</v>
       </c>
       <c r="V89" s="40" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="W89" s="40" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="X89" s="40" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="Y89" s="40" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="AB89" s="40">
         <v>1</v>
       </c>
       <c r="AD89" s="40">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="2:33" x14ac:dyDescent="0.15">
@@ -34173,22 +34038,22 @@
         <v>4</v>
       </c>
       <c r="D90" s="44" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="E90" s="45">
         <v>42613.75</v>
       </c>
       <c r="F90" s="41" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="G90" s="41" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="H90" s="42" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="I90" s="42" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="J90" s="41">
         <v>2.95</v>
@@ -34227,23 +34092,23 @@
         <v>1</v>
       </c>
       <c r="V90" s="40" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="W90" s="40" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="X90" s="40" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="Y90" s="40" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="AB90" s="40">
         <v>1</v>
       </c>
       <c r="AD90" s="40">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="2:33" x14ac:dyDescent="0.15">
@@ -34254,19 +34119,19 @@
         <v>5</v>
       </c>
       <c r="D91" s="44" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="E91" s="45">
         <v>42613.770833333336</v>
       </c>
       <c r="F91" s="41" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G91" s="41" t="s">
         <v>209</v>
       </c>
       <c r="H91" s="42" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="I91" s="42" t="s">
         <v>209</v>
@@ -34307,9 +34172,27 @@
       <c r="U91" s="42">
         <v>0</v>
       </c>
+      <c r="V91" s="40" t="s">
+        <v>562</v>
+      </c>
+      <c r="W91" s="40" t="s">
+        <v>563</v>
+      </c>
+      <c r="X91" s="40" t="s">
+        <v>562</v>
+      </c>
+      <c r="Y91" s="40" t="s">
+        <v>562</v>
+      </c>
+      <c r="AA91" s="40">
+        <v>1</v>
+      </c>
+      <c r="AB91" s="40">
+        <v>1</v>
+      </c>
       <c r="AD91" s="40">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92" spans="2:33" x14ac:dyDescent="0.15">
@@ -34320,22 +34203,22 @@
         <v>6</v>
       </c>
       <c r="D92" s="44" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="E92" s="45">
         <v>42613.979166666664</v>
       </c>
       <c r="F92" s="41" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="G92" s="41" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="H92" s="42" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="I92" s="42" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="J92" s="41">
         <v>1.48</v>
@@ -34373,9 +34256,27 @@
       <c r="U92" s="42">
         <v>0</v>
       </c>
+      <c r="V92" s="40" t="s">
+        <v>565</v>
+      </c>
+      <c r="W92" s="40" t="s">
+        <v>563</v>
+      </c>
+      <c r="X92" s="40" t="s">
+        <v>566</v>
+      </c>
+      <c r="Y92" s="40" t="s">
+        <v>567</v>
+      </c>
+      <c r="AA92" s="40">
+        <v>1</v>
+      </c>
+      <c r="AB92" s="40">
+        <v>1</v>
+      </c>
       <c r="AD92" s="40">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="2:33" x14ac:dyDescent="0.15">
@@ -34386,22 +34287,22 @@
         <v>7</v>
       </c>
       <c r="D93" s="44" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="E93" s="45">
         <v>42614.052083333336</v>
       </c>
       <c r="F93" s="41" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="G93" s="41" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="H93" s="42" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="I93" s="42" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="J93" s="41">
         <v>1.38</v>
@@ -34439,9 +34340,21 @@
       <c r="U93" s="42">
         <v>3</v>
       </c>
+      <c r="V93" s="40" t="s">
+        <v>546</v>
+      </c>
+      <c r="W93" s="40" t="s">
+        <v>472</v>
+      </c>
+      <c r="X93" s="40" t="s">
+        <v>471</v>
+      </c>
+      <c r="Y93" s="40" t="s">
+        <v>549</v>
+      </c>
       <c r="AD93" s="40">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="2:33" x14ac:dyDescent="0.15">
@@ -34452,22 +34365,22 @@
         <v>8</v>
       </c>
       <c r="D94" s="44" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="E94" s="45">
         <v>42614.0625</v>
       </c>
       <c r="F94" s="41" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="G94" s="41" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="H94" s="42" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="I94" s="42" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="J94" s="41">
         <v>1.57</v>
@@ -34505,9 +34418,27 @@
       <c r="U94" s="42">
         <v>0</v>
       </c>
+      <c r="V94" s="40" t="s">
+        <v>546</v>
+      </c>
+      <c r="W94" s="40" t="s">
+        <v>472</v>
+      </c>
+      <c r="X94" s="40" t="s">
+        <v>473</v>
+      </c>
+      <c r="Y94" s="40" t="s">
+        <v>557</v>
+      </c>
+      <c r="AA94" s="40">
+        <v>1</v>
+      </c>
+      <c r="AB94" s="40">
+        <v>1</v>
+      </c>
       <c r="AD94" s="40">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="2:33" x14ac:dyDescent="0.15">
@@ -34518,22 +34449,22 @@
         <v>10</v>
       </c>
       <c r="D95" s="44" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="E95" s="45">
         <v>42614.09375</v>
       </c>
       <c r="F95" s="41" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="G95" s="41" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="H95" s="42" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="I95" s="42" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="J95" s="41">
         <v>2.25</v>
@@ -34571,9 +34502,24 @@
       <c r="U95" s="42">
         <v>0</v>
       </c>
+      <c r="V95" s="40" t="s">
+        <v>546</v>
+      </c>
+      <c r="W95" s="40" t="s">
+        <v>472</v>
+      </c>
+      <c r="X95" s="40" t="s">
+        <v>557</v>
+      </c>
+      <c r="Y95" s="40" t="s">
+        <v>471</v>
+      </c>
+      <c r="AA95" s="40">
+        <v>1</v>
+      </c>
       <c r="AD95" s="40">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96" spans="2:33" x14ac:dyDescent="0.15">
@@ -34584,22 +34530,22 @@
         <v>12</v>
       </c>
       <c r="D96" s="44" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="E96" s="45">
         <v>42614.114583333336</v>
       </c>
       <c r="F96" s="41" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="G96" s="41" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="H96" s="42" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="I96" s="42" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="J96" s="41">
         <v>1.1499999999999999</v>
@@ -34637,12 +34583,24 @@
       <c r="U96" s="42">
         <v>3</v>
       </c>
+      <c r="V96" s="40" t="s">
+        <v>542</v>
+      </c>
+      <c r="W96" s="40" t="s">
+        <v>472</v>
+      </c>
+      <c r="X96" s="40" t="s">
+        <v>471</v>
+      </c>
+      <c r="Y96" s="40" t="s">
+        <v>473</v>
+      </c>
       <c r="AD96" s="40">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="2:30" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B97" s="43">
         <v>42613</v>
       </c>
@@ -34650,22 +34608,22 @@
         <v>13</v>
       </c>
       <c r="D97" s="44" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="E97" s="45">
         <v>42614.114583333336</v>
       </c>
       <c r="F97" s="41" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="G97" s="41" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="H97" s="42" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="I97" s="42" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="J97" s="41">
         <v>1.93</v>
@@ -34703,12 +34661,27 @@
       <c r="U97" s="42">
         <v>1</v>
       </c>
+      <c r="V97" s="40" t="s">
+        <v>546</v>
+      </c>
+      <c r="W97" s="40" t="s">
+        <v>472</v>
+      </c>
+      <c r="X97" s="40" t="s">
+        <v>471</v>
+      </c>
+      <c r="Y97" s="40" t="s">
+        <v>473</v>
+      </c>
+      <c r="AB97" s="40">
+        <v>1</v>
+      </c>
       <c r="AD97" s="40">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="2:30" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B98" s="43">
         <v>42613</v>
       </c>
@@ -34716,22 +34689,22 @@
         <v>14</v>
       </c>
       <c r="D98" s="44" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E98" s="45">
         <v>42614.166666666664</v>
       </c>
       <c r="F98" s="41" t="s">
+        <v>430</v>
+      </c>
+      <c r="G98" s="41" t="s">
         <v>432</v>
       </c>
-      <c r="G98" s="41" t="s">
-        <v>434</v>
-      </c>
       <c r="H98" s="42" t="s">
+        <v>430</v>
+      </c>
+      <c r="I98" s="42" t="s">
         <v>432</v>
-      </c>
-      <c r="I98" s="42" t="s">
-        <v>434</v>
       </c>
       <c r="J98" s="41">
         <v>1.55</v>
@@ -34769,12 +34742,24 @@
       <c r="U98" s="42">
         <v>1</v>
       </c>
+      <c r="V98" s="40" t="s">
+        <v>569</v>
+      </c>
+      <c r="W98" s="40" t="s">
+        <v>547</v>
+      </c>
+      <c r="X98" s="40" t="s">
+        <v>471</v>
+      </c>
+      <c r="Y98" s="40" t="s">
+        <v>473</v>
+      </c>
       <c r="AD98" s="40">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="2:30" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B99" s="43">
         <v>42613</v>
       </c>
@@ -34782,22 +34767,22 @@
         <v>15</v>
       </c>
       <c r="D99" s="44" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="E99" s="45">
         <v>42614.270833333336</v>
       </c>
       <c r="F99" s="41" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G99" s="41" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="H99" s="42" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="I99" s="42" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="J99" s="41">
         <v>1.1000000000000001</v>
@@ -34835,12 +34820,24 @@
       <c r="U99" s="42">
         <v>3</v>
       </c>
+      <c r="V99" s="40" t="s">
+        <v>569</v>
+      </c>
+      <c r="W99" s="40" t="s">
+        <v>472</v>
+      </c>
+      <c r="X99" s="40" t="s">
+        <v>471</v>
+      </c>
+      <c r="Y99" s="40" t="s">
+        <v>473</v>
+      </c>
       <c r="AD99" s="40">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="2:30" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B100" s="43">
         <v>42613</v>
       </c>
@@ -34848,22 +34845,22 @@
         <v>16</v>
       </c>
       <c r="D100" s="44" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="E100" s="45">
         <v>42614.270833333336</v>
       </c>
       <c r="F100" s="41" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="G100" s="41" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="H100" s="42" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="I100" s="42" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="J100" s="41">
         <v>5</v>
@@ -34901,318 +34898,1725 @@
       <c r="U100" s="42">
         <v>3</v>
       </c>
+      <c r="V100" s="40" t="s">
+        <v>555</v>
+      </c>
+      <c r="W100" s="40" t="s">
+        <v>472</v>
+      </c>
+      <c r="X100" s="40" t="s">
+        <v>471</v>
+      </c>
+      <c r="Y100" s="40" t="s">
+        <v>473</v>
+      </c>
+      <c r="AA100" s="40">
+        <v>1</v>
+      </c>
+      <c r="AB100" s="40">
+        <v>1</v>
+      </c>
       <c r="AD100" s="40">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="2:30" x14ac:dyDescent="0.15">
-      <c r="F101" s="41"/>
-      <c r="G101" s="41"/>
-      <c r="H101" s="42"/>
-      <c r="I101" s="42"/>
-      <c r="J101" s="41"/>
-      <c r="K101" s="41"/>
-      <c r="L101" s="41"/>
-      <c r="M101" s="42"/>
-      <c r="N101" s="42"/>
-      <c r="O101" s="42"/>
-      <c r="P101" s="42"/>
-      <c r="Q101" s="42"/>
-      <c r="R101" s="42"/>
-      <c r="S101" s="42"/>
-      <c r="T101" s="41"/>
-      <c r="U101" s="42"/>
-    </row>
-    <row r="102" spans="2:30" x14ac:dyDescent="0.15">
-      <c r="F102" s="41"/>
-      <c r="G102" s="41"/>
-      <c r="H102" s="42"/>
-      <c r="I102" s="42"/>
-      <c r="J102" s="41"/>
-      <c r="K102" s="41"/>
-      <c r="L102" s="41"/>
-      <c r="M102" s="42"/>
-      <c r="N102" s="42"/>
-      <c r="O102" s="42"/>
-      <c r="P102" s="42"/>
-      <c r="Q102" s="42"/>
-      <c r="R102" s="42"/>
-      <c r="S102" s="42"/>
-      <c r="T102" s="41"/>
-      <c r="U102" s="42"/>
-    </row>
-    <row r="103" spans="2:30" x14ac:dyDescent="0.15">
-      <c r="F103" s="41"/>
-      <c r="G103" s="41"/>
-      <c r="H103" s="42"/>
-      <c r="I103" s="42"/>
-      <c r="J103" s="41"/>
-      <c r="K103" s="41"/>
-      <c r="L103" s="41"/>
-      <c r="M103" s="42"/>
-      <c r="N103" s="42"/>
-      <c r="O103" s="42"/>
-      <c r="P103" s="42"/>
-      <c r="Q103" s="42"/>
-      <c r="R103" s="42"/>
-      <c r="S103" s="42"/>
-      <c r="T103" s="41"/>
-      <c r="U103" s="42"/>
-    </row>
-    <row r="104" spans="2:30" x14ac:dyDescent="0.15">
-      <c r="F104" s="41"/>
-      <c r="G104" s="41"/>
-      <c r="H104" s="42"/>
-      <c r="I104" s="42"/>
-      <c r="J104" s="41"/>
-      <c r="K104" s="41"/>
-      <c r="L104" s="41"/>
-      <c r="M104" s="42"/>
-      <c r="N104" s="42"/>
-      <c r="O104" s="42"/>
-      <c r="P104" s="42"/>
-      <c r="Q104" s="42"/>
-      <c r="R104" s="42"/>
-      <c r="S104" s="42"/>
-      <c r="T104" s="41"/>
-      <c r="U104" s="42"/>
-    </row>
-    <row r="105" spans="2:30" x14ac:dyDescent="0.15">
-      <c r="F105" s="41"/>
-      <c r="G105" s="41"/>
-      <c r="H105" s="42"/>
-      <c r="I105" s="42"/>
-      <c r="J105" s="41"/>
-      <c r="K105" s="41"/>
-      <c r="L105" s="41"/>
-      <c r="M105" s="42"/>
-      <c r="N105" s="42"/>
-      <c r="O105" s="42"/>
-      <c r="P105" s="42"/>
-      <c r="Q105" s="42"/>
-      <c r="R105" s="42"/>
-      <c r="S105" s="42"/>
-      <c r="T105" s="41"/>
-      <c r="U105" s="42"/>
-    </row>
-    <row r="106" spans="2:30" x14ac:dyDescent="0.15">
-      <c r="F106" s="41"/>
-      <c r="G106" s="41"/>
-      <c r="H106" s="42"/>
-      <c r="I106" s="42"/>
-      <c r="J106" s="41"/>
-      <c r="K106" s="41"/>
-      <c r="L106" s="41"/>
-      <c r="M106" s="42"/>
-      <c r="N106" s="42"/>
-      <c r="O106" s="42"/>
-      <c r="P106" s="42"/>
-      <c r="Q106" s="42"/>
-      <c r="R106" s="42"/>
-      <c r="S106" s="42"/>
-      <c r="T106" s="41"/>
-      <c r="U106" s="42"/>
-    </row>
-    <row r="107" spans="2:30" x14ac:dyDescent="0.15">
-      <c r="F107" s="41"/>
-      <c r="G107" s="41"/>
-      <c r="H107" s="42"/>
-      <c r="I107" s="42"/>
-      <c r="J107" s="41"/>
-      <c r="K107" s="41"/>
-      <c r="L107" s="41"/>
-      <c r="M107" s="42"/>
-      <c r="N107" s="42"/>
-      <c r="O107" s="42"/>
-      <c r="P107" s="42"/>
-      <c r="Q107" s="42"/>
-      <c r="R107" s="42"/>
-      <c r="S107" s="42"/>
-      <c r="T107" s="41"/>
-      <c r="U107" s="42"/>
-    </row>
-    <row r="108" spans="2:30" x14ac:dyDescent="0.15">
-      <c r="F108" s="41"/>
-      <c r="G108" s="41"/>
-      <c r="H108" s="42"/>
-      <c r="I108" s="42"/>
-      <c r="J108" s="41"/>
-      <c r="K108" s="41"/>
-      <c r="L108" s="41"/>
-      <c r="M108" s="42"/>
-      <c r="N108" s="42"/>
-      <c r="O108" s="42"/>
-      <c r="P108" s="42"/>
-      <c r="Q108" s="42"/>
-      <c r="R108" s="42"/>
-      <c r="S108" s="42"/>
-      <c r="T108" s="41"/>
-      <c r="U108" s="42"/>
-    </row>
-    <row r="109" spans="2:30" x14ac:dyDescent="0.15">
-      <c r="F109" s="41"/>
-      <c r="G109" s="41"/>
-      <c r="H109" s="42"/>
-      <c r="I109" s="42"/>
-      <c r="J109" s="41"/>
-      <c r="K109" s="41"/>
-      <c r="L109" s="41"/>
-      <c r="M109" s="42"/>
-      <c r="N109" s="42"/>
-      <c r="O109" s="42"/>
-      <c r="P109" s="42"/>
-      <c r="Q109" s="42"/>
-      <c r="R109" s="42"/>
-      <c r="S109" s="42"/>
-      <c r="T109" s="41"/>
-      <c r="U109" s="42"/>
-    </row>
-    <row r="110" spans="2:30" x14ac:dyDescent="0.15">
-      <c r="F110" s="41"/>
-      <c r="G110" s="41"/>
-      <c r="H110" s="42"/>
-      <c r="I110" s="42"/>
-      <c r="J110" s="41"/>
-      <c r="K110" s="41"/>
-      <c r="L110" s="41"/>
-      <c r="M110" s="42"/>
-      <c r="N110" s="42"/>
-      <c r="O110" s="42"/>
-      <c r="P110" s="42"/>
-      <c r="Q110" s="42"/>
-      <c r="R110" s="42"/>
-      <c r="S110" s="42"/>
-      <c r="T110" s="41"/>
-      <c r="U110" s="42"/>
-    </row>
-    <row r="111" spans="2:30" x14ac:dyDescent="0.15">
-      <c r="F111" s="41"/>
-      <c r="G111" s="41"/>
-      <c r="H111" s="42"/>
-      <c r="I111" s="42"/>
-      <c r="J111" s="41"/>
-      <c r="K111" s="41"/>
-      <c r="L111" s="41"/>
-      <c r="M111" s="42"/>
-      <c r="N111" s="42"/>
-      <c r="O111" s="42"/>
-      <c r="P111" s="42"/>
-      <c r="Q111" s="42"/>
-      <c r="R111" s="42"/>
-      <c r="S111" s="42"/>
-      <c r="T111" s="41"/>
-      <c r="U111" s="42"/>
-    </row>
-    <row r="112" spans="2:30" x14ac:dyDescent="0.15">
-      <c r="F112" s="41"/>
-      <c r="G112" s="41"/>
-      <c r="H112" s="42"/>
-      <c r="I112" s="42"/>
-      <c r="J112" s="41"/>
-      <c r="K112" s="41"/>
-      <c r="L112" s="41"/>
-      <c r="M112" s="42"/>
-      <c r="N112" s="42"/>
-      <c r="O112" s="42"/>
-      <c r="P112" s="42"/>
-      <c r="Q112" s="42"/>
-      <c r="R112" s="42"/>
-      <c r="S112" s="42"/>
-      <c r="T112" s="41"/>
-      <c r="U112" s="42"/>
-    </row>
-    <row r="113" spans="6:21" x14ac:dyDescent="0.15">
-      <c r="F113" s="41"/>
-      <c r="G113" s="41"/>
-      <c r="H113" s="42"/>
-      <c r="I113" s="42"/>
-      <c r="J113" s="41"/>
-      <c r="K113" s="41"/>
-      <c r="L113" s="41"/>
-      <c r="M113" s="42"/>
-      <c r="N113" s="42"/>
-      <c r="O113" s="42"/>
-      <c r="P113" s="42"/>
-      <c r="Q113" s="42"/>
-      <c r="R113" s="42"/>
-      <c r="S113" s="42"/>
-      <c r="T113" s="41"/>
-      <c r="U113" s="42"/>
-    </row>
-    <row r="114" spans="6:21" x14ac:dyDescent="0.15">
-      <c r="F114" s="41"/>
-      <c r="G114" s="41"/>
-      <c r="H114" s="42"/>
-      <c r="I114" s="42"/>
-      <c r="J114" s="41"/>
-      <c r="K114" s="41"/>
-      <c r="L114" s="41"/>
-      <c r="M114" s="42"/>
-      <c r="N114" s="42"/>
-      <c r="O114" s="42"/>
-      <c r="P114" s="42"/>
-      <c r="Q114" s="42"/>
-      <c r="R114" s="42"/>
-      <c r="S114" s="42"/>
-      <c r="T114" s="41"/>
-      <c r="U114" s="42"/>
-    </row>
-    <row r="115" spans="6:21" x14ac:dyDescent="0.15">
-      <c r="F115" s="41"/>
-      <c r="G115" s="41"/>
-      <c r="H115" s="42"/>
-      <c r="I115" s="42"/>
-      <c r="J115" s="41"/>
-      <c r="K115" s="41"/>
-      <c r="L115" s="41"/>
-      <c r="M115" s="42"/>
-      <c r="N115" s="42"/>
-      <c r="O115" s="42"/>
-      <c r="P115" s="42"/>
-      <c r="Q115" s="42"/>
-      <c r="R115" s="42"/>
-      <c r="S115" s="42"/>
-      <c r="T115" s="41"/>
-      <c r="U115" s="42"/>
-    </row>
-    <row r="116" spans="6:21" x14ac:dyDescent="0.15">
-      <c r="F116" s="41"/>
-      <c r="G116" s="41"/>
-      <c r="H116" s="42"/>
-      <c r="I116" s="42"/>
-      <c r="J116" s="41"/>
-      <c r="K116" s="41"/>
-      <c r="L116" s="41"/>
-      <c r="M116" s="42"/>
-      <c r="N116" s="42"/>
-      <c r="O116" s="42"/>
-      <c r="P116" s="42"/>
-      <c r="Q116" s="42"/>
-      <c r="R116" s="42"/>
-      <c r="S116" s="42"/>
-      <c r="T116" s="41"/>
-      <c r="U116" s="42"/>
-    </row>
-    <row r="117" spans="6:21" x14ac:dyDescent="0.15">
-      <c r="F117" s="41"/>
-      <c r="G117" s="41"/>
-      <c r="H117" s="42"/>
-      <c r="I117" s="42"/>
-      <c r="J117" s="41"/>
-      <c r="K117" s="41"/>
-      <c r="L117" s="41"/>
-      <c r="M117" s="42"/>
-      <c r="N117" s="42"/>
-      <c r="O117" s="42"/>
-      <c r="P117" s="42"/>
-      <c r="Q117" s="42"/>
-      <c r="R117" s="42"/>
-      <c r="S117" s="42"/>
-      <c r="T117" s="41"/>
-      <c r="U117" s="42"/>
-    </row>
-    <row r="135" spans="2:28" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="B101" s="43">
+        <v>42613</v>
+      </c>
+      <c r="C101" s="44">
+        <v>17</v>
+      </c>
+      <c r="D101" s="44" t="s">
+        <v>505</v>
+      </c>
+      <c r="E101" s="45">
+        <v>42614.364583333336</v>
+      </c>
+      <c r="F101" s="41" t="s">
+        <v>428</v>
+      </c>
+      <c r="G101" s="41" t="s">
+        <v>414</v>
+      </c>
+      <c r="H101" s="42" t="s">
+        <v>428</v>
+      </c>
+      <c r="I101" s="42" t="s">
+        <v>414</v>
+      </c>
+      <c r="J101" s="41">
+        <v>1.3</v>
+      </c>
+      <c r="K101" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="L101" s="41">
+        <v>7.25</v>
+      </c>
+      <c r="M101" s="42">
+        <v>2.06</v>
+      </c>
+      <c r="N101" s="42">
+        <v>3.5</v>
+      </c>
+      <c r="O101" s="42">
+        <v>2.8</v>
+      </c>
+      <c r="P101" s="42">
+        <v>-1</v>
+      </c>
+      <c r="Q101" s="42">
+        <v>0.12569444444444444</v>
+      </c>
+      <c r="R101" s="42">
+        <v>3</v>
+      </c>
+      <c r="S101" s="42">
+        <v>1</v>
+      </c>
+      <c r="T101" s="41">
+        <v>3</v>
+      </c>
+      <c r="U101" s="42">
+        <v>3</v>
+      </c>
+      <c r="V101" s="40" t="s">
+        <v>569</v>
+      </c>
+      <c r="W101" s="40" t="s">
+        <v>547</v>
+      </c>
+      <c r="X101" s="40" t="s">
+        <v>473</v>
+      </c>
+      <c r="Y101" s="40" t="s">
+        <v>471</v>
+      </c>
+      <c r="AD101" s="40">
+        <f t="shared" ref="AD101:AD121" si="2">IF(V101=$V$4,1,0)+IF(W101=$W$4,1,0)+IF(X101=$X$4,1,0)+IF(Y101=$Y$4,1,0)+IF(Z101=$Z$4,1,0)+IF(AA101=$AA$4,1,0)+IF(AB101=$AB$4,1,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="B102" s="43">
+        <v>42613</v>
+      </c>
+      <c r="C102" s="44">
+        <v>18</v>
+      </c>
+      <c r="D102" s="44" t="s">
+        <v>505</v>
+      </c>
+      <c r="E102" s="45">
+        <v>42614.364583333336</v>
+      </c>
+      <c r="F102" s="41" t="s">
+        <v>431</v>
+      </c>
+      <c r="G102" s="41" t="s">
+        <v>412</v>
+      </c>
+      <c r="H102" s="42" t="s">
+        <v>431</v>
+      </c>
+      <c r="I102" s="42" t="s">
+        <v>413</v>
+      </c>
+      <c r="J102" s="41">
+        <v>2.1</v>
+      </c>
+      <c r="K102" s="41">
+        <v>2.95</v>
+      </c>
+      <c r="L102" s="41">
+        <v>3.18</v>
+      </c>
+      <c r="M102" s="42">
+        <v>4.76</v>
+      </c>
+      <c r="N102" s="42">
+        <v>3.7</v>
+      </c>
+      <c r="O102" s="42">
+        <v>1.54</v>
+      </c>
+      <c r="P102" s="42">
+        <v>-1</v>
+      </c>
+      <c r="Q102" s="42">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="R102" s="42">
+        <v>0</v>
+      </c>
+      <c r="S102" s="42">
+        <v>1</v>
+      </c>
+      <c r="T102" s="41">
+        <v>0</v>
+      </c>
+      <c r="U102" s="42">
+        <v>0</v>
+      </c>
+      <c r="V102" s="40" t="s">
+        <v>569</v>
+      </c>
+      <c r="W102" s="40" t="s">
+        <v>547</v>
+      </c>
+      <c r="X102" s="40" t="s">
+        <v>471</v>
+      </c>
+      <c r="Y102" s="40" t="s">
+        <v>471</v>
+      </c>
+      <c r="AA102" s="40">
+        <v>1</v>
+      </c>
+      <c r="AD102" s="40">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="B103" s="43">
+        <v>42613</v>
+      </c>
+      <c r="C103" s="44">
+        <v>19</v>
+      </c>
+      <c r="D103" s="44" t="s">
+        <v>505</v>
+      </c>
+      <c r="E103" s="45">
+        <v>42614.364583333336</v>
+      </c>
+      <c r="F103" s="41" t="s">
+        <v>427</v>
+      </c>
+      <c r="G103" s="41" t="s">
+        <v>558</v>
+      </c>
+      <c r="H103" s="42" t="s">
+        <v>429</v>
+      </c>
+      <c r="I103" s="42" t="s">
+        <v>558</v>
+      </c>
+      <c r="J103" s="41">
+        <v>1.26</v>
+      </c>
+      <c r="K103" s="41">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="L103" s="41">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="M103" s="42">
+        <v>1.96</v>
+      </c>
+      <c r="N103" s="42">
+        <v>3.5</v>
+      </c>
+      <c r="O103" s="42">
+        <v>3</v>
+      </c>
+      <c r="P103" s="42">
+        <v>-1</v>
+      </c>
+      <c r="Q103" s="42">
+        <v>0.12569444444444444</v>
+      </c>
+      <c r="R103" s="42">
+        <v>3</v>
+      </c>
+      <c r="S103" s="42">
+        <v>1</v>
+      </c>
+      <c r="T103" s="41">
+        <v>3</v>
+      </c>
+      <c r="U103" s="42">
+        <v>3</v>
+      </c>
+      <c r="AD103" s="40">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="B104" s="43">
+        <v>42613</v>
+      </c>
+      <c r="C104" s="44">
+        <v>20</v>
+      </c>
+      <c r="D104" s="44" t="s">
+        <v>506</v>
+      </c>
+      <c r="E104" s="45">
+        <v>42614.364583333336</v>
+      </c>
+      <c r="F104" s="41" t="s">
+        <v>314</v>
+      </c>
+      <c r="G104" s="41" t="s">
+        <v>559</v>
+      </c>
+      <c r="H104" s="42" t="s">
+        <v>314</v>
+      </c>
+      <c r="I104" s="42" t="s">
+        <v>559</v>
+      </c>
+      <c r="J104" s="41">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="K104" s="41">
+        <v>2.85</v>
+      </c>
+      <c r="L104" s="41">
+        <v>3.05</v>
+      </c>
+      <c r="M104" s="42">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="N104" s="42">
+        <v>4</v>
+      </c>
+      <c r="O104" s="42">
+        <v>1.48</v>
+      </c>
+      <c r="P104" s="42">
+        <v>-1</v>
+      </c>
+      <c r="Q104" s="42">
+        <v>4.2361111111111106E-2</v>
+      </c>
+      <c r="R104" s="42">
+        <v>1</v>
+      </c>
+      <c r="S104" s="42">
+        <v>1</v>
+      </c>
+      <c r="T104" s="41">
+        <v>1</v>
+      </c>
+      <c r="U104" s="42">
+        <v>0</v>
+      </c>
+      <c r="V104" s="40" t="s">
+        <v>577</v>
+      </c>
+      <c r="W104" s="40" t="s">
+        <v>472</v>
+      </c>
+      <c r="X104" s="40" t="s">
+        <v>471</v>
+      </c>
+      <c r="Y104" s="40" t="s">
+        <v>471</v>
+      </c>
+      <c r="AA104" s="40">
+        <v>1</v>
+      </c>
+      <c r="AD104" s="40">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="B105" s="43">
+        <v>42613</v>
+      </c>
+      <c r="C105" s="44">
+        <v>21</v>
+      </c>
+      <c r="D105" s="44" t="s">
+        <v>506</v>
+      </c>
+      <c r="E105" s="45">
+        <v>42614.364583333336</v>
+      </c>
+      <c r="F105" s="41" t="s">
+        <v>291</v>
+      </c>
+      <c r="G105" s="41" t="s">
+        <v>560</v>
+      </c>
+      <c r="H105" s="42" t="s">
+        <v>291</v>
+      </c>
+      <c r="I105" s="42" t="s">
+        <v>561</v>
+      </c>
+      <c r="J105" s="41">
+        <v>1.22</v>
+      </c>
+      <c r="K105" s="41">
+        <v>4.95</v>
+      </c>
+      <c r="L105" s="41">
+        <v>9.25</v>
+      </c>
+      <c r="M105" s="42">
+        <v>1.85</v>
+      </c>
+      <c r="N105" s="42">
+        <v>3.55</v>
+      </c>
+      <c r="O105" s="42">
+        <v>3.25</v>
+      </c>
+      <c r="P105" s="42">
+        <v>-1</v>
+      </c>
+      <c r="Q105" s="42">
+        <v>0.125</v>
+      </c>
+      <c r="R105" s="42">
+        <v>3</v>
+      </c>
+      <c r="S105" s="42">
+        <v>0</v>
+      </c>
+      <c r="T105" s="41">
+        <v>3</v>
+      </c>
+      <c r="U105" s="42">
+        <v>3</v>
+      </c>
+      <c r="V105" s="40" t="s">
+        <v>569</v>
+      </c>
+      <c r="W105" s="40" t="s">
+        <v>472</v>
+      </c>
+      <c r="X105" s="40" t="s">
+        <v>471</v>
+      </c>
+      <c r="Y105" s="40" t="s">
+        <v>473</v>
+      </c>
+      <c r="AD105" s="40">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="B106" s="43">
+        <v>42612</v>
+      </c>
+      <c r="C106" s="44">
+        <v>2</v>
+      </c>
+      <c r="D106" s="44" t="s">
+        <v>578</v>
+      </c>
+      <c r="E106" s="45">
+        <v>42612.770833333336</v>
+      </c>
+      <c r="F106" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="G106" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="H106" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="I106" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="J106" s="41">
+        <v>2.42</v>
+      </c>
+      <c r="K106" s="41">
+        <v>3.25</v>
+      </c>
+      <c r="L106" s="41">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="M106" s="42">
+        <v>5.4</v>
+      </c>
+      <c r="N106" s="42">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="O106" s="42">
+        <v>1.4</v>
+      </c>
+      <c r="P106" s="42">
+        <v>-1</v>
+      </c>
+      <c r="Q106" s="42">
+        <v>0</v>
+      </c>
+      <c r="R106" s="42">
+        <v>0</v>
+      </c>
+      <c r="S106" s="42">
+        <v>0</v>
+      </c>
+      <c r="T106" s="41">
+        <v>1</v>
+      </c>
+      <c r="U106" s="42">
+        <v>0</v>
+      </c>
+      <c r="V106" s="40" t="s">
+        <v>538</v>
+      </c>
+      <c r="W106" s="40" t="s">
+        <v>472</v>
+      </c>
+      <c r="X106" s="40" t="s">
+        <v>473</v>
+      </c>
+      <c r="Y106" s="40" t="s">
+        <v>471</v>
+      </c>
+      <c r="AA106" s="40">
+        <v>1</v>
+      </c>
+      <c r="AD106" s="40">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="B107" s="43">
+        <v>42612</v>
+      </c>
+      <c r="C107" s="44">
+        <v>3</v>
+      </c>
+      <c r="D107" s="44" t="s">
+        <v>501</v>
+      </c>
+      <c r="E107" s="45">
+        <v>42613.083333333336</v>
+      </c>
+      <c r="F107" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="G107" s="41" t="s">
+        <v>579</v>
+      </c>
+      <c r="H107" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="I107" s="42" t="s">
+        <v>580</v>
+      </c>
+      <c r="J107" s="41">
+        <v>1.58</v>
+      </c>
+      <c r="K107" s="41">
+        <v>3.65</v>
+      </c>
+      <c r="L107" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="M107" s="42">
+        <v>2.81</v>
+      </c>
+      <c r="N107" s="42">
+        <v>3.6</v>
+      </c>
+      <c r="O107" s="42">
+        <v>2.02</v>
+      </c>
+      <c r="P107" s="42">
+        <v>-1</v>
+      </c>
+      <c r="Q107" s="42">
+        <v>0.1673611111111111</v>
+      </c>
+      <c r="R107" s="42">
+        <v>4</v>
+      </c>
+      <c r="S107" s="42">
+        <v>1</v>
+      </c>
+      <c r="T107" s="41">
+        <v>3</v>
+      </c>
+      <c r="U107" s="42">
+        <v>3</v>
+      </c>
+      <c r="V107" s="40" t="s">
+        <v>569</v>
+      </c>
+      <c r="W107" s="40" t="s">
+        <v>472</v>
+      </c>
+      <c r="X107" s="40" t="s">
+        <v>471</v>
+      </c>
+      <c r="Y107" s="40" t="s">
+        <v>471</v>
+      </c>
+      <c r="AD107" s="40">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="B108" s="43">
+        <v>42612</v>
+      </c>
+      <c r="C108" s="44">
+        <v>4</v>
+      </c>
+      <c r="D108" s="44" t="s">
+        <v>501</v>
+      </c>
+      <c r="E108" s="45">
+        <v>42613.104166666664</v>
+      </c>
+      <c r="F108" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="G108" s="41" t="s">
+        <v>581</v>
+      </c>
+      <c r="H108" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="I108" s="42" t="s">
+        <v>581</v>
+      </c>
+      <c r="J108" s="41">
+        <v>1.85</v>
+      </c>
+      <c r="K108" s="41">
+        <v>3.35</v>
+      </c>
+      <c r="L108" s="41">
+        <v>3.45</v>
+      </c>
+      <c r="M108" s="42">
+        <v>3.55</v>
+      </c>
+      <c r="N108" s="42">
+        <v>3.85</v>
+      </c>
+      <c r="O108" s="42">
+        <v>1.7</v>
+      </c>
+      <c r="P108" s="42">
+        <v>-1</v>
+      </c>
+      <c r="Q108" s="42">
+        <v>4.3055555555555562E-2</v>
+      </c>
+      <c r="R108" s="42">
+        <v>1</v>
+      </c>
+      <c r="S108" s="42">
+        <v>2</v>
+      </c>
+      <c r="T108" s="41">
+        <v>0</v>
+      </c>
+      <c r="U108" s="42">
+        <v>0</v>
+      </c>
+      <c r="V108" s="40" t="s">
+        <v>570</v>
+      </c>
+      <c r="W108" s="40" t="s">
+        <v>472</v>
+      </c>
+      <c r="X108" s="40" t="s">
+        <v>471</v>
+      </c>
+      <c r="Y108" s="40" t="s">
+        <v>557</v>
+      </c>
+      <c r="AA108" s="40">
+        <v>1</v>
+      </c>
+      <c r="AD108" s="40">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="B109" s="43">
+        <v>42612</v>
+      </c>
+      <c r="C109" s="44">
+        <v>5</v>
+      </c>
+      <c r="D109" s="44" t="s">
+        <v>501</v>
+      </c>
+      <c r="E109" s="45">
+        <v>42613.114583333336</v>
+      </c>
+      <c r="F109" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="G109" s="41" t="s">
+        <v>582</v>
+      </c>
+      <c r="H109" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="I109" s="42" t="s">
+        <v>583</v>
+      </c>
+      <c r="J109" s="41">
+        <v>2.1</v>
+      </c>
+      <c r="K109" s="41">
+        <v>3.05</v>
+      </c>
+      <c r="L109" s="41">
+        <v>3.07</v>
+      </c>
+      <c r="M109" s="42">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="N109" s="42">
+        <v>3.95</v>
+      </c>
+      <c r="O109" s="42">
+        <v>1.54</v>
+      </c>
+      <c r="P109" s="42">
+        <v>-1</v>
+      </c>
+      <c r="Q109" s="42">
+        <v>8.4027777777777771E-2</v>
+      </c>
+      <c r="R109" s="42">
+        <v>2</v>
+      </c>
+      <c r="S109" s="42">
+        <v>1</v>
+      </c>
+      <c r="T109" s="41">
+        <v>3</v>
+      </c>
+      <c r="U109" s="42">
+        <v>1</v>
+      </c>
+      <c r="V109" s="40" t="s">
+        <v>569</v>
+      </c>
+      <c r="W109" s="40" t="s">
+        <v>472</v>
+      </c>
+      <c r="X109" s="40" t="s">
+        <v>471</v>
+      </c>
+      <c r="Y109" s="40" t="s">
+        <v>473</v>
+      </c>
+      <c r="AB109" s="40">
+        <v>1</v>
+      </c>
+      <c r="AD109" s="40">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="AG109" s="40" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="110" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="B110" s="43">
+        <v>42612</v>
+      </c>
+      <c r="C110" s="44">
+        <v>6</v>
+      </c>
+      <c r="D110" s="44" t="s">
+        <v>501</v>
+      </c>
+      <c r="E110" s="45">
+        <v>42613.114583333336</v>
+      </c>
+      <c r="F110" s="41" t="s">
+        <v>584</v>
+      </c>
+      <c r="G110" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="H110" s="42" t="s">
+        <v>585</v>
+      </c>
+      <c r="I110" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="J110" s="41">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="K110" s="41">
+        <v>3.15</v>
+      </c>
+      <c r="L110" s="41">
+        <v>3.13</v>
+      </c>
+      <c r="M110" s="42">
+        <v>4.2</v>
+      </c>
+      <c r="N110" s="42">
+        <v>3.95</v>
+      </c>
+      <c r="O110" s="42">
+        <v>1.57</v>
+      </c>
+      <c r="P110" s="42">
+        <v>-1</v>
+      </c>
+      <c r="Q110" s="42">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="R110" s="42">
+        <v>0</v>
+      </c>
+      <c r="S110" s="42">
+        <v>3</v>
+      </c>
+      <c r="T110" s="41">
+        <v>0</v>
+      </c>
+      <c r="U110" s="42">
+        <v>0</v>
+      </c>
+      <c r="V110" s="40" t="s">
+        <v>542</v>
+      </c>
+      <c r="W110" s="40" t="s">
+        <v>472</v>
+      </c>
+      <c r="X110" s="40" t="s">
+        <v>473</v>
+      </c>
+      <c r="Y110" s="40" t="s">
+        <v>473</v>
+      </c>
+      <c r="AA110" s="40">
+        <v>1</v>
+      </c>
+      <c r="AD110" s="40">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="B111" s="43">
+        <v>42612</v>
+      </c>
+      <c r="C111" s="44">
+        <v>7</v>
+      </c>
+      <c r="D111" s="44" t="s">
+        <v>501</v>
+      </c>
+      <c r="E111" s="45">
+        <v>42613.114583333336</v>
+      </c>
+      <c r="F111" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="G111" s="41" t="s">
+        <v>586</v>
+      </c>
+      <c r="H111" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="I111" s="42" t="s">
+        <v>586</v>
+      </c>
+      <c r="J111" s="41">
+        <v>2.25</v>
+      </c>
+      <c r="K111" s="41">
+        <v>3.05</v>
+      </c>
+      <c r="L111" s="41">
+        <v>2.8</v>
+      </c>
+      <c r="M111" s="42">
+        <v>4.91</v>
+      </c>
+      <c r="N111" s="42">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="O111" s="42">
+        <v>1.46</v>
+      </c>
+      <c r="P111" s="42">
+        <v>-1</v>
+      </c>
+      <c r="Q111" s="42">
+        <v>0.17013888888888887</v>
+      </c>
+      <c r="R111" s="42">
+        <v>4</v>
+      </c>
+      <c r="S111" s="42">
+        <v>5</v>
+      </c>
+      <c r="T111" s="41">
+        <v>0</v>
+      </c>
+      <c r="U111" s="42">
+        <v>0</v>
+      </c>
+      <c r="V111" s="40" t="s">
+        <v>538</v>
+      </c>
+      <c r="W111" s="40" t="s">
+        <v>472</v>
+      </c>
+      <c r="X111" s="40" t="s">
+        <v>471</v>
+      </c>
+      <c r="Y111" s="40" t="s">
+        <v>473</v>
+      </c>
+      <c r="AA111" s="40">
+        <v>1</v>
+      </c>
+      <c r="AD111" s="40">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="B112" s="43">
+        <v>42612</v>
+      </c>
+      <c r="C112" s="44">
+        <v>8</v>
+      </c>
+      <c r="D112" s="44" t="s">
+        <v>501</v>
+      </c>
+      <c r="E112" s="45">
+        <v>42613.114583333336</v>
+      </c>
+      <c r="F112" s="41" t="s">
+        <v>587</v>
+      </c>
+      <c r="G112" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="H112" s="42" t="s">
+        <v>588</v>
+      </c>
+      <c r="I112" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="J112" s="41">
+        <v>2.8</v>
+      </c>
+      <c r="K112" s="41">
+        <v>3.05</v>
+      </c>
+      <c r="L112" s="41">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="M112" s="42">
+        <v>1.46</v>
+      </c>
+      <c r="N112" s="42">
+        <v>4.05</v>
+      </c>
+      <c r="O112" s="42">
+        <v>5.05</v>
+      </c>
+      <c r="P112" s="42">
+        <v>1</v>
+      </c>
+      <c r="Q112" s="42">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="R112" s="42">
+        <v>0</v>
+      </c>
+      <c r="S112" s="42">
+        <v>2</v>
+      </c>
+      <c r="T112" s="41">
+        <v>0</v>
+      </c>
+      <c r="U112" s="42">
+        <v>0</v>
+      </c>
+      <c r="V112" s="40" t="s">
+        <v>546</v>
+      </c>
+      <c r="W112" s="40" t="s">
+        <v>472</v>
+      </c>
+      <c r="X112" s="40" t="s">
+        <v>471</v>
+      </c>
+      <c r="Y112" s="40" t="s">
+        <v>473</v>
+      </c>
+      <c r="AB112" s="40">
+        <v>1</v>
+      </c>
+      <c r="AD112" s="40">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="AG112" s="49" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="113" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="B113" s="43">
+        <v>42612</v>
+      </c>
+      <c r="C113" s="44">
+        <v>9</v>
+      </c>
+      <c r="D113" s="44" t="s">
+        <v>501</v>
+      </c>
+      <c r="E113" s="45">
+        <v>42613.114583333336</v>
+      </c>
+      <c r="F113" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="G113" s="41" t="s">
+        <v>589</v>
+      </c>
+      <c r="H113" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="I113" s="42" t="s">
+        <v>589</v>
+      </c>
+      <c r="J113" s="41">
+        <v>1.71</v>
+      </c>
+      <c r="K113" s="41">
+        <v>3.5</v>
+      </c>
+      <c r="L113" s="41">
+        <v>3.86</v>
+      </c>
+      <c r="M113" s="42">
+        <v>3.18</v>
+      </c>
+      <c r="N113" s="42">
+        <v>3.65</v>
+      </c>
+      <c r="O113" s="42">
+        <v>1.85</v>
+      </c>
+      <c r="P113" s="42">
+        <v>-1</v>
+      </c>
+      <c r="Q113" s="42">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="R113" s="42">
+        <v>0</v>
+      </c>
+      <c r="S113" s="42">
+        <v>1</v>
+      </c>
+      <c r="T113" s="41">
+        <v>0</v>
+      </c>
+      <c r="U113" s="42">
+        <v>0</v>
+      </c>
+      <c r="V113" s="40" t="s">
+        <v>556</v>
+      </c>
+      <c r="W113" s="40" t="s">
+        <v>472</v>
+      </c>
+      <c r="X113" s="40" t="s">
+        <v>471</v>
+      </c>
+      <c r="Y113" s="40" t="s">
+        <v>557</v>
+      </c>
+      <c r="AA113" s="40">
+        <v>1</v>
+      </c>
+      <c r="AB113" s="40">
+        <v>1</v>
+      </c>
+      <c r="AD113" s="40">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="AG113" s="49" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="114" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="B114" s="43">
+        <v>42612</v>
+      </c>
+      <c r="C114" s="44">
+        <v>10</v>
+      </c>
+      <c r="D114" s="44" t="s">
+        <v>501</v>
+      </c>
+      <c r="E114" s="45">
+        <v>42613.114583333336</v>
+      </c>
+      <c r="F114" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="G114" s="41" t="s">
+        <v>590</v>
+      </c>
+      <c r="H114" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="I114" s="42" t="s">
+        <v>591</v>
+      </c>
+      <c r="J114" s="41">
+        <v>1.78</v>
+      </c>
+      <c r="K114" s="41">
+        <v>3.3</v>
+      </c>
+      <c r="L114" s="41">
+        <v>3.8</v>
+      </c>
+      <c r="M114" s="42">
+        <v>3.4</v>
+      </c>
+      <c r="N114" s="42">
+        <v>3.7</v>
+      </c>
+      <c r="O114" s="42">
+        <v>1.77</v>
+      </c>
+      <c r="P114" s="42">
+        <v>-1</v>
+      </c>
+      <c r="Q114" s="42">
+        <v>0.20972222222222223</v>
+      </c>
+      <c r="R114" s="42">
+        <v>5</v>
+      </c>
+      <c r="S114" s="42">
+        <v>2</v>
+      </c>
+      <c r="T114" s="41">
+        <v>3</v>
+      </c>
+      <c r="U114" s="42">
+        <v>3</v>
+      </c>
+      <c r="V114" s="40" t="s">
+        <v>546</v>
+      </c>
+      <c r="W114" s="40" t="s">
+        <v>472</v>
+      </c>
+      <c r="X114" s="40" t="s">
+        <v>473</v>
+      </c>
+      <c r="Y114" s="40" t="s">
+        <v>473</v>
+      </c>
+      <c r="AB114" s="40">
+        <v>1</v>
+      </c>
+      <c r="AD114" s="40">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="AG114" s="49" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="115" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="B115" s="43">
+        <v>42612</v>
+      </c>
+      <c r="C115" s="44">
+        <v>11</v>
+      </c>
+      <c r="D115" s="44" t="s">
+        <v>501</v>
+      </c>
+      <c r="E115" s="45">
+        <v>42613.114583333336</v>
+      </c>
+      <c r="F115" s="41" t="s">
+        <v>592</v>
+      </c>
+      <c r="G115" s="41" t="s">
+        <v>593</v>
+      </c>
+      <c r="H115" s="42" t="s">
+        <v>594</v>
+      </c>
+      <c r="I115" s="42" t="s">
+        <v>595</v>
+      </c>
+      <c r="J115" s="41">
+        <v>3.52</v>
+      </c>
+      <c r="K115" s="41">
+        <v>3.2</v>
+      </c>
+      <c r="L115" s="41">
+        <v>1.88</v>
+      </c>
+      <c r="M115" s="42">
+        <v>1.68</v>
+      </c>
+      <c r="N115" s="42">
+        <v>3.75</v>
+      </c>
+      <c r="O115" s="42">
+        <v>3.75</v>
+      </c>
+      <c r="P115" s="42">
+        <v>1</v>
+      </c>
+      <c r="Q115" s="42">
+        <v>0.16874999999999998</v>
+      </c>
+      <c r="R115" s="42">
+        <v>4</v>
+      </c>
+      <c r="S115" s="42">
+        <v>3</v>
+      </c>
+      <c r="T115" s="41">
+        <v>3</v>
+      </c>
+      <c r="U115" s="42">
+        <v>3</v>
+      </c>
+      <c r="V115" s="40" t="s">
+        <v>570</v>
+      </c>
+      <c r="W115" s="40" t="s">
+        <v>472</v>
+      </c>
+      <c r="X115" s="40" t="s">
+        <v>471</v>
+      </c>
+      <c r="Y115" s="40" t="s">
+        <v>557</v>
+      </c>
+      <c r="AA115" s="40">
+        <v>1</v>
+      </c>
+      <c r="AD115" s="40">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="B116" s="43">
+        <v>42612</v>
+      </c>
+      <c r="C116" s="44">
+        <v>12</v>
+      </c>
+      <c r="D116" s="44" t="s">
+        <v>501</v>
+      </c>
+      <c r="E116" s="45">
+        <v>42613.114583333336</v>
+      </c>
+      <c r="F116" s="41" t="s">
+        <v>596</v>
+      </c>
+      <c r="G116" s="41" t="s">
+        <v>597</v>
+      </c>
+      <c r="H116" s="42" t="s">
+        <v>596</v>
+      </c>
+      <c r="I116" s="42" t="s">
+        <v>597</v>
+      </c>
+      <c r="J116" s="41">
+        <v>1.64</v>
+      </c>
+      <c r="K116" s="41">
+        <v>3.5</v>
+      </c>
+      <c r="L116" s="41">
+        <v>4.3</v>
+      </c>
+      <c r="M116" s="42">
+        <v>3.1</v>
+      </c>
+      <c r="N116" s="42">
+        <v>3.45</v>
+      </c>
+      <c r="O116" s="42">
+        <v>1.94</v>
+      </c>
+      <c r="P116" s="42">
+        <v>-1</v>
+      </c>
+      <c r="Q116" s="42">
+        <v>0.1673611111111111</v>
+      </c>
+      <c r="R116" s="42">
+        <v>4</v>
+      </c>
+      <c r="S116" s="42">
+        <v>1</v>
+      </c>
+      <c r="T116" s="41">
+        <v>3</v>
+      </c>
+      <c r="U116" s="42">
+        <v>3</v>
+      </c>
+      <c r="V116" s="40" t="s">
+        <v>555</v>
+      </c>
+      <c r="W116" s="40" t="s">
+        <v>472</v>
+      </c>
+      <c r="X116" s="40" t="s">
+        <v>471</v>
+      </c>
+      <c r="Y116" s="40" t="s">
+        <v>473</v>
+      </c>
+      <c r="AD116" s="40">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="B117" s="43">
+        <v>42612</v>
+      </c>
+      <c r="C117" s="44">
+        <v>13</v>
+      </c>
+      <c r="D117" s="44" t="s">
+        <v>501</v>
+      </c>
+      <c r="E117" s="45">
+        <v>42613.114583333336</v>
+      </c>
+      <c r="F117" s="41" t="s">
+        <v>598</v>
+      </c>
+      <c r="G117" s="41" t="s">
+        <v>599</v>
+      </c>
+      <c r="H117" s="42" t="s">
+        <v>598</v>
+      </c>
+      <c r="I117" s="42" t="s">
+        <v>600</v>
+      </c>
+      <c r="J117" s="41">
+        <v>1.36</v>
+      </c>
+      <c r="K117" s="41">
+        <v>4</v>
+      </c>
+      <c r="L117" s="41">
+        <v>7</v>
+      </c>
+      <c r="M117" s="42">
+        <v>2.23</v>
+      </c>
+      <c r="N117" s="42">
+        <v>3.45</v>
+      </c>
+      <c r="O117" s="42">
+        <v>2.56</v>
+      </c>
+      <c r="P117" s="42">
+        <v>-1</v>
+      </c>
+      <c r="Q117" s="42">
+        <v>0.16805555555555554</v>
+      </c>
+      <c r="R117" s="42">
+        <v>4</v>
+      </c>
+      <c r="S117" s="42">
+        <v>2</v>
+      </c>
+      <c r="T117" s="41">
+        <v>3</v>
+      </c>
+      <c r="U117" s="42">
+        <v>3</v>
+      </c>
+      <c r="V117" s="40" t="s">
+        <v>616</v>
+      </c>
+      <c r="W117" s="40" t="s">
+        <v>472</v>
+      </c>
+      <c r="X117" s="40" t="s">
+        <v>473</v>
+      </c>
+      <c r="Y117" s="40" t="s">
+        <v>473</v>
+      </c>
+      <c r="AD117" s="40">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="B118" s="43">
+        <v>42612</v>
+      </c>
+      <c r="C118" s="44">
+        <v>14</v>
+      </c>
+      <c r="D118" s="44" t="s">
+        <v>501</v>
+      </c>
+      <c r="E118" s="45">
+        <v>42613.114583333336</v>
+      </c>
+      <c r="F118" s="46" t="s">
+        <v>601</v>
+      </c>
+      <c r="G118" s="46" t="s">
+        <v>602</v>
+      </c>
+      <c r="H118" s="44" t="s">
+        <v>603</v>
+      </c>
+      <c r="I118" s="44" t="s">
+        <v>604</v>
+      </c>
+      <c r="J118" s="46">
+        <v>1.6</v>
+      </c>
+      <c r="K118" s="46">
+        <v>3.4</v>
+      </c>
+      <c r="L118" s="46">
+        <v>4.75</v>
+      </c>
+      <c r="M118" s="44">
+        <v>2.97</v>
+      </c>
+      <c r="N118" s="44">
+        <v>3.45</v>
+      </c>
+      <c r="O118" s="44">
+        <v>1.99</v>
+      </c>
+      <c r="P118" s="44">
+        <v>-1</v>
+      </c>
+      <c r="Q118" s="44">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="R118" s="44">
+        <v>0</v>
+      </c>
+      <c r="S118" s="44">
+        <v>3</v>
+      </c>
+      <c r="T118" s="46">
+        <v>0</v>
+      </c>
+      <c r="U118" s="44">
+        <v>0</v>
+      </c>
+      <c r="V118" s="40" t="s">
+        <v>610</v>
+      </c>
+      <c r="W118" s="40" t="s">
+        <v>472</v>
+      </c>
+      <c r="X118" s="40" t="s">
+        <v>471</v>
+      </c>
+      <c r="Y118" s="40" t="s">
+        <v>557</v>
+      </c>
+      <c r="AA118" s="40">
+        <v>1</v>
+      </c>
+      <c r="AB118" s="40">
+        <v>1</v>
+      </c>
+      <c r="AD118" s="40">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="AG118" s="49" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="119" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="B119" s="43">
+        <v>42612</v>
+      </c>
+      <c r="C119" s="44">
+        <v>15</v>
+      </c>
+      <c r="D119" s="44" t="s">
+        <v>501</v>
+      </c>
+      <c r="E119" s="45">
+        <v>42613.114583333336</v>
+      </c>
+      <c r="F119" s="46" t="s">
+        <v>605</v>
+      </c>
+      <c r="G119" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="H119" s="44" t="s">
+        <v>606</v>
+      </c>
+      <c r="I119" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="J119" s="46">
+        <v>2.85</v>
+      </c>
+      <c r="K119" s="46">
+        <v>3.2</v>
+      </c>
+      <c r="L119" s="46">
+        <v>2.15</v>
+      </c>
+      <c r="M119" s="44">
+        <v>1.51</v>
+      </c>
+      <c r="N119" s="44">
+        <v>3.9</v>
+      </c>
+      <c r="O119" s="44">
+        <v>4.8</v>
+      </c>
+      <c r="P119" s="44">
+        <v>1</v>
+      </c>
+      <c r="Q119" s="44">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="R119" s="44">
+        <v>1</v>
+      </c>
+      <c r="S119" s="44">
+        <v>0</v>
+      </c>
+      <c r="T119" s="46">
+        <v>3</v>
+      </c>
+      <c r="U119" s="44">
+        <v>3</v>
+      </c>
+      <c r="V119" s="40" t="s">
+        <v>570</v>
+      </c>
+      <c r="W119" s="40" t="s">
+        <v>472</v>
+      </c>
+      <c r="X119" s="40" t="s">
+        <v>471</v>
+      </c>
+      <c r="Y119" s="40" t="s">
+        <v>471</v>
+      </c>
+      <c r="AA119" s="40">
+        <v>1</v>
+      </c>
+      <c r="AD119" s="40">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="B120" s="43">
+        <v>42612</v>
+      </c>
+      <c r="C120" s="44">
+        <v>16</v>
+      </c>
+      <c r="D120" s="44" t="s">
+        <v>501</v>
+      </c>
+      <c r="E120" s="45">
+        <v>42613.114583333336</v>
+      </c>
+      <c r="F120" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="G120" s="46" t="s">
+        <v>607</v>
+      </c>
+      <c r="H120" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="I120" s="44" t="s">
+        <v>607</v>
+      </c>
+      <c r="J120" s="46">
+        <v>1.52</v>
+      </c>
+      <c r="K120" s="46">
+        <v>3.8</v>
+      </c>
+      <c r="L120" s="46">
+        <v>4.8</v>
+      </c>
+      <c r="M120" s="44">
+        <v>2.7</v>
+      </c>
+      <c r="N120" s="44">
+        <v>3.45</v>
+      </c>
+      <c r="O120" s="44">
+        <v>2.13</v>
+      </c>
+      <c r="P120" s="44">
+        <v>-1</v>
+      </c>
+      <c r="Q120" s="44">
+        <v>8.4722222222222213E-2</v>
+      </c>
+      <c r="R120" s="44">
+        <v>2</v>
+      </c>
+      <c r="S120" s="44">
+        <v>2</v>
+      </c>
+      <c r="T120" s="46">
+        <v>1</v>
+      </c>
+      <c r="U120" s="44">
+        <v>0</v>
+      </c>
+      <c r="V120" s="40" t="s">
+        <v>617</v>
+      </c>
+      <c r="W120" s="40" t="s">
+        <v>472</v>
+      </c>
+      <c r="X120" s="40" t="s">
+        <v>557</v>
+      </c>
+      <c r="Y120" s="40" t="s">
+        <v>557</v>
+      </c>
+      <c r="AA120" s="40">
+        <v>1</v>
+      </c>
+      <c r="AB120" s="40">
+        <v>1</v>
+      </c>
+      <c r="AD120" s="40">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AG120" s="49" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="121" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="B121" s="43">
+        <v>42612</v>
+      </c>
+      <c r="C121" s="44">
+        <v>17</v>
+      </c>
+      <c r="D121" s="44" t="s">
+        <v>501</v>
+      </c>
+      <c r="E121" s="45">
+        <v>42613.114583333336</v>
+      </c>
+      <c r="F121" s="46" t="s">
+        <v>608</v>
+      </c>
+      <c r="G121" s="46" t="s">
+        <v>609</v>
+      </c>
+      <c r="H121" s="44" t="s">
+        <v>608</v>
+      </c>
+      <c r="I121" s="44" t="s">
+        <v>609</v>
+      </c>
+      <c r="J121" s="46">
+        <v>1.62</v>
+      </c>
+      <c r="K121" s="46">
+        <v>3.6</v>
+      </c>
+      <c r="L121" s="46">
+        <v>4.3</v>
+      </c>
+      <c r="M121" s="44">
+        <v>3</v>
+      </c>
+      <c r="N121" s="44">
+        <v>3.5</v>
+      </c>
+      <c r="O121" s="44">
+        <v>1.96</v>
+      </c>
+      <c r="P121" s="44">
+        <v>-1</v>
+      </c>
+      <c r="Q121" s="44">
+        <v>0.12569444444444444</v>
+      </c>
+      <c r="R121" s="44">
+        <v>3</v>
+      </c>
+      <c r="S121" s="44">
+        <v>1</v>
+      </c>
+      <c r="T121" s="46">
+        <v>3</v>
+      </c>
+      <c r="U121" s="44">
+        <v>3</v>
+      </c>
+      <c r="V121" s="40" t="s">
+        <v>555</v>
+      </c>
+      <c r="W121" s="40" t="s">
+        <v>472</v>
+      </c>
+      <c r="X121" s="40" t="s">
+        <v>471</v>
+      </c>
+      <c r="Y121" s="40" t="s">
+        <v>473</v>
+      </c>
+      <c r="AD121" s="40">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B135" s="43">
         <v>42614</v>
       </c>
@@ -35220,86 +36624,66 @@
         <v>1</v>
       </c>
       <c r="F135" s="46" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="G135" s="46" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="P135" s="44">
         <v>-1</v>
       </c>
       <c r="V135" s="40" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="W135" s="40" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="X135" s="40" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="Y135" s="40" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="136" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="C136" s="44">
+        <v>4</v>
+      </c>
+      <c r="F136" s="46" t="s">
+        <v>551</v>
+      </c>
+      <c r="G136" s="46" t="s">
+        <v>554</v>
+      </c>
+      <c r="P136" s="44">
+        <v>-1</v>
+      </c>
+      <c r="V136" s="40" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="137" spans="2:28" x14ac:dyDescent="0.15">
-      <c r="C137" s="44">
-        <v>4</v>
-      </c>
-      <c r="F137" s="46" t="s">
-        <v>557</v>
-      </c>
-      <c r="G137" s="46" t="s">
-        <v>560</v>
-      </c>
-      <c r="P137" s="44">
-        <v>-1</v>
-      </c>
-      <c r="V137" s="40" t="s">
-        <v>562</v>
-      </c>
-      <c r="W137" s="40" t="s">
-        <v>563</v>
-      </c>
-      <c r="X137" s="40" t="s">
-        <v>564</v>
-      </c>
-      <c r="Y137" s="40" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="138" spans="2:28" x14ac:dyDescent="0.15">
-      <c r="V138" s="40" t="s">
-        <v>567</v>
-      </c>
-      <c r="W138" s="40" t="s">
-        <v>563</v>
-      </c>
-      <c r="X138" s="40" t="s">
-        <v>564</v>
-      </c>
-      <c r="Y138" s="40" t="s">
-        <v>569</v>
-      </c>
-      <c r="AA138" s="40">
-        <v>1</v>
-      </c>
-      <c r="AB138" s="40">
-        <v>1</v>
+      <c r="W136" s="40" t="s">
+        <v>547</v>
+      </c>
+      <c r="X136" s="40" t="s">
+        <v>471</v>
+      </c>
+      <c r="Y136" s="40" t="s">
+        <v>473</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="W6:AB100">
+  <conditionalFormatting sqref="W6:AB121">
     <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>W$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V6:V100">
+  <conditionalFormatting sqref="V6:V121">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>V$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD6:AD100">
+  <conditionalFormatting sqref="AD6:AD121">
     <cfRule type="top10" dxfId="0" priority="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/soccer/php/result/analyze/分析主表.xlsx
+++ b/soccer/php/result/analyze/分析主表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>作成者</author>
+    <author>作者</author>
   </authors>
   <commentList>
     <comment ref="BA4" authorId="0" shapeId="0">
@@ -34,7 +34,7 @@
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t>作成者:</t>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -91,7 +91,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>作成者:</t>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -118,7 +118,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>作成者:</t>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -146,7 +146,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>作成者:</t>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -173,7 +173,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>作成者:</t>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -200,7 +200,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>作成者:</t>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -229,7 +229,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>作成者:</t>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -259,7 +259,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>作成者:</t>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -287,7 +287,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>作成者:</t>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -317,7 +317,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>作成者:</t>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -345,7 +345,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>作成者:</t>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -368,7 +368,7 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>作成者</author>
+    <author>作者</author>
   </authors>
   <commentList>
     <comment ref="BA4" authorId="0" shapeId="0">
@@ -382,7 +382,7 @@
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t>作成者:</t>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -439,7 +439,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>作成者:</t>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -466,7 +466,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>作成者:</t>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -494,7 +494,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>作成者:</t>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -521,7 +521,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>作成者:</t>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -548,7 +548,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>作成者:</t>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -577,7 +577,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>作成者:</t>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -607,7 +607,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>作成者:</t>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -636,7 +636,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>作成者:</t>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -666,7 +666,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>作成者:</t>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -694,7 +694,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>作成者:</t>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -716,7 +716,7 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>作成者</author>
+    <author>作者</author>
   </authors>
   <commentList>
     <comment ref="W3" authorId="0" shapeId="0">
@@ -730,7 +730,7 @@
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t>作成者:</t>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -917,7 +917,8 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>级别国家的联赛：墨甲，智利甲</t>
+          <t>级别国家的联赛：墨甲，智利甲
+高级别国家的低级联赛：英甲</t>
         </r>
         <r>
           <rPr>
@@ -1014,7 +1015,7 @@
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t>作成者:</t>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -1091,7 +1092,7 @@
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t>作成者:</t>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -1167,7 +1168,7 @@
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t>作成者:</t>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -1494,7 +1495,7 @@
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t>作成者:</t>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -1592,7 +1593,7 @@
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t>作成者:</t>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -1642,7 +1643,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1638" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1752" uniqueCount="643">
   <si>
     <t>A</t>
     <phoneticPr fontId="1"/>
@@ -1659,7 +1660,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2015,7 +2016,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2037,7 +2038,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2048,7 +2049,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -2065,7 +2066,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -2082,7 +2083,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2103,7 +2104,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2129,7 +2130,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2143,7 +2144,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2154,7 +2155,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2168,7 +2169,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2233,7 +2234,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="0"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2250,7 +2251,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2267,7 +2268,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2278,7 +2279,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -2375,7 +2376,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2392,7 +2393,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2403,7 +2404,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2419,7 +2420,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2430,7 +2431,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2450,7 +2451,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2461,7 +2462,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2477,7 +2478,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2488,7 +2489,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2562,7 +2563,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2573,7 +2574,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2619,7 +2620,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2633,7 +2634,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2644,7 +2645,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2664,7 +2665,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2685,7 +2686,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2696,7 +2697,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2712,7 +2713,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3429,7 +3430,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3454,7 +3455,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3471,7 +3472,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -3482,7 +3483,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3546,7 +3547,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3558,7 +3559,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3568,7 +3569,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3589,7 +3590,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3606,7 +3607,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3623,7 +3624,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -3634,7 +3635,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3655,7 +3656,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3680,7 +3681,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3701,7 +3702,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3722,7 +3723,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3751,7 +3752,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3762,7 +3763,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3778,7 +3779,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3789,7 +3790,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4030,7 +4031,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4041,7 +4042,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4057,7 +4058,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4068,7 +4069,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4088,7 +4089,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4099,7 +4100,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4109,7 +4110,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4120,7 +4121,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4146,7 +4147,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4193,7 +4194,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4260,30 +4261,6 @@
     <t>升1次</t>
   </si>
   <si>
-    <t>一路升</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>一路降</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>降</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>低</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>升1次，大升</t>
   </si>
   <si>
@@ -4384,10 +4361,6 @@
   </si>
   <si>
     <t>升2次</t>
-  </si>
-  <si>
-    <t>低</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <r>
@@ -4397,7 +4370,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4429,11 +4402,115 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>这一场虽然不出冷门有模板，但是本场的赔率初赔依然是势均力敌，后续类似情况可以考虑</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>斯文登</t>
+  </si>
+  <si>
+    <t>低</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>升</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>这一场虽然不出冷门有模板，但是本场的赔率初赔依然是势均力敌，后续类似情况可以考虑</t>
+    <t>降</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>有升有降，主降</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>有升有降，主升</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>升</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>选</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>蔚山现代</t>
+  </si>
+  <si>
+    <t>升2次</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>低</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>升</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>降2次</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>降</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仙台维加泰</t>
+  </si>
+  <si>
+    <t>盛冈仙鹤</t>
+  </si>
+  <si>
+    <t>一路降</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>降</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一路升</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>清水鼓动</t>
+  </si>
+  <si>
+    <t>水户蜀葵</t>
+  </si>
+  <si>
+    <t>清水心跳</t>
+  </si>
+  <si>
+    <t>这一场的临赔变化又是压着30分钟的轴，不好判断啊，不算临赔就不是冷，算临赔就很可能出冷</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鸟栖沙岩</t>
+  </si>
+  <si>
+    <t>琉球FC</t>
+  </si>
+  <si>
+    <t>FC琉球</t>
+  </si>
+  <si>
+    <t>东京绿茵</t>
+  </si>
+  <si>
+    <t>东京绿荫</t>
+  </si>
+  <si>
+    <t>这一场实在找不到相似的结果</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4444,17 +4521,17 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -4462,7 +4539,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4470,14 +4547,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -4485,7 +4562,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -4523,7 +4600,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4531,14 +4608,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4917,6 +4994,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -4986,10 +5064,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="157">
     <dxf>
@@ -6105,7 +6182,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6397,12 +6474,12 @@
       <selection activeCell="B315" sqref="B315:P315"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="10.5" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:16">
       <c r="B4" s="4">
         <v>42370</v>
       </c>
@@ -6449,7 +6526,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:16">
       <c r="D7" t="s">
         <v>0</v>
       </c>
@@ -6463,7 +6540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:16">
       <c r="C8" s="1" t="s">
         <v>1</v>
       </c>
@@ -6477,7 +6554,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:16">
       <c r="C9" t="s">
         <v>2</v>
       </c>
@@ -6491,7 +6568,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:16">
       <c r="D16" t="s">
         <v>3</v>
       </c>
@@ -6505,7 +6582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:16">
       <c r="E17">
         <v>1</v>
       </c>
@@ -6516,7 +6593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:16">
       <c r="E18">
         <v>1</v>
       </c>
@@ -6527,7 +6604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:16">
       <c r="B21" s="4">
         <v>42370</v>
       </c>
@@ -6574,7 +6651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:16">
       <c r="D23" t="s">
         <v>0</v>
       </c>
@@ -6588,7 +6665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:16">
       <c r="C24" s="1" t="s">
         <v>1</v>
       </c>
@@ -6602,7 +6679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:16">
       <c r="C25" t="s">
         <v>2</v>
       </c>
@@ -6616,7 +6693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:16">
       <c r="D32" t="s">
         <v>3</v>
       </c>
@@ -6630,7 +6707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:16">
       <c r="E33">
         <v>2</v>
       </c>
@@ -6641,7 +6718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:16">
       <c r="E34">
         <v>2</v>
       </c>
@@ -6652,7 +6729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:16">
       <c r="B36" s="4">
         <v>42371</v>
       </c>
@@ -6699,7 +6776,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:16">
       <c r="D39" t="s">
         <v>0</v>
       </c>
@@ -6713,7 +6790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:16">
       <c r="C40" s="1" t="s">
         <v>1</v>
       </c>
@@ -6727,7 +6804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:16">
       <c r="C41" t="s">
         <v>2</v>
       </c>
@@ -6741,7 +6818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:16">
       <c r="D48" t="s">
         <v>3</v>
       </c>
@@ -6755,7 +6832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:16">
       <c r="E49">
         <v>2</v>
       </c>
@@ -6766,7 +6843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:16">
       <c r="E50">
         <v>1</v>
       </c>
@@ -6777,7 +6854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:16">
       <c r="B53" s="4">
         <v>42371</v>
       </c>
@@ -6824,7 +6901,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:16">
       <c r="D56" t="s">
         <v>0</v>
       </c>
@@ -6838,7 +6915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:16">
       <c r="C57" s="1" t="s">
         <v>1</v>
       </c>
@@ -6852,7 +6929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:16">
       <c r="C58" t="s">
         <v>2</v>
       </c>
@@ -6866,7 +6943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:16">
       <c r="D65" t="s">
         <v>3</v>
       </c>
@@ -6880,7 +6957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:16">
       <c r="E66">
         <v>1</v>
       </c>
@@ -6891,7 +6968,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:16">
       <c r="E67">
         <v>0</v>
       </c>
@@ -6902,7 +6979,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:16">
       <c r="B69" s="4">
         <v>42371</v>
       </c>
@@ -6949,7 +7026,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:16">
       <c r="D71" t="s">
         <v>0</v>
       </c>
@@ -6963,7 +7040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:16">
       <c r="C72" s="1" t="s">
         <v>1</v>
       </c>
@@ -6977,7 +7054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:16">
       <c r="C73" t="s">
         <v>2</v>
       </c>
@@ -6991,7 +7068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:16">
       <c r="D74" t="s">
         <v>3</v>
       </c>
@@ -7005,7 +7082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:16">
       <c r="E75">
         <v>1</v>
       </c>
@@ -7016,7 +7093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:16">
       <c r="E76">
         <v>0</v>
       </c>
@@ -7027,7 +7104,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:16">
       <c r="B78" s="4">
         <v>42371</v>
       </c>
@@ -7074,7 +7151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:16">
       <c r="D80" t="s">
         <v>0</v>
       </c>
@@ -7088,7 +7165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:18">
       <c r="C81" s="1" t="s">
         <v>1</v>
       </c>
@@ -7129,7 +7206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:18">
       <c r="C82" t="s">
         <v>2</v>
       </c>
@@ -7170,7 +7247,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:18">
       <c r="D83" t="s">
         <v>3</v>
       </c>
@@ -7184,7 +7261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:18">
       <c r="E84">
         <v>0</v>
       </c>
@@ -7195,7 +7272,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:18">
       <c r="E85">
         <v>2</v>
       </c>
@@ -7206,7 +7283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:18">
       <c r="B87" s="4">
         <v>42371</v>
       </c>
@@ -7253,7 +7330,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="90" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:18">
       <c r="D90" t="s">
         <v>0</v>
       </c>
@@ -7267,7 +7344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:18">
       <c r="C91" s="1" t="s">
         <v>1</v>
       </c>
@@ -7281,7 +7358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:18">
       <c r="C92" t="s">
         <v>2</v>
       </c>
@@ -7295,7 +7372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:18">
       <c r="D93" t="s">
         <v>3</v>
       </c>
@@ -7309,7 +7386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:18">
       <c r="E94">
         <v>2</v>
       </c>
@@ -7320,7 +7397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:18">
       <c r="E95">
         <v>0</v>
       </c>
@@ -7331,7 +7408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:16">
       <c r="B97" s="4">
         <v>42371</v>
       </c>
@@ -7378,7 +7455,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="99" spans="2:16">
       <c r="D99" t="s">
         <v>0</v>
       </c>
@@ -7392,7 +7469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:16">
       <c r="C100" s="1" t="s">
         <v>1</v>
       </c>
@@ -7406,7 +7483,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:16">
       <c r="C101" t="s">
         <v>2</v>
       </c>
@@ -7420,7 +7497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:16">
       <c r="D102" t="s">
         <v>3</v>
       </c>
@@ -7434,7 +7511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:16">
       <c r="E103">
         <v>0</v>
       </c>
@@ -7445,7 +7522,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:16">
       <c r="E104">
         <v>0</v>
       </c>
@@ -7456,7 +7533,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="106" spans="2:16">
       <c r="B106" s="4">
         <v>42371</v>
       </c>
@@ -7503,7 +7580,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="108" spans="2:16">
       <c r="D108" t="s">
         <v>0</v>
       </c>
@@ -7517,7 +7594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="109" spans="2:16">
       <c r="C109" s="1" t="s">
         <v>1</v>
       </c>
@@ -7549,7 +7626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="110" spans="2:16">
       <c r="C110" t="s">
         <v>2</v>
       </c>
@@ -7581,7 +7658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="111" spans="2:16">
       <c r="D111" t="s">
         <v>3</v>
       </c>
@@ -7595,7 +7672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="112" spans="2:16">
       <c r="E112">
         <v>0</v>
       </c>
@@ -7606,7 +7683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="113" spans="2:16">
       <c r="E113">
         <v>1</v>
       </c>
@@ -7617,7 +7694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="115" spans="2:16">
       <c r="B115" s="4">
         <v>42371</v>
       </c>
@@ -7664,7 +7741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="117" spans="2:16">
       <c r="D117" t="s">
         <v>0</v>
       </c>
@@ -7678,7 +7755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="118" spans="2:16">
       <c r="C118" s="1" t="s">
         <v>1</v>
       </c>
@@ -7692,7 +7769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="119" spans="2:16">
       <c r="C119" t="s">
         <v>2</v>
       </c>
@@ -7706,7 +7783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="120" spans="2:16">
       <c r="D120" t="s">
         <v>3</v>
       </c>
@@ -7720,7 +7797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="121" spans="2:16">
       <c r="E121">
         <v>2</v>
       </c>
@@ -7731,7 +7808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="122" spans="2:16">
       <c r="E122">
         <v>2</v>
       </c>
@@ -7742,7 +7819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="124" spans="2:16">
       <c r="B124" s="4">
         <v>42371</v>
       </c>
@@ -7789,7 +7866,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="126" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="126" spans="2:16">
       <c r="D126" t="s">
         <v>0</v>
       </c>
@@ -7803,7 +7880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="127" spans="2:16">
       <c r="C127" s="1" t="s">
         <v>1</v>
       </c>
@@ -7817,7 +7894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="128" spans="2:16">
       <c r="C128" t="s">
         <v>2</v>
       </c>
@@ -7831,7 +7908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="129" spans="2:16">
       <c r="D129" t="s">
         <v>3</v>
       </c>
@@ -7845,7 +7922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="130" spans="2:16">
       <c r="E130">
         <v>2</v>
       </c>
@@ -7856,7 +7933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="131" spans="2:16">
       <c r="E131">
         <v>1</v>
       </c>
@@ -7867,7 +7944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="132" spans="2:16">
       <c r="B132" s="4">
         <v>42371</v>
       </c>
@@ -7914,7 +7991,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="134" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="134" spans="2:16">
       <c r="E134">
         <v>0</v>
       </c>
@@ -7925,7 +8002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="135" spans="2:16">
       <c r="E135">
         <v>0</v>
       </c>
@@ -7936,7 +8013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="137" spans="2:16">
       <c r="E137">
         <v>2</v>
       </c>
@@ -7947,7 +8024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="138" spans="2:16">
       <c r="E138">
         <v>2</v>
       </c>
@@ -7958,7 +8035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="140" spans="2:16">
       <c r="B140" s="4">
         <v>42371</v>
       </c>
@@ -8005,7 +8082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="142" spans="2:16">
       <c r="E142">
         <v>1</v>
       </c>
@@ -8016,7 +8093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="143" spans="2:16">
       <c r="E143">
         <v>1</v>
       </c>
@@ -8027,7 +8104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="145" spans="2:16">
       <c r="E145">
         <v>2</v>
       </c>
@@ -8038,7 +8115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="146" spans="2:16">
       <c r="E146">
         <v>2</v>
       </c>
@@ -8049,7 +8126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="148" spans="2:16">
       <c r="B148" s="4">
         <v>42371</v>
       </c>
@@ -8096,7 +8173,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="150" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="150" spans="2:16">
       <c r="E150">
         <v>0</v>
       </c>
@@ -8125,7 +8202,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="151" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="151" spans="2:16">
       <c r="E151">
         <v>0</v>
       </c>
@@ -8154,7 +8231,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="153" spans="2:16">
       <c r="E153">
         <v>1</v>
       </c>
@@ -8165,7 +8242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="154" spans="2:16">
       <c r="E154">
         <v>1</v>
       </c>
@@ -8176,7 +8253,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="156" spans="2:16">
       <c r="B156" s="4">
         <v>42371</v>
       </c>
@@ -8223,7 +8300,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="158" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="158" spans="2:16">
       <c r="E158">
         <v>2</v>
       </c>
@@ -8234,7 +8311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="159" spans="2:16">
       <c r="E159">
         <v>2</v>
       </c>
@@ -8245,7 +8322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="161" spans="2:16">
       <c r="E161">
         <v>1</v>
       </c>
@@ -8256,7 +8333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="162" spans="2:16">
       <c r="E162">
         <v>0</v>
       </c>
@@ -8267,7 +8344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="163" spans="2:16">
       <c r="B163" s="4">
         <v>42371</v>
       </c>
@@ -8314,7 +8391,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="165" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="165" spans="2:16">
       <c r="E165">
         <v>2</v>
       </c>
@@ -8325,7 +8402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="166" spans="2:16">
       <c r="E166">
         <v>2</v>
       </c>
@@ -8336,7 +8413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="167" spans="2:16">
       <c r="E167">
         <v>1</v>
       </c>
@@ -8347,7 +8424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="168" spans="2:16">
       <c r="E168">
         <v>1</v>
       </c>
@@ -8358,7 +8435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="169" spans="2:16">
       <c r="B169" s="4">
         <v>42371</v>
       </c>
@@ -8405,7 +8482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="171" spans="2:16">
       <c r="E171">
         <v>0</v>
       </c>
@@ -8416,7 +8493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="174" spans="2:16">
       <c r="E174">
         <v>0</v>
       </c>
@@ -8427,7 +8504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="176" spans="2:16">
       <c r="B176" s="4">
         <v>42604</v>
       </c>
@@ -8474,7 +8551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="178" spans="3:18">
       <c r="E178">
         <v>0</v>
       </c>
@@ -8488,7 +8565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="179" spans="3:18">
       <c r="E179">
         <v>0</v>
       </c>
@@ -8499,7 +8576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="181" spans="3:18">
       <c r="E181">
         <v>0</v>
       </c>
@@ -8510,7 +8587,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="182" spans="3:18">
       <c r="E182">
         <v>0</v>
       </c>
@@ -8521,7 +8598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="184" spans="3:18">
       <c r="C184">
         <v>1</v>
       </c>
@@ -8565,7 +8642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="187" spans="3:18">
       <c r="E187">
         <v>1.179</v>
       </c>
@@ -8585,7 +8662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="190" spans="3:18">
       <c r="E190">
         <v>1.07</v>
       </c>
@@ -8605,7 +8682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="192" spans="3:18">
       <c r="C192">
         <v>2</v>
       </c>
@@ -8649,7 +8726,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="196" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="196" spans="2:16">
       <c r="E196">
         <v>0</v>
       </c>
@@ -8669,7 +8746,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="199" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="199" spans="2:16">
       <c r="E199">
         <v>1</v>
       </c>
@@ -8692,7 +8769,7 @@
         <v>2.04</v>
       </c>
     </row>
-    <row r="201" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="201" spans="2:16">
       <c r="C201">
         <v>16</v>
       </c>
@@ -8736,7 +8813,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="203" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="203" spans="2:16">
       <c r="E203">
         <v>0</v>
       </c>
@@ -8771,7 +8848,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="204" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="204" spans="2:16">
       <c r="E204">
         <v>2</v>
       </c>
@@ -8791,7 +8868,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="206" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="206" spans="2:16">
       <c r="E206">
         <v>1</v>
       </c>
@@ -8823,7 +8900,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="207" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="207" spans="2:16">
       <c r="E207">
         <v>1</v>
       </c>
@@ -8843,7 +8920,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="208" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="208" spans="2:16">
       <c r="B208" s="4">
         <v>42371</v>
       </c>
@@ -8890,7 +8967,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="210" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="210" spans="2:18">
       <c r="E210">
         <v>0</v>
       </c>
@@ -8928,7 +9005,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="211" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="211" spans="2:18">
       <c r="E211">
         <v>0</v>
       </c>
@@ -8954,7 +9031,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="213" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="213" spans="2:18">
       <c r="E213">
         <v>1</v>
       </c>
@@ -8986,7 +9063,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="214" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="214" spans="2:18">
       <c r="E214">
         <v>0</v>
       </c>
@@ -9006,7 +9083,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="215" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="215" spans="2:18">
       <c r="B215" s="4">
         <v>42371</v>
       </c>
@@ -9053,7 +9130,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="217" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="217" spans="2:18">
       <c r="E217">
         <v>0</v>
       </c>
@@ -9091,7 +9168,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="218" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="218" spans="2:18">
       <c r="E218">
         <v>0</v>
       </c>
@@ -9117,7 +9194,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="219" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="219" spans="2:18">
       <c r="Q219" t="s">
         <v>67</v>
       </c>
@@ -9125,7 +9202,7 @@
         <v>2.14</v>
       </c>
     </row>
-    <row r="220" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="220" spans="2:18">
       <c r="E220">
         <v>0</v>
       </c>
@@ -9157,7 +9234,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="221" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="221" spans="2:18">
       <c r="E221">
         <v>0</v>
       </c>
@@ -9177,7 +9254,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="222" spans="2:18">
       <c r="B222" s="4">
         <v>42371</v>
       </c>
@@ -9224,7 +9301,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="224" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="224" spans="2:18">
       <c r="E224">
         <v>0</v>
       </c>
@@ -9262,7 +9339,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="225" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="225" spans="2:18">
       <c r="E225">
         <v>0</v>
       </c>
@@ -9288,7 +9365,7 @@
         <v>3.85</v>
       </c>
     </row>
-    <row r="226" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="226" spans="2:18">
       <c r="Q226" t="s">
         <v>67</v>
       </c>
@@ -9296,7 +9373,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="227" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="227" spans="2:18">
       <c r="E227">
         <v>2</v>
       </c>
@@ -9328,7 +9405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="228" spans="2:18">
       <c r="E228">
         <v>0</v>
       </c>
@@ -9348,7 +9425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="229" spans="2:18">
       <c r="B229" s="4">
         <v>42371</v>
       </c>
@@ -9395,7 +9472,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="231" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="231" spans="2:18">
       <c r="E231">
         <v>2</v>
       </c>
@@ -9433,7 +9510,7 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="232" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="232" spans="2:18">
       <c r="E232">
         <v>2</v>
       </c>
@@ -9459,12 +9536,12 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="233" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="233" spans="2:18">
       <c r="Q233" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="234" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="234" spans="2:18">
       <c r="E234">
         <v>1</v>
       </c>
@@ -9496,7 +9573,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="235" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="235" spans="2:18">
       <c r="E235">
         <v>1</v>
       </c>
@@ -9516,7 +9593,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="236" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="236" spans="2:18">
       <c r="B236" s="4">
         <v>42371</v>
       </c>
@@ -9563,7 +9640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="238" spans="2:18">
       <c r="E238">
         <v>0</v>
       </c>
@@ -9601,7 +9678,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="239" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="239" spans="2:18">
       <c r="Q239" t="s">
         <v>64</v>
       </c>
@@ -9609,12 +9686,12 @@
         <v>3.35</v>
       </c>
     </row>
-    <row r="240" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="240" spans="2:18">
       <c r="Q240" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="241" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="241" spans="2:18">
       <c r="E241">
         <v>2</v>
       </c>
@@ -9646,7 +9723,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="243" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="243" spans="2:18">
       <c r="C243">
         <v>1</v>
       </c>
@@ -9690,7 +9767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="245" spans="2:18">
       <c r="E245">
         <v>1</v>
       </c>
@@ -9728,7 +9805,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="246" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="246" spans="2:18">
       <c r="E246">
         <v>0</v>
       </c>
@@ -9754,7 +9831,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="247" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="247" spans="2:18">
       <c r="Q247" t="s">
         <v>67</v>
       </c>
@@ -9762,7 +9839,7 @@
         <v>2.14</v>
       </c>
     </row>
-    <row r="248" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="248" spans="2:18">
       <c r="E248">
         <v>2</v>
       </c>
@@ -9794,7 +9871,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="249" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="249" spans="2:18">
       <c r="E249">
         <v>2</v>
       </c>
@@ -9814,7 +9891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="250" spans="2:18">
       <c r="B250" s="4">
         <v>42371</v>
       </c>
@@ -9861,7 +9938,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="252" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="252" spans="2:18">
       <c r="E252">
         <v>0</v>
       </c>
@@ -9887,7 +9964,7 @@
         <v>2.16</v>
       </c>
     </row>
-    <row r="253" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="253" spans="2:18">
       <c r="Q253" t="s">
         <v>64</v>
       </c>
@@ -9895,12 +9972,12 @@
         <v>2.16</v>
       </c>
     </row>
-    <row r="254" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="254" spans="2:18">
       <c r="Q254" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="255" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="255" spans="2:18">
       <c r="E255">
         <v>1</v>
       </c>
@@ -9920,7 +9997,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="256" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="256" spans="2:18">
       <c r="B256" s="4">
         <v>42371</v>
       </c>
@@ -9967,7 +10044,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="258" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="258" spans="2:18">
       <c r="E258">
         <v>0</v>
       </c>
@@ -10005,7 +10082,7 @@
         <v>2.14</v>
       </c>
     </row>
-    <row r="259" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="259" spans="2:18">
       <c r="E259">
         <v>0</v>
       </c>
@@ -10031,7 +10108,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="260" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="260" spans="2:18">
       <c r="Q260" t="s">
         <v>67</v>
       </c>
@@ -10039,7 +10116,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="261" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="261" spans="2:18">
       <c r="E261">
         <v>1</v>
       </c>
@@ -10071,7 +10148,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="262" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="262" spans="2:18">
       <c r="E262">
         <v>1</v>
       </c>
@@ -10091,7 +10168,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="263" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="263" spans="2:18">
       <c r="B263" s="4">
         <v>42371</v>
       </c>
@@ -10138,7 +10215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="265" spans="2:18">
       <c r="E265">
         <v>0</v>
       </c>
@@ -10176,7 +10253,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="266" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="266" spans="2:18">
       <c r="E266">
         <v>0</v>
       </c>
@@ -10202,7 +10279,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="267" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="267" spans="2:18">
       <c r="Q267" t="s">
         <v>67</v>
       </c>
@@ -10210,7 +10287,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="268" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="268" spans="2:18">
       <c r="E268">
         <v>1</v>
       </c>
@@ -10248,7 +10325,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="269" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="269" spans="2:18">
       <c r="E269">
         <v>0</v>
       </c>
@@ -10274,7 +10351,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="270" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="270" spans="2:18">
       <c r="B270" s="4">
         <v>42371</v>
       </c>
@@ -10327,7 +10404,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="272" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="272" spans="2:18">
       <c r="E272">
         <v>0</v>
       </c>
@@ -10365,7 +10442,7 @@
         <v>2.14</v>
       </c>
     </row>
-    <row r="273" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="273" spans="2:18">
       <c r="Q273" t="s">
         <v>83</v>
       </c>
@@ -10373,7 +10450,7 @@
         <v>2.14</v>
       </c>
     </row>
-    <row r="274" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="274" spans="2:18">
       <c r="Q274" t="s">
         <v>64</v>
       </c>
@@ -10381,7 +10458,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="275" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="275" spans="2:18">
       <c r="E275">
         <v>0</v>
       </c>
@@ -10416,17 +10493,17 @@
         <v>67</v>
       </c>
     </row>
-    <row r="276" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="276" spans="2:18">
       <c r="Q276" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="277" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="277" spans="2:18">
       <c r="Q277" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="279" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="279" spans="2:18">
       <c r="B279" s="4">
         <v>42371</v>
       </c>
@@ -10479,7 +10556,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="280" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="280" spans="2:18">
       <c r="Q280" t="s">
         <v>83</v>
       </c>
@@ -10487,7 +10564,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="281" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="281" spans="2:18">
       <c r="E281">
         <v>0</v>
       </c>
@@ -10525,7 +10602,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="282" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="282" spans="2:18">
       <c r="E282">
         <v>0</v>
       </c>
@@ -10551,7 +10628,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="283" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="283" spans="2:18">
       <c r="Q283" t="s">
         <v>84</v>
       </c>
@@ -10559,7 +10636,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="284" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="284" spans="2:18">
       <c r="E284">
         <v>0</v>
       </c>
@@ -10597,7 +10674,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="285" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="285" spans="2:18">
       <c r="E285">
         <v>0</v>
       </c>
@@ -10617,7 +10694,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="286" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="286" spans="2:18">
       <c r="B286" s="4">
         <v>42371</v>
       </c>
@@ -10670,7 +10747,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="287" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="287" spans="2:18">
       <c r="E287">
         <v>0</v>
       </c>
@@ -10708,7 +10785,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="288" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="288" spans="2:18">
       <c r="Q288" t="s">
         <v>64</v>
       </c>
@@ -10716,7 +10793,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="290" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="290" spans="2:18">
       <c r="E290">
         <v>0</v>
       </c>
@@ -10748,7 +10825,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="291" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="291" spans="2:18">
       <c r="B291" s="4">
         <v>42371</v>
       </c>
@@ -10801,7 +10878,7 @@
         <v>2.06</v>
       </c>
     </row>
-    <row r="292" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="292" spans="2:18">
       <c r="Q292" t="s">
         <v>83</v>
       </c>
@@ -10809,7 +10886,7 @@
         <v>2.06</v>
       </c>
     </row>
-    <row r="293" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="293" spans="2:18">
       <c r="E293">
         <v>0</v>
       </c>
@@ -10847,7 +10924,7 @@
         <v>2.06</v>
       </c>
     </row>
-    <row r="294" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="294" spans="2:18">
       <c r="E294">
         <v>0</v>
       </c>
@@ -10873,7 +10950,7 @@
         <v>1.57</v>
       </c>
     </row>
-    <row r="295" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="295" spans="2:18">
       <c r="Q295" t="s">
         <v>84</v>
       </c>
@@ -10881,7 +10958,7 @@
         <v>2.06</v>
       </c>
     </row>
-    <row r="296" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="296" spans="2:18">
       <c r="E296">
         <v>0</v>
       </c>
@@ -10919,7 +10996,7 @@
         <v>4.45</v>
       </c>
     </row>
-    <row r="297" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="297" spans="2:18">
       <c r="E297">
         <v>0</v>
       </c>
@@ -10939,7 +11016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="298" spans="2:18">
       <c r="B298" s="4">
         <v>42371</v>
       </c>
@@ -10986,7 +11063,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="299" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="299" spans="2:18">
       <c r="E299">
         <v>0</v>
       </c>
@@ -11024,7 +11101,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="300" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="300" spans="2:18">
       <c r="E300">
         <v>0</v>
       </c>
@@ -11050,7 +11127,7 @@
         <v>2.14</v>
       </c>
     </row>
-    <row r="301" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="301" spans="2:18">
       <c r="Q301" t="s">
         <v>64</v>
       </c>
@@ -11058,7 +11135,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="302" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="302" spans="2:18">
       <c r="E302">
         <v>1</v>
       </c>
@@ -11096,7 +11173,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="303" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="303" spans="2:18">
       <c r="E303">
         <v>1</v>
       </c>
@@ -11122,7 +11199,7 @@
         <v>2.14</v>
       </c>
     </row>
-    <row r="304" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="304" spans="2:18">
       <c r="B304" s="4">
         <v>42605</v>
       </c>
@@ -11169,7 +11246,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="305" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="305" spans="2:16">
       <c r="E305">
         <v>0</v>
       </c>
@@ -11201,7 +11278,7 @@
         <v>-23</v>
       </c>
     </row>
-    <row r="306" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="306" spans="2:16">
       <c r="E306">
         <v>0</v>
       </c>
@@ -11221,7 +11298,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="308" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="308" spans="2:16">
       <c r="E308">
         <v>0</v>
       </c>
@@ -11253,7 +11330,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="309" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="309" spans="2:16">
       <c r="E309">
         <v>1</v>
       </c>
@@ -11273,7 +11350,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="311" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="311" spans="2:16">
       <c r="D311" t="s">
         <v>63</v>
       </c>
@@ -11293,7 +11370,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="312" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="312" spans="2:16">
       <c r="D312" t="s">
         <v>83</v>
       </c>
@@ -11307,7 +11384,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="313" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="313" spans="2:16">
       <c r="H313" t="s">
         <v>103</v>
       </c>
@@ -11315,7 +11392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="314" spans="2:16">
       <c r="H314" t="s">
         <v>104</v>
       </c>
@@ -11323,7 +11400,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="315" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="315" spans="2:16">
       <c r="B315" s="4">
         <v>42605</v>
       </c>
@@ -11370,7 +11447,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="316" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="316" spans="2:16">
       <c r="E316">
         <v>0</v>
       </c>
@@ -11402,7 +11479,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="317" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="317" spans="2:16">
       <c r="E317">
         <v>0</v>
       </c>
@@ -11422,7 +11499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="319" spans="2:16">
       <c r="E319">
         <v>1</v>
       </c>
@@ -11454,7 +11531,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="320" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="320" spans="2:16">
       <c r="E320">
         <v>0</v>
       </c>
@@ -11474,7 +11551,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="322" spans="4:9" x14ac:dyDescent="0.15">
+    <row r="322" spans="4:9">
       <c r="D322" t="s">
         <v>63</v>
       </c>
@@ -11494,7 +11571,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="323" spans="4:9" x14ac:dyDescent="0.15">
+    <row r="323" spans="4:9">
       <c r="D323" t="s">
         <v>83</v>
       </c>
@@ -11508,7 +11585,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="324" spans="4:9" x14ac:dyDescent="0.15">
+    <row r="324" spans="4:9">
       <c r="H324" t="s">
         <v>103</v>
       </c>
@@ -11516,7 +11593,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="325" spans="4:9" x14ac:dyDescent="0.15">
+    <row r="325" spans="4:9">
       <c r="H325" t="s">
         <v>104</v>
       </c>
@@ -11535,14 +11612,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BW47"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="9" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="W33" sqref="W33"/>
+      <selection pane="bottomRight" activeCell="AP23" sqref="AP23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
     <col min="2" max="2" width="11.375" style="37" customWidth="1"/>
@@ -11552,8 +11629,9 @@
     <col min="10" max="15" width="6" style="5" customWidth="1"/>
     <col min="16" max="16" width="4.625" style="5" customWidth="1"/>
     <col min="17" max="28" width="3.625" style="5" customWidth="1"/>
-    <col min="29" max="40" width="6.75" style="5" customWidth="1"/>
-    <col min="41" max="52" width="7.75" style="5" customWidth="1"/>
+    <col min="29" max="40" width="6.75" style="5" hidden="1" customWidth="1"/>
+    <col min="41" max="46" width="7.75" style="5" customWidth="1"/>
+    <col min="47" max="52" width="7.75" style="5" hidden="1" customWidth="1"/>
     <col min="53" max="53" width="4.625" style="5" customWidth="1"/>
     <col min="54" max="54" width="2.375" style="5" customWidth="1"/>
     <col min="55" max="55" width="4.625" style="5" customWidth="1"/>
@@ -11566,51 +11644,51 @@
     <col min="62" max="62" width="2.25" style="5" customWidth="1"/>
     <col min="63" max="63" width="4.625" style="5" customWidth="1"/>
     <col min="64" max="64" width="2.25" style="5" customWidth="1"/>
-    <col min="65" max="65" width="4.625" style="5" customWidth="1"/>
-    <col min="66" max="66" width="1.75" style="5" customWidth="1"/>
-    <col min="67" max="67" width="4.625" style="5" customWidth="1"/>
-    <col min="68" max="68" width="2" style="5" customWidth="1"/>
-    <col min="69" max="69" width="4.625" style="5" customWidth="1"/>
-    <col min="70" max="70" width="2" style="5" customWidth="1"/>
-    <col min="71" max="71" width="4.625" style="5" customWidth="1"/>
-    <col min="72" max="72" width="2.25" style="5" customWidth="1"/>
+    <col min="65" max="65" width="4.625" style="5" hidden="1" customWidth="1"/>
+    <col min="66" max="66" width="1.75" style="5" hidden="1" customWidth="1"/>
+    <col min="67" max="67" width="4.625" style="5" hidden="1" customWidth="1"/>
+    <col min="68" max="68" width="2" style="5" hidden="1" customWidth="1"/>
+    <col min="69" max="69" width="4.625" style="5" hidden="1" customWidth="1"/>
+    <col min="70" max="70" width="2" style="5" hidden="1" customWidth="1"/>
+    <col min="71" max="71" width="4.625" style="5" hidden="1" customWidth="1"/>
+    <col min="72" max="72" width="2.25" style="5" hidden="1" customWidth="1"/>
     <col min="73" max="73" width="4.625" style="5" customWidth="1"/>
     <col min="74" max="74" width="1.75" style="5" customWidth="1"/>
     <col min="75" max="75" width="2" style="5" customWidth="1"/>
     <col min="76" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:75" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:75" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="54" t="s">
+    <row r="1" spans="2:75" ht="14.25" thickBot="1"/>
+    <row r="2" spans="2:75" customFormat="1">
+      <c r="B2" s="55" t="s">
         <v>138</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="55"/>
-      <c r="W2" s="55"/>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="55"/>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="55"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="56"/>
       <c r="AC2" s="39"/>
       <c r="AD2" s="39"/>
       <c r="AE2" s="39"/>
@@ -11623,143 +11701,143 @@
       <c r="AL2" s="39"/>
       <c r="AM2" s="39"/>
       <c r="AN2" s="39"/>
-      <c r="AO2" s="56" t="s">
+      <c r="AO2" s="57" t="s">
         <v>137</v>
       </c>
-      <c r="AP2" s="56"/>
-      <c r="AQ2" s="56"/>
-      <c r="AR2" s="56"/>
-      <c r="AS2" s="56"/>
-      <c r="AT2" s="56"/>
-      <c r="AU2" s="56" t="s">
+      <c r="AP2" s="57"/>
+      <c r="AQ2" s="57"/>
+      <c r="AR2" s="57"/>
+      <c r="AS2" s="57"/>
+      <c r="AT2" s="57"/>
+      <c r="AU2" s="57" t="s">
         <v>137</v>
       </c>
-      <c r="AV2" s="56"/>
-      <c r="AW2" s="56"/>
-      <c r="AX2" s="56"/>
-      <c r="AY2" s="56"/>
-      <c r="AZ2" s="56"/>
-      <c r="BA2" s="57" t="s">
+      <c r="AV2" s="57"/>
+      <c r="AW2" s="57"/>
+      <c r="AX2" s="57"/>
+      <c r="AY2" s="57"/>
+      <c r="AZ2" s="57"/>
+      <c r="BA2" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="BB2" s="58"/>
-      <c r="BC2" s="58"/>
-      <c r="BD2" s="58"/>
-      <c r="BE2" s="58"/>
-      <c r="BF2" s="58"/>
-      <c r="BG2" s="58"/>
-      <c r="BH2" s="58"/>
-      <c r="BI2" s="58"/>
-      <c r="BJ2" s="58"/>
-      <c r="BK2" s="58"/>
-      <c r="BL2" s="58"/>
-      <c r="BM2" s="58"/>
-      <c r="BN2" s="58"/>
-      <c r="BO2" s="58"/>
-      <c r="BP2" s="58"/>
-      <c r="BQ2" s="58"/>
-      <c r="BR2" s="58"/>
-      <c r="BS2" s="58"/>
-      <c r="BT2" s="59"/>
-      <c r="BU2" s="59"/>
-      <c r="BV2" s="59"/>
-      <c r="BW2" s="60"/>
-    </row>
-    <row r="3" spans="2:75" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="73" t="s">
+      <c r="BB2" s="59"/>
+      <c r="BC2" s="59"/>
+      <c r="BD2" s="59"/>
+      <c r="BE2" s="59"/>
+      <c r="BF2" s="59"/>
+      <c r="BG2" s="59"/>
+      <c r="BH2" s="59"/>
+      <c r="BI2" s="59"/>
+      <c r="BJ2" s="59"/>
+      <c r="BK2" s="59"/>
+      <c r="BL2" s="59"/>
+      <c r="BM2" s="59"/>
+      <c r="BN2" s="59"/>
+      <c r="BO2" s="59"/>
+      <c r="BP2" s="59"/>
+      <c r="BQ2" s="59"/>
+      <c r="BR2" s="59"/>
+      <c r="BS2" s="59"/>
+      <c r="BT2" s="60"/>
+      <c r="BU2" s="60"/>
+      <c r="BV2" s="60"/>
+      <c r="BW2" s="61"/>
+    </row>
+    <row r="3" spans="2:75" customFormat="1">
+      <c r="B3" s="74" t="s">
         <v>139</v>
       </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="75" t="s">
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="76" t="s">
         <v>190</v>
       </c>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="61" t="s">
+      <c r="K3" s="75"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="75"/>
+      <c r="O3" s="75"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="62" t="s">
         <v>120</v>
       </c>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="64" t="s">
+      <c r="R3" s="63"/>
+      <c r="S3" s="63"/>
+      <c r="T3" s="63"/>
+      <c r="U3" s="63"/>
+      <c r="V3" s="64"/>
+      <c r="W3" s="65" t="s">
         <v>127</v>
       </c>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="66"/>
-      <c r="AC3" s="61" t="s">
+      <c r="X3" s="66"/>
+      <c r="Y3" s="66"/>
+      <c r="Z3" s="66"/>
+      <c r="AA3" s="66"/>
+      <c r="AB3" s="67"/>
+      <c r="AC3" s="62" t="s">
         <v>173</v>
       </c>
-      <c r="AD3" s="62"/>
-      <c r="AE3" s="62"/>
-      <c r="AF3" s="62"/>
-      <c r="AG3" s="62"/>
-      <c r="AH3" s="63"/>
-      <c r="AI3" s="64" t="s">
+      <c r="AD3" s="63"/>
+      <c r="AE3" s="63"/>
+      <c r="AF3" s="63"/>
+      <c r="AG3" s="63"/>
+      <c r="AH3" s="64"/>
+      <c r="AI3" s="65" t="s">
         <v>174</v>
       </c>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="66"/>
-      <c r="AO3" s="67" t="s">
+      <c r="AJ3" s="66"/>
+      <c r="AK3" s="66"/>
+      <c r="AL3" s="66"/>
+      <c r="AM3" s="66"/>
+      <c r="AN3" s="67"/>
+      <c r="AO3" s="68" t="s">
         <v>126</v>
       </c>
-      <c r="AP3" s="68"/>
-      <c r="AQ3" s="68"/>
-      <c r="AR3" s="68"/>
-      <c r="AS3" s="68"/>
-      <c r="AT3" s="69"/>
-      <c r="AU3" s="67" t="s">
+      <c r="AP3" s="69"/>
+      <c r="AQ3" s="69"/>
+      <c r="AR3" s="69"/>
+      <c r="AS3" s="69"/>
+      <c r="AT3" s="70"/>
+      <c r="AU3" s="68" t="s">
         <v>175</v>
       </c>
-      <c r="AV3" s="68"/>
-      <c r="AW3" s="68"/>
-      <c r="AX3" s="68"/>
-      <c r="AY3" s="68"/>
-      <c r="AZ3" s="69"/>
-      <c r="BA3" s="70" t="s">
+      <c r="AV3" s="69"/>
+      <c r="AW3" s="69"/>
+      <c r="AX3" s="69"/>
+      <c r="AY3" s="69"/>
+      <c r="AZ3" s="70"/>
+      <c r="BA3" s="71" t="s">
         <v>128</v>
       </c>
-      <c r="BB3" s="71"/>
-      <c r="BC3" s="71"/>
-      <c r="BD3" s="71"/>
-      <c r="BE3" s="71"/>
-      <c r="BF3" s="71"/>
-      <c r="BG3" s="71"/>
-      <c r="BH3" s="71"/>
-      <c r="BI3" s="71"/>
-      <c r="BJ3" s="71"/>
-      <c r="BK3" s="71"/>
-      <c r="BL3" s="71"/>
-      <c r="BM3" s="71"/>
-      <c r="BN3" s="71"/>
-      <c r="BO3" s="71"/>
-      <c r="BP3" s="71"/>
-      <c r="BQ3" s="71"/>
-      <c r="BR3" s="71"/>
-      <c r="BS3" s="71"/>
-      <c r="BT3" s="71"/>
-      <c r="BU3" s="71"/>
-      <c r="BV3" s="71"/>
-      <c r="BW3" s="72"/>
-    </row>
-    <row r="4" spans="2:75" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="BB3" s="72"/>
+      <c r="BC3" s="72"/>
+      <c r="BD3" s="72"/>
+      <c r="BE3" s="72"/>
+      <c r="BF3" s="72"/>
+      <c r="BG3" s="72"/>
+      <c r="BH3" s="72"/>
+      <c r="BI3" s="72"/>
+      <c r="BJ3" s="72"/>
+      <c r="BK3" s="72"/>
+      <c r="BL3" s="72"/>
+      <c r="BM3" s="72"/>
+      <c r="BN3" s="72"/>
+      <c r="BO3" s="72"/>
+      <c r="BP3" s="72"/>
+      <c r="BQ3" s="72"/>
+      <c r="BR3" s="72"/>
+      <c r="BS3" s="72"/>
+      <c r="BT3" s="72"/>
+      <c r="BU3" s="72"/>
+      <c r="BV3" s="72"/>
+      <c r="BW3" s="73"/>
+    </row>
+    <row r="4" spans="2:75" customFormat="1">
       <c r="B4" s="23" t="s">
         <v>109</v>
       </c>
@@ -11959,7 +12037,7 @@
       <c r="BV4" s="12"/>
       <c r="BW4" s="22"/>
     </row>
-    <row r="5" spans="2:75" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:75" customFormat="1">
       <c r="B5" s="23">
         <v>42605</v>
       </c>
@@ -12139,7 +12217,7 @@
       <c r="BV5" s="12"/>
       <c r="BW5" s="22"/>
     </row>
-    <row r="6" spans="2:75" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:75" customFormat="1">
       <c r="B6" s="23"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -12338,7 +12416,7 @@
       <c r="BV6" s="12"/>
       <c r="BW6" s="22"/>
     </row>
-    <row r="7" spans="2:75" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:75" customFormat="1">
       <c r="B7" s="23"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -12537,7 +12615,7 @@
       <c r="BV7" s="12"/>
       <c r="BW7" s="22"/>
     </row>
-    <row r="8" spans="2:75" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:75" customFormat="1">
       <c r="B8" s="23"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -12748,7 +12826,7 @@
       <c r="BV8" s="12"/>
       <c r="BW8" s="22"/>
     </row>
-    <row r="9" spans="2:75" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:75" customFormat="1">
       <c r="B9" s="23">
         <v>42606</v>
       </c>
@@ -12983,7 +13061,7 @@
       <c r="BV9" s="12"/>
       <c r="BW9" s="22"/>
     </row>
-    <row r="10" spans="2:75" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:75" customFormat="1">
       <c r="B10" s="23">
         <v>42606</v>
       </c>
@@ -13218,7 +13296,7 @@
       <c r="BV10" s="12"/>
       <c r="BW10" s="22"/>
     </row>
-    <row r="11" spans="2:75" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:75" customFormat="1">
       <c r="B11" s="23">
         <v>42607</v>
       </c>
@@ -13453,7 +13531,7 @@
       <c r="BV11" s="12"/>
       <c r="BW11" s="22"/>
     </row>
-    <row r="12" spans="2:75" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:75" customFormat="1">
       <c r="B12" s="23">
         <v>42607</v>
       </c>
@@ -13680,7 +13758,7 @@
       <c r="BV12" s="12"/>
       <c r="BW12" s="22"/>
     </row>
-    <row r="13" spans="2:75" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:75" customFormat="1">
       <c r="B13" s="23">
         <v>42607</v>
       </c>
@@ -13907,7 +13985,7 @@
       <c r="BV13" s="12"/>
       <c r="BW13" s="22"/>
     </row>
-    <row r="14" spans="2:75" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:75" customFormat="1">
       <c r="B14" s="23"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -14094,7 +14172,7 @@
       <c r="BV14" s="12"/>
       <c r="BW14" s="22"/>
     </row>
-    <row r="15" spans="2:75" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:75" customFormat="1">
       <c r="B15" s="23"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -14297,7 +14375,7 @@
       <c r="BV15" s="12"/>
       <c r="BW15" s="22"/>
     </row>
-    <row r="16" spans="2:75" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:75" customFormat="1">
       <c r="B16" s="23">
         <v>42610</v>
       </c>
@@ -14517,7 +14595,7 @@
       <c r="BV16" s="12"/>
       <c r="BW16" s="22"/>
     </row>
-    <row r="17" spans="2:75" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:75" customFormat="1">
       <c r="B17" s="23">
         <v>42613</v>
       </c>
@@ -14734,7 +14812,7 @@
       </c>
       <c r="BW17" s="22"/>
     </row>
-    <row r="18" spans="2:75" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:75" customFormat="1">
       <c r="B18" s="23">
         <v>42614</v>
       </c>
@@ -14931,7 +15009,7 @@
       </c>
       <c r="BW18" s="22"/>
     </row>
-    <row r="19" spans="2:75" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:75" customFormat="1">
       <c r="B19" s="23"/>
       <c r="C19" s="7">
         <v>4</v>
@@ -15130,179 +15208,323 @@
       </c>
       <c r="BW19" s="22"/>
     </row>
-    <row r="20" spans="2:75" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="23"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="17"/>
-      <c r="U20" s="17"/>
-      <c r="V20" s="17"/>
-      <c r="W20" s="13"/>
-      <c r="X20" s="13"/>
-      <c r="Y20" s="13"/>
-      <c r="Z20" s="13"/>
-      <c r="AA20" s="13"/>
-      <c r="AB20" s="13"/>
-      <c r="AC20" s="17"/>
-      <c r="AD20" s="17"/>
-      <c r="AE20" s="17"/>
-      <c r="AF20" s="17"/>
-      <c r="AG20" s="17"/>
-      <c r="AH20" s="17"/>
-      <c r="AI20" s="13"/>
-      <c r="AJ20" s="13"/>
-      <c r="AK20" s="13"/>
-      <c r="AL20" s="13"/>
-      <c r="AM20" s="13"/>
-      <c r="AN20" s="13"/>
+    <row r="20" spans="2:75" customFormat="1">
+      <c r="B20" s="23">
+        <v>42616</v>
+      </c>
+      <c r="C20" s="7">
+        <v>18</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="8">
+        <v>42616.802083333336</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="J20" s="10">
+        <v>1.6</v>
+      </c>
+      <c r="K20" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="L20" s="10">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="M20" s="14">
+        <v>2.84</v>
+      </c>
+      <c r="N20" s="14">
+        <v>3.65</v>
+      </c>
+      <c r="O20" s="14">
+        <v>1.99</v>
+      </c>
+      <c r="P20" s="19">
+        <v>-1</v>
+      </c>
+      <c r="Q20" s="17">
+        <v>1</v>
+      </c>
+      <c r="R20" s="17">
+        <v>-1</v>
+      </c>
+      <c r="S20" s="17">
+        <v>5</v>
+      </c>
+      <c r="T20" s="17">
+        <v>-6</v>
+      </c>
+      <c r="U20" s="17">
+        <v>2</v>
+      </c>
+      <c r="V20" s="17">
+        <v>5</v>
+      </c>
+      <c r="W20" s="13">
+        <v>4.6216216216216255</v>
+      </c>
+      <c r="X20" s="13">
+        <v>-3.8000000000000034</v>
+      </c>
+      <c r="Y20" s="13">
+        <v>24.573033707865171</v>
+      </c>
+      <c r="Z20" s="13">
+        <v>-18.645161290322584</v>
+      </c>
+      <c r="AA20" s="13">
+        <v>5.9024390243902491</v>
+      </c>
+      <c r="AB20" s="13">
+        <v>18.531249999999975</v>
+      </c>
+      <c r="AC20" s="17">
+        <v>2</v>
+      </c>
+      <c r="AD20" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="17">
+        <v>-3</v>
+      </c>
+      <c r="AG20" s="17">
+        <v>-1</v>
+      </c>
+      <c r="AH20" s="17">
+        <v>-3</v>
+      </c>
+      <c r="AI20" s="13">
+        <v>13.10362694300515</v>
+      </c>
+      <c r="AJ20" s="13">
+        <v>-3.737373737373733</v>
+      </c>
+      <c r="AK20" s="13">
+        <v>-5.2500000000000009</v>
+      </c>
+      <c r="AL20" s="13">
+        <v>-47.250000000000028</v>
+      </c>
+      <c r="AM20" s="13">
+        <v>-9.6975609756097274</v>
+      </c>
+      <c r="AN20" s="13">
+        <v>-25.316455696202524</v>
+      </c>
       <c r="AO20" s="20">
         <f>Q20*参数!$D$3+W20</f>
-        <v>0</v>
+        <v>6.6216216216216255</v>
       </c>
       <c r="AP20" s="20">
         <f>R20*参数!$D$3+X20</f>
-        <v>0</v>
+        <v>-5.8000000000000034</v>
       </c>
       <c r="AQ20" s="20">
         <f>S20*参数!$D$3+Y20</f>
-        <v>0</v>
+        <v>34.573033707865171</v>
       </c>
       <c r="AR20" s="20">
         <f>T20*参数!$D$3+Z20</f>
-        <v>0</v>
+        <v>-30.645161290322584</v>
       </c>
       <c r="AS20" s="20">
         <f>U20*参数!$D$3+AA20</f>
-        <v>0</v>
+        <v>9.9024390243902491</v>
       </c>
       <c r="AT20" s="20">
         <f>V20*参数!$D$3+AB20</f>
-        <v>0</v>
+        <v>28.531249999999975</v>
       </c>
       <c r="AU20" s="20">
         <f>AC20*参数!$D$3+AI20</f>
-        <v>0</v>
+        <v>17.10362694300515</v>
       </c>
       <c r="AV20" s="20">
         <f>AD20*参数!$D$3+AJ20</f>
-        <v>0</v>
+        <v>-3.737373737373733</v>
       </c>
       <c r="AW20" s="20">
         <f>AE20*参数!$D$3+AK20</f>
-        <v>0</v>
+        <v>-5.2500000000000009</v>
       </c>
       <c r="AX20" s="20">
         <f>AF20*参数!$D$3+AL20</f>
-        <v>0</v>
+        <v>-53.250000000000028</v>
       </c>
       <c r="AY20" s="20">
         <f>AG20*参数!$D$3+AM20</f>
-        <v>0</v>
+        <v>-11.697560975609727</v>
       </c>
       <c r="AZ20" s="20">
         <f>AH20*参数!$D$3+AN20</f>
-        <v>0</v>
-      </c>
-      <c r="BA20" s="12"/>
+        <v>-31.316455696202524</v>
+      </c>
+      <c r="BA20" s="12">
+        <v>0</v>
+      </c>
       <c r="BB20" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="BC20" s="12"/>
+        <v>0</v>
+      </c>
+      <c r="BC20" s="12">
+        <v>40</v>
+      </c>
       <c r="BD20" s="12">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="BE20" s="12"/>
+        <v>0</v>
+      </c>
+      <c r="BE20" s="12">
+        <v>0</v>
+      </c>
       <c r="BF20" s="12">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG20" s="12"/>
       <c r="BH20" s="12">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="BI20" s="12"/>
+        <v>0</v>
+      </c>
+      <c r="BI20" s="12">
+        <v>0</v>
+      </c>
       <c r="BJ20" s="12">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="BK20" s="12"/>
+        <v>0</v>
+      </c>
+      <c r="BK20" s="12">
+        <v>0</v>
+      </c>
       <c r="BL20" s="12">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM20" s="12"/>
       <c r="BN20" s="12">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO20" s="12"/>
       <c r="BP20" s="12">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ20" s="12"/>
       <c r="BR20" s="12">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="12"/>
       <c r="BT20" s="12">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="BU20" s="12"/>
+        <v>0</v>
+      </c>
+      <c r="BU20" s="12">
+        <v>40</v>
+      </c>
       <c r="BV20" s="12">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW20" s="22"/>
     </row>
-    <row r="21" spans="2:75" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="23"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="17"/>
-      <c r="S21" s="17"/>
-      <c r="T21" s="17"/>
-      <c r="U21" s="17"/>
-      <c r="V21" s="17"/>
-      <c r="W21" s="13"/>
-      <c r="X21" s="13"/>
-      <c r="Y21" s="13"/>
-      <c r="Z21" s="13"/>
-      <c r="AA21" s="13"/>
-      <c r="AB21" s="13"/>
+    <row r="21" spans="2:75" customFormat="1">
+      <c r="B21" s="23">
+        <v>42616</v>
+      </c>
+      <c r="C21" s="7">
+        <v>17</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="E21" s="8">
+        <v>42616.75</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="J21" s="10">
+        <v>1.58</v>
+      </c>
+      <c r="K21" s="10">
+        <v>3.55</v>
+      </c>
+      <c r="L21" s="10">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="M21" s="14">
+        <v>2.85</v>
+      </c>
+      <c r="N21" s="14">
+        <v>3.5</v>
+      </c>
+      <c r="O21" s="14">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="P21" s="19">
+        <v>-1</v>
+      </c>
+      <c r="Q21" s="17">
+        <v>-2</v>
+      </c>
+      <c r="R21" s="17">
+        <v>-5</v>
+      </c>
+      <c r="S21" s="17">
+        <v>5</v>
+      </c>
+      <c r="T21" s="17">
+        <v>-4</v>
+      </c>
+      <c r="U21" s="17">
+        <v>3</v>
+      </c>
+      <c r="V21" s="17">
+        <v>5</v>
+      </c>
+      <c r="W21" s="13">
+        <v>-5.8051948051948177</v>
+      </c>
+      <c r="X21" s="13">
+        <v>-18.319999999999993</v>
+      </c>
+      <c r="Y21" s="13">
+        <v>15.999999999999998</v>
+      </c>
+      <c r="Z21" s="13">
+        <v>-18.176470588235283</v>
+      </c>
+      <c r="AA21" s="13">
+        <v>12.978142076502726</v>
+      </c>
+      <c r="AB21" s="13">
+        <v>14.863013698630125</v>
+      </c>
       <c r="AC21" s="17"/>
       <c r="AD21" s="17"/>
       <c r="AE21" s="17"/>
@@ -15317,27 +15539,27 @@
       <c r="AN21" s="13"/>
       <c r="AO21" s="20">
         <f>Q21*参数!$D$3+W21</f>
-        <v>0</v>
+        <v>-9.8051948051948177</v>
       </c>
       <c r="AP21" s="20">
         <f>R21*参数!$D$3+X21</f>
-        <v>0</v>
+        <v>-28.319999999999993</v>
       </c>
       <c r="AQ21" s="20">
         <f>S21*参数!$D$3+Y21</f>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AR21" s="20">
         <f>T21*参数!$D$3+Z21</f>
-        <v>0</v>
+        <v>-26.176470588235283</v>
       </c>
       <c r="AS21" s="20">
         <f>U21*参数!$D$3+AA21</f>
-        <v>0</v>
+        <v>18.978142076502728</v>
       </c>
       <c r="AT21" s="20">
         <f>V21*参数!$D$3+AB21</f>
-        <v>0</v>
+        <v>24.863013698630127</v>
       </c>
       <c r="AU21" s="20">
         <f>AC21*参数!$D$3+AI21</f>
@@ -15363,91 +15585,157 @@
         <f>AH21*参数!$D$3+AN21</f>
         <v>0</v>
       </c>
-      <c r="BA21" s="12"/>
+      <c r="BA21" s="12">
+        <v>0</v>
+      </c>
       <c r="BB21" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="BC21" s="12"/>
+        <v>0</v>
+      </c>
+      <c r="BC21" s="12">
+        <v>40</v>
+      </c>
       <c r="BD21" s="12">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="BE21" s="12"/>
+        <v>0</v>
+      </c>
+      <c r="BE21" s="12">
+        <v>0</v>
+      </c>
       <c r="BF21" s="12">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG21" s="12"/>
       <c r="BH21" s="12">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="BI21" s="12"/>
+        <v>0</v>
+      </c>
+      <c r="BI21" s="12">
+        <v>0</v>
+      </c>
       <c r="BJ21" s="12">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="BK21" s="12"/>
+        <v>0</v>
+      </c>
+      <c r="BK21" s="12">
+        <v>0</v>
+      </c>
       <c r="BL21" s="12">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM21" s="12"/>
       <c r="BN21" s="12">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO21" s="12"/>
       <c r="BP21" s="12">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ21" s="12"/>
       <c r="BR21" s="12">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="12"/>
       <c r="BT21" s="12">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="BU21" s="12"/>
+        <v>0</v>
+      </c>
+      <c r="BU21" s="12">
+        <v>3</v>
+      </c>
       <c r="BV21" s="12">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW21" s="22"/>
     </row>
-    <row r="22" spans="2:75" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="23"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="17"/>
-      <c r="S22" s="17"/>
-      <c r="T22" s="17"/>
-      <c r="U22" s="17"/>
-      <c r="V22" s="17"/>
-      <c r="W22" s="13"/>
-      <c r="X22" s="13"/>
-      <c r="Y22" s="13"/>
-      <c r="Z22" s="13"/>
-      <c r="AA22" s="13"/>
-      <c r="AB22" s="13"/>
+    <row r="22" spans="2:75" customFormat="1">
+      <c r="B22" s="23">
+        <v>42616</v>
+      </c>
+      <c r="C22" s="7">
+        <v>16</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E22" s="8">
+        <v>42616.75</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="J22" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K22" s="10">
+        <v>6.7</v>
+      </c>
+      <c r="L22" s="10">
+        <v>14</v>
+      </c>
+      <c r="M22" s="14">
+        <v>1.47</v>
+      </c>
+      <c r="N22" s="14">
+        <v>4.32</v>
+      </c>
+      <c r="O22" s="14">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="P22" s="19">
+        <v>-1</v>
+      </c>
+      <c r="Q22" s="17">
+        <v>0</v>
+      </c>
+      <c r="R22" s="17">
+        <v>0</v>
+      </c>
+      <c r="S22" s="17">
+        <v>-1</v>
+      </c>
+      <c r="T22" s="17">
+        <v>7</v>
+      </c>
+      <c r="U22" s="17">
+        <v>2</v>
+      </c>
+      <c r="V22" s="17">
+        <v>0</v>
+      </c>
+      <c r="W22" s="13">
+        <v>0.213270142180086</v>
+      </c>
+      <c r="X22" s="13">
+        <v>-1.346153846153842</v>
+      </c>
+      <c r="Y22" s="13">
+        <v>-2.3932038834951448</v>
+      </c>
+      <c r="Z22" s="13">
+        <v>25.140186915887845</v>
+      </c>
+      <c r="AA22" s="13">
+        <v>5.9734513274336338</v>
+      </c>
+      <c r="AB22" s="13">
+        <v>0.746835443037976</v>
+      </c>
       <c r="AC22" s="17"/>
       <c r="AD22" s="17"/>
       <c r="AE22" s="17"/>
@@ -15462,27 +15750,27 @@
       <c r="AN22" s="13"/>
       <c r="AO22" s="20">
         <f>Q22*参数!$D$3+W22</f>
-        <v>0</v>
+        <v>0.213270142180086</v>
       </c>
       <c r="AP22" s="20">
         <f>R22*参数!$D$3+X22</f>
-        <v>0</v>
+        <v>-1.346153846153842</v>
       </c>
       <c r="AQ22" s="20">
         <f>S22*参数!$D$3+Y22</f>
-        <v>0</v>
+        <v>-4.3932038834951452</v>
       </c>
       <c r="AR22" s="20">
         <f>T22*参数!$D$3+Z22</f>
-        <v>0</v>
+        <v>39.140186915887845</v>
       </c>
       <c r="AS22" s="20">
         <f>U22*参数!$D$3+AA22</f>
-        <v>0</v>
+        <v>9.9734513274336329</v>
       </c>
       <c r="AT22" s="20">
         <f>V22*参数!$D$3+AB22</f>
-        <v>0</v>
+        <v>0.746835443037976</v>
       </c>
       <c r="AU22" s="20">
         <f>AC22*参数!$D$3+AI22</f>
@@ -15508,91 +15796,157 @@
         <f>AH22*参数!$D$3+AN22</f>
         <v>0</v>
       </c>
-      <c r="BA22" s="12"/>
+      <c r="BA22" s="12">
+        <v>43</v>
+      </c>
       <c r="BB22" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="BC22" s="12"/>
+        <v>0</v>
+      </c>
+      <c r="BC22" s="12">
+        <v>43</v>
+      </c>
       <c r="BD22" s="12">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="BE22" s="12"/>
+        <v>0</v>
+      </c>
+      <c r="BE22" s="12">
+        <v>43</v>
+      </c>
       <c r="BF22" s="12">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG22" s="12"/>
       <c r="BH22" s="12">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="BI22" s="12"/>
+        <v>0</v>
+      </c>
+      <c r="BI22" s="12">
+        <v>43</v>
+      </c>
       <c r="BJ22" s="12">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="BK22" s="12"/>
+        <v>0</v>
+      </c>
+      <c r="BK22" s="12">
+        <v>43</v>
+      </c>
       <c r="BL22" s="12">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM22" s="12"/>
       <c r="BN22" s="12">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO22" s="12"/>
       <c r="BP22" s="12">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ22" s="12"/>
       <c r="BR22" s="12">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="12"/>
       <c r="BT22" s="12">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="BU22" s="12"/>
+        <v>0</v>
+      </c>
+      <c r="BU22" s="12">
+        <v>3</v>
+      </c>
       <c r="BV22" s="12">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW22" s="22"/>
     </row>
-    <row r="23" spans="2:75" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="23"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="17"/>
-      <c r="S23" s="17"/>
-      <c r="T23" s="17"/>
-      <c r="U23" s="17"/>
-      <c r="V23" s="17"/>
-      <c r="W23" s="13"/>
-      <c r="X23" s="13"/>
-      <c r="Y23" s="13"/>
-      <c r="Z23" s="13"/>
-      <c r="AA23" s="13"/>
-      <c r="AB23" s="13"/>
+    <row r="23" spans="2:75" customFormat="1">
+      <c r="B23" s="23">
+        <v>42616</v>
+      </c>
+      <c r="C23" s="7">
+        <v>15</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E23" s="8">
+        <v>42616.75</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="J23" s="10">
+        <v>1.48</v>
+      </c>
+      <c r="K23" s="10">
+        <v>3.75</v>
+      </c>
+      <c r="L23" s="10">
+        <v>5.35</v>
+      </c>
+      <c r="M23" s="14">
+        <v>2.67</v>
+      </c>
+      <c r="N23" s="14">
+        <v>3.3</v>
+      </c>
+      <c r="O23" s="14">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="P23" s="19">
+        <v>-1</v>
+      </c>
+      <c r="Q23" s="17">
+        <v>-3</v>
+      </c>
+      <c r="R23" s="17">
+        <v>5</v>
+      </c>
+      <c r="S23" s="17">
+        <v>2</v>
+      </c>
+      <c r="T23" s="17">
+        <v>1</v>
+      </c>
+      <c r="U23" s="17">
+        <v>0</v>
+      </c>
+      <c r="V23" s="17">
+        <v>4</v>
+      </c>
+      <c r="W23" s="13">
+        <v>-9.5824175824175839</v>
+      </c>
+      <c r="X23" s="13">
+        <v>13.800000000000006</v>
+      </c>
+      <c r="Y23" s="13">
+        <v>6.9052631578947326</v>
+      </c>
+      <c r="Z23" s="13">
+        <v>1.9740259740259667</v>
+      </c>
+      <c r="AA23" s="13">
+        <v>-1.1200000000000012</v>
+      </c>
+      <c r="AB23" s="13">
+        <v>12.96052631578948</v>
+      </c>
       <c r="AC23" s="17"/>
       <c r="AD23" s="17"/>
       <c r="AE23" s="17"/>
@@ -15607,27 +15961,27 @@
       <c r="AN23" s="13"/>
       <c r="AO23" s="20">
         <f>Q23*参数!$D$3+W23</f>
-        <v>0</v>
+        <v>-15.582417582417584</v>
       </c>
       <c r="AP23" s="20">
         <f>R23*参数!$D$3+X23</f>
-        <v>0</v>
+        <v>23.800000000000004</v>
       </c>
       <c r="AQ23" s="20">
         <f>S23*参数!$D$3+Y23</f>
-        <v>0</v>
+        <v>10.905263157894733</v>
       </c>
       <c r="AR23" s="20">
         <f>T23*参数!$D$3+Z23</f>
-        <v>0</v>
+        <v>3.9740259740259667</v>
       </c>
       <c r="AS23" s="20">
         <f>U23*参数!$D$3+AA23</f>
-        <v>0</v>
+        <v>-1.1200000000000012</v>
       </c>
       <c r="AT23" s="20">
         <f>V23*参数!$D$3+AB23</f>
-        <v>0</v>
+        <v>20.96052631578948</v>
       </c>
       <c r="AU23" s="20">
         <f>AC23*参数!$D$3+AI23</f>
@@ -15653,32 +16007,42 @@
         <f>AH23*参数!$D$3+AN23</f>
         <v>0</v>
       </c>
-      <c r="BA23" s="12"/>
+      <c r="BA23" s="12">
+        <v>40</v>
+      </c>
       <c r="BB23" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="BC23" s="12"/>
+      <c r="BC23" s="12">
+        <v>40</v>
+      </c>
       <c r="BD23" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="BE23" s="12"/>
+      <c r="BE23" s="12">
+        <v>0</v>
+      </c>
       <c r="BF23" s="12">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG23" s="12"/>
       <c r="BH23" s="12">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="BI23" s="12"/>
+        <v>0</v>
+      </c>
+      <c r="BI23" s="12">
+        <v>1</v>
+      </c>
       <c r="BJ23" s="12">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="BK23" s="12"/>
+      <c r="BK23" s="12">
+        <v>40</v>
+      </c>
       <c r="BL23" s="12">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -15686,58 +16050,112 @@
       <c r="BM23" s="12"/>
       <c r="BN23" s="12">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO23" s="12"/>
       <c r="BP23" s="12">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ23" s="12"/>
       <c r="BR23" s="12">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="12"/>
       <c r="BT23" s="12">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU23" s="12"/>
       <c r="BV23" s="12">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW23" s="22"/>
     </row>
-    <row r="24" spans="2:75" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="23"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
-      <c r="S24" s="17"/>
-      <c r="T24" s="17"/>
-      <c r="U24" s="17"/>
-      <c r="V24" s="17"/>
-      <c r="W24" s="13"/>
-      <c r="X24" s="13"/>
-      <c r="Y24" s="13"/>
-      <c r="Z24" s="13"/>
-      <c r="AA24" s="13"/>
-      <c r="AB24" s="13"/>
+    <row r="24" spans="2:75" customFormat="1">
+      <c r="B24" s="23">
+        <v>42616</v>
+      </c>
+      <c r="C24" s="7">
+        <v>14</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E24" s="8">
+        <v>42616.75</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="J24" s="10">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="K24" s="10">
+        <v>6.5</v>
+      </c>
+      <c r="L24" s="10">
+        <v>13.5</v>
+      </c>
+      <c r="M24" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="N24" s="14">
+        <v>4.25</v>
+      </c>
+      <c r="O24" s="14">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="P24" s="19">
+        <v>-1</v>
+      </c>
+      <c r="Q24" s="17">
+        <v>0</v>
+      </c>
+      <c r="R24" s="17">
+        <v>0</v>
+      </c>
+      <c r="S24" s="17">
+        <v>-1</v>
+      </c>
+      <c r="T24" s="17">
+        <v>5</v>
+      </c>
+      <c r="U24" s="17">
+        <v>2</v>
+      </c>
+      <c r="V24" s="17">
+        <v>-1</v>
+      </c>
+      <c r="W24" s="13">
+        <v>0.213270142180086</v>
+      </c>
+      <c r="X24" s="13">
+        <v>0.67346938775510246</v>
+      </c>
+      <c r="Y24" s="13">
+        <v>-2.3432835820895539</v>
+      </c>
+      <c r="Z24" s="13">
+        <v>17.951456310679628</v>
+      </c>
+      <c r="AA24" s="13">
+        <v>8.1879194630872441</v>
+      </c>
+      <c r="AB24" s="13">
+        <v>-3.8888888888888906</v>
+      </c>
       <c r="AC24" s="17"/>
       <c r="AD24" s="17"/>
       <c r="AE24" s="17"/>
@@ -15752,27 +16170,27 @@
       <c r="AN24" s="13"/>
       <c r="AO24" s="20">
         <f>Q24*参数!$D$3+W24</f>
-        <v>0</v>
+        <v>0.213270142180086</v>
       </c>
       <c r="AP24" s="20">
         <f>R24*参数!$D$3+X24</f>
-        <v>0</v>
+        <v>0.67346938775510246</v>
       </c>
       <c r="AQ24" s="20">
         <f>S24*参数!$D$3+Y24</f>
-        <v>0</v>
+        <v>-4.3432835820895539</v>
       </c>
       <c r="AR24" s="20">
         <f>T24*参数!$D$3+Z24</f>
-        <v>0</v>
+        <v>27.951456310679628</v>
       </c>
       <c r="AS24" s="20">
         <f>U24*参数!$D$3+AA24</f>
-        <v>0</v>
+        <v>12.187919463087244</v>
       </c>
       <c r="AT24" s="20">
         <f>V24*参数!$D$3+AB24</f>
-        <v>0</v>
+        <v>-5.8888888888888911</v>
       </c>
       <c r="AU24" s="20">
         <f>AC24*参数!$D$3+AI24</f>
@@ -15798,91 +16216,157 @@
         <f>AH24*参数!$D$3+AN24</f>
         <v>0</v>
       </c>
-      <c r="BA24" s="12"/>
+      <c r="BA24" s="12">
+        <v>43</v>
+      </c>
       <c r="BB24" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="BC24" s="12"/>
+        <v>0</v>
+      </c>
+      <c r="BC24" s="12">
+        <v>43</v>
+      </c>
       <c r="BD24" s="12">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="BE24" s="12"/>
+        <v>0</v>
+      </c>
+      <c r="BE24" s="12">
+        <v>43</v>
+      </c>
       <c r="BF24" s="12">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG24" s="12"/>
       <c r="BH24" s="12">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="BI24" s="12"/>
+        <v>0</v>
+      </c>
+      <c r="BI24" s="12">
+        <v>43</v>
+      </c>
       <c r="BJ24" s="12">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="BK24" s="12"/>
+        <v>0</v>
+      </c>
+      <c r="BK24" s="12">
+        <v>43</v>
+      </c>
       <c r="BL24" s="12">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM24" s="12"/>
       <c r="BN24" s="12">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO24" s="12"/>
       <c r="BP24" s="12">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ24" s="12"/>
       <c r="BR24" s="12">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="12"/>
       <c r="BT24" s="12">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="BU24" s="12"/>
+        <v>0</v>
+      </c>
+      <c r="BU24" s="12">
+        <v>3</v>
+      </c>
       <c r="BV24" s="12">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW24" s="22"/>
     </row>
-    <row r="25" spans="2:75" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="23"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="17"/>
-      <c r="R25" s="17"/>
-      <c r="S25" s="17"/>
-      <c r="T25" s="17"/>
-      <c r="U25" s="17"/>
-      <c r="V25" s="17"/>
-      <c r="W25" s="13"/>
-      <c r="X25" s="13"/>
-      <c r="Y25" s="13"/>
-      <c r="Z25" s="13"/>
-      <c r="AA25" s="13"/>
-      <c r="AB25" s="13"/>
+    <row r="25" spans="2:75" customFormat="1">
+      <c r="B25" s="23">
+        <v>42616</v>
+      </c>
+      <c r="C25" s="7">
+        <v>13</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E25" s="8">
+        <v>42616.75</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>641</v>
+      </c>
+      <c r="J25" s="10">
+        <v>2.92</v>
+      </c>
+      <c r="K25" s="10">
+        <v>3.05</v>
+      </c>
+      <c r="L25" s="10">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="M25" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="N25" s="14">
+        <v>3.8</v>
+      </c>
+      <c r="O25" s="14">
+        <v>5</v>
+      </c>
+      <c r="P25" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="17">
+        <v>1</v>
+      </c>
+      <c r="R25" s="17">
+        <v>0</v>
+      </c>
+      <c r="S25" s="17">
+        <v>-6</v>
+      </c>
+      <c r="T25" s="17">
+        <v>5</v>
+      </c>
+      <c r="U25" s="17">
+        <v>-2</v>
+      </c>
+      <c r="V25" s="17">
+        <v>-3</v>
+      </c>
+      <c r="W25" s="13">
+        <v>2.9999999999999893</v>
+      </c>
+      <c r="X25" s="13">
+        <v>-0.67847411444144212</v>
+      </c>
+      <c r="Y25" s="13">
+        <v>-25.307692307692292</v>
+      </c>
+      <c r="Z25" s="13">
+        <v>17.951456310679628</v>
+      </c>
+      <c r="AA25" s="13">
+        <v>-6.5096774193548343</v>
+      </c>
+      <c r="AB25" s="13">
+        <v>-10.164383561643842</v>
+      </c>
       <c r="AC25" s="17"/>
       <c r="AD25" s="17"/>
       <c r="AE25" s="17"/>
@@ -15897,27 +16381,27 @@
       <c r="AN25" s="13"/>
       <c r="AO25" s="20">
         <f>Q25*参数!$D$3+W25</f>
-        <v>0</v>
+        <v>4.9999999999999893</v>
       </c>
       <c r="AP25" s="20">
         <f>R25*参数!$D$3+X25</f>
-        <v>0</v>
+        <v>-0.67847411444144212</v>
       </c>
       <c r="AQ25" s="20">
         <f>S25*参数!$D$3+Y25</f>
-        <v>0</v>
+        <v>-37.307692307692292</v>
       </c>
       <c r="AR25" s="20">
         <f>T25*参数!$D$3+Z25</f>
-        <v>0</v>
+        <v>27.951456310679628</v>
       </c>
       <c r="AS25" s="20">
         <f>U25*参数!$D$3+AA25</f>
-        <v>0</v>
+        <v>-10.509677419354833</v>
       </c>
       <c r="AT25" s="20">
         <f>V25*参数!$D$3+AB25</f>
-        <v>0</v>
+        <v>-16.164383561643842</v>
       </c>
       <c r="AU25" s="20">
         <f>AC25*参数!$D$3+AI25</f>
@@ -15943,64 +16427,76 @@
         <f>AH25*参数!$D$3+AN25</f>
         <v>0</v>
       </c>
-      <c r="BA25" s="12"/>
+      <c r="BA25" s="12">
+        <v>43</v>
+      </c>
       <c r="BB25" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="BC25" s="12"/>
+        <v>0</v>
+      </c>
+      <c r="BC25" s="12">
+        <v>43</v>
+      </c>
       <c r="BD25" s="12">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="BE25" s="12"/>
+        <v>0</v>
+      </c>
+      <c r="BE25" s="12">
+        <v>3</v>
+      </c>
       <c r="BF25" s="12">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="BG25" s="12"/>
+        <v>0</v>
+      </c>
+      <c r="BG25" s="12">
+        <v>43</v>
+      </c>
       <c r="BH25" s="12">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="BI25" s="12"/>
+        <v>0</v>
+      </c>
+      <c r="BI25" s="12">
+        <v>43</v>
+      </c>
       <c r="BJ25" s="12">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="BK25" s="12"/>
+        <v>0</v>
+      </c>
+      <c r="BK25" s="12">
+        <v>43</v>
+      </c>
       <c r="BL25" s="12">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM25" s="12"/>
       <c r="BN25" s="12">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO25" s="12"/>
       <c r="BP25" s="12">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ25" s="12"/>
       <c r="BR25" s="12">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="12"/>
       <c r="BT25" s="12">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU25" s="12"/>
       <c r="BV25" s="12">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW25" s="22"/>
     </row>
-    <row r="26" spans="2:75" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:75" customFormat="1">
       <c r="B26" s="23"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -16145,7 +16641,7 @@
       </c>
       <c r="BW26" s="22"/>
     </row>
-    <row r="27" spans="2:75" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:75" customFormat="1">
       <c r="B27" s="23"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -16290,7 +16786,7 @@
       </c>
       <c r="BW27" s="22"/>
     </row>
-    <row r="28" spans="2:75" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:75" customFormat="1">
       <c r="B28" s="23"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -16435,7 +16931,7 @@
       </c>
       <c r="BW28" s="22"/>
     </row>
-    <row r="29" spans="2:75" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:75" customFormat="1">
       <c r="B29" s="23"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -16580,7 +17076,7 @@
       </c>
       <c r="BW29" s="22"/>
     </row>
-    <row r="30" spans="2:75" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:75" customFormat="1">
       <c r="B30" s="23"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -16725,7 +17221,7 @@
       </c>
       <c r="BW30" s="22"/>
     </row>
-    <row r="31" spans="2:75" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:75" customFormat="1">
       <c r="B31" s="23"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -16870,7 +17366,7 @@
       </c>
       <c r="BW31" s="22"/>
     </row>
-    <row r="32" spans="2:75" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:75" customFormat="1">
       <c r="B32" s="23"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -17015,7 +17511,7 @@
       </c>
       <c r="BW32" s="22"/>
     </row>
-    <row r="33" spans="2:75" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:75" customFormat="1">
       <c r="B33" s="23"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -17160,7 +17656,7 @@
       </c>
       <c r="BW33" s="22"/>
     </row>
-    <row r="34" spans="2:75" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:75" customFormat="1">
       <c r="B34" s="23"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -17305,7 +17801,7 @@
       </c>
       <c r="BW34" s="22"/>
     </row>
-    <row r="35" spans="2:75" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:75" customFormat="1">
       <c r="B35" s="23"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -17450,7 +17946,7 @@
       </c>
       <c r="BW35" s="22"/>
     </row>
-    <row r="36" spans="2:75" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:75" customFormat="1">
       <c r="B36" s="23"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -17595,7 +18091,7 @@
       </c>
       <c r="BW36" s="22"/>
     </row>
-    <row r="37" spans="2:75" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:75" customFormat="1">
       <c r="B37" s="23"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -17740,7 +18236,7 @@
       </c>
       <c r="BW37" s="22"/>
     </row>
-    <row r="38" spans="2:75" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:75" customFormat="1">
       <c r="B38" s="23"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -17885,7 +18381,7 @@
       </c>
       <c r="BW38" s="22"/>
     </row>
-    <row r="39" spans="2:75" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:75" customFormat="1">
       <c r="B39" s="23"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -18030,7 +18526,7 @@
       </c>
       <c r="BW39" s="22"/>
     </row>
-    <row r="40" spans="2:75" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:75" customFormat="1">
       <c r="B40" s="23"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -18175,7 +18671,7 @@
       </c>
       <c r="BW40" s="22"/>
     </row>
-    <row r="41" spans="2:75" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:75" customFormat="1">
       <c r="B41" s="23"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -18320,7 +18816,7 @@
       </c>
       <c r="BW41" s="22"/>
     </row>
-    <row r="42" spans="2:75" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:75" customFormat="1">
       <c r="B42" s="23"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -18465,7 +18961,7 @@
       </c>
       <c r="BW42" s="22"/>
     </row>
-    <row r="43" spans="2:75" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:75" customFormat="1">
       <c r="B43" s="23"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -18610,7 +19106,7 @@
       </c>
       <c r="BW43" s="22"/>
     </row>
-    <row r="44" spans="2:75" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:75" customFormat="1">
       <c r="B44" s="23"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -18755,7 +19251,7 @@
       </c>
       <c r="BW44" s="22"/>
     </row>
-    <row r="45" spans="2:75" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:75" customFormat="1">
       <c r="B45" s="23"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -18900,7 +19396,7 @@
       </c>
       <c r="BW45" s="22"/>
     </row>
-    <row r="46" spans="2:75" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:75" customFormat="1">
       <c r="B46" s="23"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -18976,7 +19472,7 @@
       <c r="BV46" s="12"/>
       <c r="BW46" s="22"/>
     </row>
-    <row r="47" spans="2:75" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:75" customFormat="1" ht="14.25" thickBot="1">
       <c r="B47" s="38"/>
       <c r="C47" s="24"/>
       <c r="D47" s="24"/>
@@ -19438,7 +19934,7 @@
       <selection activeCell="CA33" sqref="CA33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
     <col min="2" max="2" width="11.375" style="37" customWidth="1"/>
@@ -19472,37 +19968,37 @@
     <col min="76" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:75" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:75" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="54" t="s">
+    <row r="1" spans="2:75" ht="14.25" thickBot="1"/>
+    <row r="2" spans="2:75" customFormat="1">
+      <c r="B2" s="55" t="s">
         <v>138</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="55"/>
-      <c r="W2" s="55"/>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="55"/>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="55"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="56"/>
       <c r="AC2" s="39"/>
       <c r="AD2" s="39"/>
       <c r="AE2" s="39"/>
@@ -19515,141 +20011,141 @@
       <c r="AL2" s="39"/>
       <c r="AM2" s="39"/>
       <c r="AN2" s="39"/>
-      <c r="AO2" s="56" t="s">
+      <c r="AO2" s="57" t="s">
         <v>137</v>
       </c>
-      <c r="AP2" s="56"/>
-      <c r="AQ2" s="56"/>
-      <c r="AR2" s="56"/>
-      <c r="AS2" s="56"/>
-      <c r="AT2" s="56"/>
-      <c r="AU2" s="56" t="s">
+      <c r="AP2" s="57"/>
+      <c r="AQ2" s="57"/>
+      <c r="AR2" s="57"/>
+      <c r="AS2" s="57"/>
+      <c r="AT2" s="57"/>
+      <c r="AU2" s="57" t="s">
         <v>137</v>
       </c>
-      <c r="AV2" s="56"/>
-      <c r="AW2" s="56"/>
-      <c r="AX2" s="56"/>
-      <c r="AY2" s="56"/>
-      <c r="AZ2" s="56"/>
-      <c r="BA2" s="57" t="s">
+      <c r="AV2" s="57"/>
+      <c r="AW2" s="57"/>
+      <c r="AX2" s="57"/>
+      <c r="AY2" s="57"/>
+      <c r="AZ2" s="57"/>
+      <c r="BA2" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="BB2" s="58"/>
-      <c r="BC2" s="58"/>
-      <c r="BD2" s="58"/>
-      <c r="BE2" s="58"/>
-      <c r="BF2" s="58"/>
-      <c r="BG2" s="58"/>
-      <c r="BH2" s="58"/>
-      <c r="BI2" s="58"/>
-      <c r="BJ2" s="58"/>
-      <c r="BK2" s="58"/>
-      <c r="BL2" s="58"/>
-      <c r="BM2" s="58"/>
-      <c r="BN2" s="58"/>
-      <c r="BO2" s="58"/>
-      <c r="BP2" s="58"/>
-      <c r="BQ2" s="58"/>
-      <c r="BR2" s="58"/>
-      <c r="BS2" s="58"/>
-      <c r="BT2" s="59"/>
-      <c r="BU2" s="59"/>
-      <c r="BV2" s="59"/>
-      <c r="BW2" s="60"/>
-    </row>
-    <row r="3" spans="2:75" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="73" t="s">
+      <c r="BB2" s="59"/>
+      <c r="BC2" s="59"/>
+      <c r="BD2" s="59"/>
+      <c r="BE2" s="59"/>
+      <c r="BF2" s="59"/>
+      <c r="BG2" s="59"/>
+      <c r="BH2" s="59"/>
+      <c r="BI2" s="59"/>
+      <c r="BJ2" s="59"/>
+      <c r="BK2" s="59"/>
+      <c r="BL2" s="59"/>
+      <c r="BM2" s="59"/>
+      <c r="BN2" s="59"/>
+      <c r="BO2" s="59"/>
+      <c r="BP2" s="59"/>
+      <c r="BQ2" s="59"/>
+      <c r="BR2" s="59"/>
+      <c r="BS2" s="59"/>
+      <c r="BT2" s="60"/>
+      <c r="BU2" s="60"/>
+      <c r="BV2" s="60"/>
+      <c r="BW2" s="61"/>
+    </row>
+    <row r="3" spans="2:75" customFormat="1">
+      <c r="B3" s="74" t="s">
         <v>139</v>
       </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="61" t="s">
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="75"/>
+      <c r="O3" s="75"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="62" t="s">
         <v>120</v>
       </c>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="64" t="s">
+      <c r="R3" s="63"/>
+      <c r="S3" s="63"/>
+      <c r="T3" s="63"/>
+      <c r="U3" s="63"/>
+      <c r="V3" s="64"/>
+      <c r="W3" s="65" t="s">
         <v>127</v>
       </c>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="66"/>
-      <c r="AC3" s="61" t="s">
+      <c r="X3" s="66"/>
+      <c r="Y3" s="66"/>
+      <c r="Z3" s="66"/>
+      <c r="AA3" s="66"/>
+      <c r="AB3" s="67"/>
+      <c r="AC3" s="62" t="s">
         <v>173</v>
       </c>
-      <c r="AD3" s="62"/>
-      <c r="AE3" s="62"/>
-      <c r="AF3" s="62"/>
-      <c r="AG3" s="62"/>
-      <c r="AH3" s="63"/>
-      <c r="AI3" s="64" t="s">
+      <c r="AD3" s="63"/>
+      <c r="AE3" s="63"/>
+      <c r="AF3" s="63"/>
+      <c r="AG3" s="63"/>
+      <c r="AH3" s="64"/>
+      <c r="AI3" s="65" t="s">
         <v>174</v>
       </c>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="66"/>
-      <c r="AO3" s="67" t="s">
+      <c r="AJ3" s="66"/>
+      <c r="AK3" s="66"/>
+      <c r="AL3" s="66"/>
+      <c r="AM3" s="66"/>
+      <c r="AN3" s="67"/>
+      <c r="AO3" s="68" t="s">
         <v>126</v>
       </c>
-      <c r="AP3" s="68"/>
-      <c r="AQ3" s="68"/>
-      <c r="AR3" s="68"/>
-      <c r="AS3" s="68"/>
-      <c r="AT3" s="69"/>
-      <c r="AU3" s="67" t="s">
+      <c r="AP3" s="69"/>
+      <c r="AQ3" s="69"/>
+      <c r="AR3" s="69"/>
+      <c r="AS3" s="69"/>
+      <c r="AT3" s="70"/>
+      <c r="AU3" s="68" t="s">
         <v>175</v>
       </c>
-      <c r="AV3" s="68"/>
-      <c r="AW3" s="68"/>
-      <c r="AX3" s="68"/>
-      <c r="AY3" s="68"/>
-      <c r="AZ3" s="69"/>
-      <c r="BA3" s="70" t="s">
+      <c r="AV3" s="69"/>
+      <c r="AW3" s="69"/>
+      <c r="AX3" s="69"/>
+      <c r="AY3" s="69"/>
+      <c r="AZ3" s="70"/>
+      <c r="BA3" s="71" t="s">
         <v>191</v>
       </c>
-      <c r="BB3" s="71"/>
-      <c r="BC3" s="71"/>
-      <c r="BD3" s="71"/>
-      <c r="BE3" s="71"/>
-      <c r="BF3" s="71"/>
-      <c r="BG3" s="71"/>
-      <c r="BH3" s="71"/>
-      <c r="BI3" s="71"/>
-      <c r="BJ3" s="71"/>
-      <c r="BK3" s="71"/>
-      <c r="BL3" s="71"/>
-      <c r="BM3" s="71"/>
-      <c r="BN3" s="71"/>
-      <c r="BO3" s="71"/>
-      <c r="BP3" s="71"/>
-      <c r="BQ3" s="71"/>
-      <c r="BR3" s="71"/>
-      <c r="BS3" s="71"/>
-      <c r="BT3" s="71"/>
-      <c r="BU3" s="71"/>
-      <c r="BV3" s="71"/>
-      <c r="BW3" s="72"/>
-    </row>
-    <row r="4" spans="2:75" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="BB3" s="72"/>
+      <c r="BC3" s="72"/>
+      <c r="BD3" s="72"/>
+      <c r="BE3" s="72"/>
+      <c r="BF3" s="72"/>
+      <c r="BG3" s="72"/>
+      <c r="BH3" s="72"/>
+      <c r="BI3" s="72"/>
+      <c r="BJ3" s="72"/>
+      <c r="BK3" s="72"/>
+      <c r="BL3" s="72"/>
+      <c r="BM3" s="72"/>
+      <c r="BN3" s="72"/>
+      <c r="BO3" s="72"/>
+      <c r="BP3" s="72"/>
+      <c r="BQ3" s="72"/>
+      <c r="BR3" s="72"/>
+      <c r="BS3" s="72"/>
+      <c r="BT3" s="72"/>
+      <c r="BU3" s="72"/>
+      <c r="BV3" s="72"/>
+      <c r="BW3" s="73"/>
+    </row>
+    <row r="4" spans="2:75" customFormat="1">
       <c r="B4" s="23" t="s">
         <v>109</v>
       </c>
@@ -19849,7 +20345,7 @@
       <c r="BV4" s="12"/>
       <c r="BW4" s="22"/>
     </row>
-    <row r="5" spans="2:75" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:75" customFormat="1">
       <c r="B5" s="23">
         <v>42371</v>
       </c>
@@ -20035,7 +20531,7 @@
       <c r="BV5" s="12"/>
       <c r="BW5" s="22"/>
     </row>
-    <row r="6" spans="2:75" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:75" customFormat="1">
       <c r="B6" s="23">
         <v>42371</v>
       </c>
@@ -20251,7 +20747,7 @@
       </c>
       <c r="BW6" s="22"/>
     </row>
-    <row r="7" spans="2:75" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:75" customFormat="1">
       <c r="B7" s="23">
         <v>42371</v>
       </c>
@@ -20467,7 +20963,7 @@
       </c>
       <c r="BW7" s="22"/>
     </row>
-    <row r="8" spans="2:75" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:75" customFormat="1">
       <c r="B8" s="23">
         <v>42371</v>
       </c>
@@ -20673,7 +21169,7 @@
       </c>
       <c r="BW8" s="22"/>
     </row>
-    <row r="9" spans="2:75" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:75" customFormat="1">
       <c r="B9" s="23">
         <v>42371</v>
       </c>
@@ -20889,7 +21385,7 @@
       </c>
       <c r="BW9" s="22"/>
     </row>
-    <row r="10" spans="2:75" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:75" customFormat="1">
       <c r="B10" s="23">
         <v>42371</v>
       </c>
@@ -21095,7 +21591,7 @@
       </c>
       <c r="BW10" s="22"/>
     </row>
-    <row r="11" spans="2:75" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:75" customFormat="1">
       <c r="B11" s="23">
         <v>42371</v>
       </c>
@@ -21301,7 +21797,7 @@
       </c>
       <c r="BW11" s="22"/>
     </row>
-    <row r="12" spans="2:75" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:75" customFormat="1">
       <c r="B12" s="23">
         <v>42371</v>
       </c>
@@ -21507,7 +22003,7 @@
       </c>
       <c r="BW12" s="22"/>
     </row>
-    <row r="13" spans="2:75" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:75" customFormat="1">
       <c r="B13" s="23">
         <v>42371</v>
       </c>
@@ -21713,7 +22209,7 @@
       </c>
       <c r="BW13" s="22"/>
     </row>
-    <row r="14" spans="2:75" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:75" customFormat="1">
       <c r="B14" s="23">
         <v>42371</v>
       </c>
@@ -21943,7 +22439,7 @@
       </c>
       <c r="BW14" s="22"/>
     </row>
-    <row r="15" spans="2:75" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:75" customFormat="1">
       <c r="B15" s="23">
         <v>42371</v>
       </c>
@@ -22173,7 +22669,7 @@
       </c>
       <c r="BW15" s="22"/>
     </row>
-    <row r="16" spans="2:75" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:75" customFormat="1">
       <c r="B16" s="23">
         <v>42371</v>
       </c>
@@ -22413,7 +22909,7 @@
       </c>
       <c r="BW16" s="22"/>
     </row>
-    <row r="17" spans="2:75" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:75" customFormat="1">
       <c r="B17" s="23">
         <v>42610</v>
       </c>
@@ -22638,7 +23134,7 @@
       </c>
       <c r="BW17" s="22"/>
     </row>
-    <row r="18" spans="2:75" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:75" customFormat="1">
       <c r="B18" s="23"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -22783,7 +23279,7 @@
       </c>
       <c r="BW18" s="22"/>
     </row>
-    <row r="19" spans="2:75" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:75" customFormat="1">
       <c r="B19" s="23"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -22928,7 +23424,7 @@
       </c>
       <c r="BW19" s="22"/>
     </row>
-    <row r="20" spans="2:75" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:75" customFormat="1">
       <c r="B20" s="23"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -23073,7 +23569,7 @@
       </c>
       <c r="BW20" s="22"/>
     </row>
-    <row r="21" spans="2:75" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:75" customFormat="1">
       <c r="B21" s="23"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -23218,7 +23714,7 @@
       </c>
       <c r="BW21" s="22"/>
     </row>
-    <row r="22" spans="2:75" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:75" customFormat="1">
       <c r="B22" s="23"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -23363,7 +23859,7 @@
       </c>
       <c r="BW22" s="22"/>
     </row>
-    <row r="23" spans="2:75" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:75" customFormat="1">
       <c r="B23" s="23"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -23508,7 +24004,7 @@
       </c>
       <c r="BW23" s="22"/>
     </row>
-    <row r="24" spans="2:75" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:75" customFormat="1">
       <c r="B24" s="23"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -23653,7 +24149,7 @@
       </c>
       <c r="BW24" s="22"/>
     </row>
-    <row r="25" spans="2:75" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:75" customFormat="1">
       <c r="B25" s="23"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -23798,7 +24294,7 @@
       </c>
       <c r="BW25" s="22"/>
     </row>
-    <row r="26" spans="2:75" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:75" customFormat="1">
       <c r="B26" s="23"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -23943,7 +24439,7 @@
       </c>
       <c r="BW26" s="22"/>
     </row>
-    <row r="27" spans="2:75" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:75" customFormat="1">
       <c r="B27" s="23"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -24088,7 +24584,7 @@
       </c>
       <c r="BW27" s="22"/>
     </row>
-    <row r="28" spans="2:75" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:75" customFormat="1">
       <c r="B28" s="23"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -24233,7 +24729,7 @@
       </c>
       <c r="BW28" s="22"/>
     </row>
-    <row r="29" spans="2:75" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:75" customFormat="1">
       <c r="B29" s="23"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -24378,7 +24874,7 @@
       </c>
       <c r="BW29" s="22"/>
     </row>
-    <row r="30" spans="2:75" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:75" customFormat="1">
       <c r="B30" s="23"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -24523,7 +25019,7 @@
       </c>
       <c r="BW30" s="22"/>
     </row>
-    <row r="31" spans="2:75" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:75" customFormat="1">
       <c r="B31" s="23"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -24668,7 +25164,7 @@
       </c>
       <c r="BW31" s="22"/>
     </row>
-    <row r="32" spans="2:75" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:75" customFormat="1">
       <c r="B32" s="23"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -24813,7 +25309,7 @@
       </c>
       <c r="BW32" s="22"/>
     </row>
-    <row r="33" spans="2:75" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:75" customFormat="1">
       <c r="B33" s="23"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -24958,7 +25454,7 @@
       </c>
       <c r="BW33" s="22"/>
     </row>
-    <row r="34" spans="2:75" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:75" customFormat="1">
       <c r="B34" s="23"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -25103,7 +25599,7 @@
       </c>
       <c r="BW34" s="22"/>
     </row>
-    <row r="35" spans="2:75" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:75" customFormat="1">
       <c r="B35" s="23"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -25248,7 +25744,7 @@
       </c>
       <c r="BW35" s="22"/>
     </row>
-    <row r="36" spans="2:75" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:75" customFormat="1">
       <c r="B36" s="23"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -25393,7 +25889,7 @@
       </c>
       <c r="BW36" s="22"/>
     </row>
-    <row r="37" spans="2:75" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:75" customFormat="1">
       <c r="B37" s="23"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -25538,7 +26034,7 @@
       </c>
       <c r="BW37" s="22"/>
     </row>
-    <row r="38" spans="2:75" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:75" customFormat="1">
       <c r="B38" s="23"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -25683,7 +26179,7 @@
       </c>
       <c r="BW38" s="22"/>
     </row>
-    <row r="39" spans="2:75" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:75" customFormat="1">
       <c r="B39" s="23"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -25828,7 +26324,7 @@
       </c>
       <c r="BW39" s="22"/>
     </row>
-    <row r="40" spans="2:75" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:75" customFormat="1">
       <c r="B40" s="23"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -25973,7 +26469,7 @@
       </c>
       <c r="BW40" s="22"/>
     </row>
-    <row r="41" spans="2:75" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:75" customFormat="1">
       <c r="B41" s="23"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -26118,7 +26614,7 @@
       </c>
       <c r="BW41" s="22"/>
     </row>
-    <row r="42" spans="2:75" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:75" customFormat="1">
       <c r="B42" s="23"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -26263,7 +26759,7 @@
       </c>
       <c r="BW42" s="22"/>
     </row>
-    <row r="43" spans="2:75" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:75" customFormat="1">
       <c r="B43" s="23"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -26408,7 +26904,7 @@
       </c>
       <c r="BW43" s="22"/>
     </row>
-    <row r="44" spans="2:75" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:75" customFormat="1">
       <c r="B44" s="23"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -26553,7 +27049,7 @@
       </c>
       <c r="BW44" s="22"/>
     </row>
-    <row r="45" spans="2:75" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:75" customFormat="1">
       <c r="B45" s="23"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -26698,7 +27194,7 @@
       </c>
       <c r="BW45" s="22"/>
     </row>
-    <row r="46" spans="2:75" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:75" customFormat="1">
       <c r="B46" s="23"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -26774,7 +27270,7 @@
       <c r="BV46" s="12"/>
       <c r="BW46" s="22"/>
     </row>
-    <row r="47" spans="2:75" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:75" customFormat="1" ht="14.25" thickBot="1">
       <c r="B47" s="38"/>
       <c r="C47" s="24"/>
       <c r="D47" s="24"/>
@@ -27289,18 +27785,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI136"/>
+  <dimension ref="A1:AI148"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="7" ySplit="5" topLeftCell="T102" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="7" ySplit="5" topLeftCell="H111" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AG121" sqref="AG121"/>
+      <selection pane="bottomRight" activeCell="F143" sqref="F143:M143"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="77"/>
+    <col min="1" max="1" width="9" style="54"/>
     <col min="2" max="2" width="11.25" style="43" customWidth="1"/>
     <col min="3" max="4" width="9" style="44"/>
     <col min="5" max="5" width="17.25" style="45" bestFit="1" customWidth="1"/>
@@ -27319,21 +27815,21 @@
     <col min="36" max="16384" width="9" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:34" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:34">
       <c r="V1" s="40" t="s">
-        <v>572</v>
+        <v>542</v>
       </c>
       <c r="W1" s="40" t="s">
-        <v>611</v>
+        <v>472</v>
       </c>
       <c r="X1" s="40" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="Y1" s="40" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="2" spans="2:34" x14ac:dyDescent="0.15">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="2" spans="2:34">
       <c r="B2" s="50" t="s">
         <v>211</v>
       </c>
@@ -27357,16 +27853,16 @@
       <c r="T2" s="51"/>
       <c r="U2" s="52"/>
       <c r="V2" s="40" t="s">
-        <v>571</v>
+        <v>541</v>
       </c>
       <c r="W2" s="40" t="s">
-        <v>576</v>
+        <v>472</v>
       </c>
       <c r="X2" s="40" t="s">
-        <v>574</v>
+        <v>473</v>
       </c>
       <c r="Y2" s="40" t="s">
-        <v>619</v>
+        <v>557</v>
       </c>
       <c r="AA2" s="40">
         <v>1</v>
@@ -27375,7 +27871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:34" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:34">
       <c r="B3" s="43" t="s">
         <v>212</v>
       </c>
@@ -27463,24 +27959,27 @@
       <c r="AG3" s="49"/>
       <c r="AH3" s="49"/>
     </row>
-    <row r="4" spans="2:34" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:34">
       <c r="V4" s="40" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="W4" s="40" t="s">
         <v>472</v>
       </c>
       <c r="X4" s="40" t="s">
-        <v>471</v>
+        <v>557</v>
       </c>
       <c r="Y4" s="40" t="s">
         <v>473</v>
       </c>
+      <c r="AA4" s="40">
+        <v>1</v>
+      </c>
       <c r="AD4" s="40">
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="2:34" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:34">
       <c r="J5" s="46">
         <v>3</v>
       </c>
@@ -27515,7 +28014,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="2:34" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:34">
       <c r="B6" s="43">
         <v>42610</v>
       </c>
@@ -27590,13 +28089,13 @@
       </c>
       <c r="AD6" s="40">
         <f>IF(V6=$V$4,1,0)+IF(W6=$W$4,1,0)+IF(X6=$X$4,1,0)+IF(Y6=$Y$4,1,0)+IF(Z6=$Z$4,1,0)+IF(AA6=$AA$4,1,0)+IF(AB6=$AB$4,1,0)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG6" s="40" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="7" spans="2:34" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:34">
       <c r="B7" s="43">
         <v>42610</v>
       </c>
@@ -27671,13 +28170,13 @@
       </c>
       <c r="AD7" s="40">
         <f t="shared" ref="AD7:AD70" si="0">IF(V7=$V$4,1,0)+IF(W7=$W$4,1,0)+IF(X7=$X$4,1,0)+IF(Y7=$Y$4,1,0)+IF(Z7=$Z$4,1,0)+IF(AA7=$AA$4,1,0)+IF(AB7=$AB$4,1,0)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AG7" s="49" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="8" spans="2:34" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:34">
       <c r="B8" s="43">
         <v>42610</v>
       </c>
@@ -27752,13 +28251,13 @@
       </c>
       <c r="AD8" s="40">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AG8" s="49" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="9" spans="2:34" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:34">
       <c r="B9" s="43">
         <v>42610</v>
       </c>
@@ -27834,12 +28333,15 @@
       <c r="Z9" s="40" t="s">
         <v>446</v>
       </c>
+      <c r="AA9" s="40">
+        <v>1</v>
+      </c>
       <c r="AD9" s="40">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="2:34" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:34">
       <c r="B10" s="43">
         <v>42610</v>
       </c>
@@ -27899,6 +28401,9 @@
       </c>
       <c r="U10" s="42">
         <v>0</v>
+      </c>
+      <c r="AA10" s="40">
+        <v>1</v>
       </c>
       <c r="AD10" s="40">
         <f t="shared" si="0"/>
@@ -27908,7 +28413,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="11" spans="2:34" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:34">
       <c r="B11" s="43">
         <v>42610</v>
       </c>
@@ -27986,10 +28491,10 @@
       </c>
       <c r="AD11" s="40">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="2:34" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:34">
       <c r="B12" s="43">
         <v>42610</v>
       </c>
@@ -28049,6 +28554,9 @@
       </c>
       <c r="U12" s="42">
         <v>0</v>
+      </c>
+      <c r="AA12" s="40">
+        <v>1</v>
       </c>
       <c r="AD12" s="40">
         <f t="shared" si="0"/>
@@ -28058,7 +28566,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="13" spans="2:34" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:34">
       <c r="B13" s="43">
         <v>42610</v>
       </c>
@@ -28118,6 +28626,9 @@
       </c>
       <c r="U13" s="42">
         <v>0</v>
+      </c>
+      <c r="AA13" s="40">
+        <v>1</v>
       </c>
       <c r="AD13" s="40">
         <f t="shared" si="0"/>
@@ -28127,7 +28638,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="14" spans="2:34" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:34">
       <c r="B14" s="43">
         <v>42610</v>
       </c>
@@ -28202,10 +28713,10 @@
       </c>
       <c r="AD14" s="40">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="2:34" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:34">
       <c r="B15" s="43">
         <v>42610</v>
       </c>
@@ -28280,10 +28791,10 @@
       </c>
       <c r="AD15" s="40">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="2:34" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:34">
       <c r="B16" s="43">
         <v>42610</v>
       </c>
@@ -28343,6 +28854,9 @@
       </c>
       <c r="U16" s="42">
         <v>0</v>
+      </c>
+      <c r="AA16" s="40">
+        <v>1</v>
       </c>
       <c r="AD16" s="40">
         <f t="shared" si="0"/>
@@ -28352,7 +28866,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="17" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:33">
       <c r="B17" s="43">
         <v>42610</v>
       </c>
@@ -28412,6 +28926,9 @@
       </c>
       <c r="U17" s="42">
         <v>0</v>
+      </c>
+      <c r="AA17" s="40">
+        <v>1</v>
       </c>
       <c r="AD17" s="40">
         <f t="shared" si="0"/>
@@ -28421,7 +28938,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="18" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:33">
       <c r="B18" s="43">
         <v>42610</v>
       </c>
@@ -28496,10 +29013,10 @@
       </c>
       <c r="AD18" s="40">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="2:33" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:33">
       <c r="B19" s="43">
         <v>42610</v>
       </c>
@@ -28574,10 +29091,10 @@
       </c>
       <c r="AD19" s="40">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="2:33" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:33">
       <c r="B20" s="43">
         <v>42610</v>
       </c>
@@ -28637,6 +29154,9 @@
       </c>
       <c r="U20" s="42">
         <v>0</v>
+      </c>
+      <c r="AA20" s="40">
+        <v>1</v>
       </c>
       <c r="AD20" s="40">
         <f t="shared" si="0"/>
@@ -28646,7 +29166,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="21" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:33">
       <c r="B21" s="43">
         <v>42610</v>
       </c>
@@ -28724,10 +29244,10 @@
       </c>
       <c r="AD21" s="40">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="2:33" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:33">
       <c r="B22" s="43">
         <v>42610</v>
       </c>
@@ -28787,6 +29307,9 @@
       </c>
       <c r="U22" s="42">
         <v>0</v>
+      </c>
+      <c r="AA22" s="40">
+        <v>1</v>
       </c>
       <c r="AD22" s="40">
         <f t="shared" si="0"/>
@@ -28796,7 +29319,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="23" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:33">
       <c r="B23" s="43">
         <v>42610</v>
       </c>
@@ -28871,10 +29394,10 @@
       </c>
       <c r="AD23" s="40">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="2:33" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:33">
       <c r="B24" s="43">
         <v>42610</v>
       </c>
@@ -28947,12 +29470,15 @@
       <c r="Y24" s="40" t="s">
         <v>441</v>
       </c>
+      <c r="AA24" s="40">
+        <v>1</v>
+      </c>
       <c r="AD24" s="40">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="2:33" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:33">
       <c r="B25" s="43">
         <v>42610</v>
       </c>
@@ -29033,7 +29559,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="26" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:33">
       <c r="B26" s="43">
         <v>42610</v>
       </c>
@@ -29093,6 +29619,9 @@
       </c>
       <c r="U26" s="42">
         <v>0</v>
+      </c>
+      <c r="AA26" s="40">
+        <v>1</v>
       </c>
       <c r="AD26" s="40">
         <f t="shared" si="0"/>
@@ -29102,7 +29631,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="27" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:33">
       <c r="B27" s="43">
         <v>42610</v>
       </c>
@@ -29162,6 +29691,9 @@
       </c>
       <c r="U27" s="42">
         <v>0</v>
+      </c>
+      <c r="AA27" s="40">
+        <v>1</v>
       </c>
       <c r="AD27" s="40">
         <f t="shared" si="0"/>
@@ -29171,7 +29703,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="28" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:33">
       <c r="B28" s="43">
         <v>42610</v>
       </c>
@@ -29246,10 +29778,10 @@
       </c>
       <c r="AD28" s="40">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="2:33" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:33">
       <c r="B29" s="43">
         <v>42610</v>
       </c>
@@ -29322,15 +29854,18 @@
       <c r="Y29" s="40" t="s">
         <v>537</v>
       </c>
+      <c r="AA29" s="40">
+        <v>1</v>
+      </c>
       <c r="AD29" s="40">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG29" s="40" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="30" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:33">
       <c r="B30" s="43">
         <v>42610</v>
       </c>
@@ -29405,10 +29940,10 @@
       </c>
       <c r="AD30" s="40">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="2:33" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:33">
       <c r="B31" s="43">
         <v>42610</v>
       </c>
@@ -29486,10 +30021,10 @@
       </c>
       <c r="AD31" s="40">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="2:33" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:33">
       <c r="B32" s="43">
         <v>42610</v>
       </c>
@@ -29549,6 +30084,9 @@
       </c>
       <c r="U32" s="42">
         <v>0</v>
+      </c>
+      <c r="AA32" s="40">
+        <v>1</v>
       </c>
       <c r="AD32" s="40">
         <f t="shared" si="0"/>
@@ -29558,7 +30096,10 @@
         <v>447</v>
       </c>
     </row>
-    <row r="33" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:35">
+      <c r="A33" s="54">
+        <v>1</v>
+      </c>
       <c r="B33" s="43">
         <v>42610</v>
       </c>
@@ -29631,12 +30172,15 @@
       <c r="Y33" s="40" t="s">
         <v>513</v>
       </c>
+      <c r="AA33" s="40">
+        <v>1</v>
+      </c>
       <c r="AD33" s="40">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:35" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:35">
       <c r="B34" s="43">
         <v>42610</v>
       </c>
@@ -29696,6 +30240,9 @@
       </c>
       <c r="U34" s="42">
         <v>0</v>
+      </c>
+      <c r="AA34" s="40">
+        <v>1</v>
       </c>
       <c r="AD34" s="40">
         <f t="shared" si="0"/>
@@ -29705,7 +30252,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="35" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:35">
       <c r="B35" s="43">
         <v>42610</v>
       </c>
@@ -29765,6 +30312,9 @@
       </c>
       <c r="U35" s="42">
         <v>0</v>
+      </c>
+      <c r="AA35" s="40">
+        <v>1</v>
       </c>
       <c r="AD35" s="40">
         <f t="shared" si="0"/>
@@ -29774,7 +30324,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="36" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:35">
       <c r="B36" s="43">
         <v>42610</v>
       </c>
@@ -29849,10 +30399,10 @@
       </c>
       <c r="AD36" s="40">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="2:35" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:35">
       <c r="B37" s="43">
         <v>42610</v>
       </c>
@@ -29927,10 +30477,10 @@
       </c>
       <c r="AD37" s="40">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="2:35" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:35">
       <c r="B38" s="43">
         <v>42610</v>
       </c>
@@ -30005,13 +30555,13 @@
       </c>
       <c r="AD38" s="40">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AG38" s="40" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="39" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:35">
       <c r="B39" s="43">
         <v>42610</v>
       </c>
@@ -30087,9 +30637,12 @@
       <c r="Z39" s="40" t="s">
         <v>517</v>
       </c>
+      <c r="AA39" s="40">
+        <v>1</v>
+      </c>
       <c r="AD39" s="40">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF39" s="40" t="s">
         <v>539</v>
@@ -30098,7 +30651,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="40" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:35">
       <c r="F40" s="41"/>
       <c r="G40" s="41"/>
       <c r="H40" s="42"/>
@@ -30117,13 +30670,13 @@
       <c r="U40" s="42"/>
       <c r="AD40" s="40">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI40" s="53" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="41" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:35">
       <c r="B41" s="43">
         <v>42610</v>
       </c>
@@ -30198,13 +30751,13 @@
       </c>
       <c r="AD41" s="40">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AI41" s="40" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="42" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:35">
       <c r="B42" s="43">
         <v>42610</v>
       </c>
@@ -30279,13 +30832,13 @@
       </c>
       <c r="AD42" s="40">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AG42" s="40" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="43" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:35">
       <c r="B43" s="43">
         <v>42610</v>
       </c>
@@ -30357,6 +30910,9 @@
       </c>
       <c r="Y43" s="40" t="s">
         <v>515</v>
+      </c>
+      <c r="AA43" s="40">
+        <v>1</v>
       </c>
       <c r="AB43" s="40">
         <v>1</v>
@@ -30369,7 +30925,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="44" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:35">
       <c r="B44" s="43">
         <v>42610</v>
       </c>
@@ -30441,6 +30997,9 @@
       </c>
       <c r="Y44" s="40" t="s">
         <v>516</v>
+      </c>
+      <c r="AA44" s="40">
+        <v>1</v>
       </c>
       <c r="AD44" s="40">
         <f t="shared" si="0"/>
@@ -30450,7 +31009,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="45" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:35">
       <c r="B45" s="43">
         <v>42610</v>
       </c>
@@ -30523,12 +31082,15 @@
       <c r="Y45" s="40" t="s">
         <v>516</v>
       </c>
+      <c r="AA45" s="40">
+        <v>1</v>
+      </c>
       <c r="AD45" s="40">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="2:35" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:35">
       <c r="B46" s="43">
         <v>42610</v>
       </c>
@@ -30603,10 +31165,10 @@
       </c>
       <c r="AD46" s="40">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="2:35" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:35">
       <c r="B47" s="43">
         <v>42610</v>
       </c>
@@ -30679,12 +31241,15 @@
       <c r="Y47" s="40" t="s">
         <v>516</v>
       </c>
+      <c r="AA47" s="40">
+        <v>1</v>
+      </c>
       <c r="AD47" s="40">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="2:35" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:35">
       <c r="B48" s="43">
         <v>42610</v>
       </c>
@@ -30762,13 +31327,13 @@
       </c>
       <c r="AD48" s="40">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG48" s="40" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:35">
       <c r="B49" s="43">
         <v>42610</v>
       </c>
@@ -30849,13 +31414,13 @@
       </c>
       <c r="AD49" s="40">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG49" s="49" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:35">
       <c r="B50" s="43">
         <v>42610</v>
       </c>
@@ -30928,12 +31493,15 @@
       <c r="Y50" s="40" t="s">
         <v>516</v>
       </c>
+      <c r="AA50" s="40">
+        <v>1</v>
+      </c>
       <c r="AD50" s="40">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="2:35">
       <c r="B51" s="43">
         <v>42610</v>
       </c>
@@ -31006,15 +31574,18 @@
       <c r="Y51" s="40" t="s">
         <v>515</v>
       </c>
+      <c r="AA51" s="40">
+        <v>1</v>
+      </c>
       <c r="AD51" s="40">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG51" s="40" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:35">
       <c r="B52" s="43">
         <v>42610</v>
       </c>
@@ -31092,10 +31663,10 @@
       </c>
       <c r="AD52" s="40">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="2:35">
       <c r="B53" s="43">
         <v>42610</v>
       </c>
@@ -31168,15 +31739,18 @@
       <c r="Y53" s="40" t="s">
         <v>515</v>
       </c>
+      <c r="AA53" s="40">
+        <v>1</v>
+      </c>
       <c r="AB53" s="40">
         <v>1</v>
       </c>
       <c r="AD53" s="40">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="2:35">
       <c r="B54" s="43">
         <v>42610</v>
       </c>
@@ -31251,13 +31825,13 @@
       </c>
       <c r="AD54" s="40">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AG54" s="49" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:35">
       <c r="B55" s="43">
         <v>42610</v>
       </c>
@@ -31330,12 +31904,15 @@
       <c r="Y55" s="40" t="s">
         <v>516</v>
       </c>
+      <c r="AA55" s="40">
+        <v>1</v>
+      </c>
       <c r="AD55" s="40">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="2:35">
       <c r="F56" s="41"/>
       <c r="G56" s="41"/>
       <c r="H56" s="42"/>
@@ -31354,13 +31931,13 @@
       <c r="U56" s="42"/>
       <c r="AD56" s="40">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI56" s="53" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:35">
       <c r="B57" s="43">
         <v>42610</v>
       </c>
@@ -31438,10 +32015,10 @@
       </c>
       <c r="AD57" s="40">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="2:35">
       <c r="B58" s="43">
         <v>42610</v>
       </c>
@@ -31516,13 +32093,10 @@
       </c>
       <c r="AD58" s="40">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A59" s="77">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="2:35">
       <c r="B59" s="43">
         <v>42610</v>
       </c>
@@ -31597,10 +32171,10 @@
       </c>
       <c r="AD59" s="40">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="2:35">
       <c r="B60" s="43">
         <v>42610</v>
       </c>
@@ -31687,7 +32261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:35">
       <c r="B61" s="43">
         <v>42610</v>
       </c>
@@ -31762,10 +32336,10 @@
       </c>
       <c r="AD61" s="40">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="2:35">
       <c r="B62" s="43">
         <v>42610</v>
       </c>
@@ -31840,10 +32414,10 @@
       </c>
       <c r="AD62" s="40">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="2:35">
       <c r="B63" s="43">
         <v>42610</v>
       </c>
@@ -31924,7 +32498,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:35">
       <c r="B64" s="43">
         <v>42610</v>
       </c>
@@ -32002,10 +32576,10 @@
       </c>
       <c r="AD64" s="40">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="2:33">
       <c r="B65" s="43">
         <v>42610</v>
       </c>
@@ -32080,10 +32654,10 @@
       </c>
       <c r="AD65" s="40">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="2:33">
       <c r="B66" s="43">
         <v>42610</v>
       </c>
@@ -32158,10 +32732,10 @@
       </c>
       <c r="AD66" s="40">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:33">
       <c r="B67" s="43">
         <v>42610</v>
       </c>
@@ -32237,15 +32811,18 @@
       <c r="Z67" s="40" t="s">
         <v>517</v>
       </c>
+      <c r="AA67" s="40">
+        <v>1</v>
+      </c>
       <c r="AB67" s="40">
         <v>1</v>
       </c>
       <c r="AD67" s="40">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="2:33">
       <c r="B68" s="43">
         <v>42610</v>
       </c>
@@ -32323,10 +32900,10 @@
       </c>
       <c r="AD68" s="40">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="2:33">
       <c r="B69" s="43">
         <v>42610</v>
       </c>
@@ -32404,13 +32981,13 @@
       </c>
       <c r="AD69" s="40">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG69" s="49" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:33">
       <c r="B70" s="43">
         <v>42610</v>
       </c>
@@ -32488,10 +33065,10 @@
       </c>
       <c r="AD70" s="40">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="2:33">
       <c r="B71" s="43">
         <v>42610</v>
       </c>
@@ -32572,7 +33149,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:33">
       <c r="B72" s="43">
         <v>42610</v>
       </c>
@@ -32656,7 +33233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:33">
       <c r="B73" s="43">
         <v>42610</v>
       </c>
@@ -32734,10 +33311,10 @@
       </c>
       <c r="AD73" s="40">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="2:33">
       <c r="B74" s="43">
         <v>42610</v>
       </c>
@@ -32812,10 +33389,10 @@
       </c>
       <c r="AD74" s="40">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="2:33">
       <c r="B75" s="43">
         <v>42610</v>
       </c>
@@ -32893,10 +33470,10 @@
       </c>
       <c r="AD75" s="40">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:33" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="2:33">
       <c r="B76" s="43">
         <v>42610</v>
       </c>
@@ -32980,7 +33557,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:33">
       <c r="B77" s="43">
         <v>42610</v>
       </c>
@@ -33058,10 +33635,10 @@
       </c>
       <c r="AD77" s="40">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:33" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="2:33">
       <c r="B78" s="43">
         <v>42610</v>
       </c>
@@ -33136,13 +33713,10 @@
       </c>
       <c r="AD78" s="40">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A79" s="77">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="2:33">
       <c r="B79" s="43">
         <v>42610</v>
       </c>
@@ -33220,10 +33794,10 @@
       </c>
       <c r="AD79" s="40">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="80" spans="1:33" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="2:33">
       <c r="B80" s="43">
         <v>42610</v>
       </c>
@@ -33304,7 +33878,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:33">
       <c r="B81" s="43">
         <v>42610</v>
       </c>
@@ -33379,10 +33953,10 @@
       </c>
       <c r="AD81" s="40">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="2:33" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="2:33">
       <c r="B82" s="43">
         <v>42610</v>
       </c>
@@ -33463,7 +34037,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:33">
       <c r="B83" s="43">
         <v>42610</v>
       </c>
@@ -33538,10 +34112,10 @@
       </c>
       <c r="AD83" s="40">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="2:33" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="2:33">
       <c r="B84" s="43">
         <v>42610</v>
       </c>
@@ -33616,10 +34190,10 @@
       </c>
       <c r="AD84" s="40">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="85" spans="2:33" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="2:33">
       <c r="B85" s="43">
         <v>42610</v>
       </c>
@@ -33697,13 +34271,13 @@
       </c>
       <c r="AD85" s="40">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AG85" s="49" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="86" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:33">
       <c r="B86" s="43">
         <v>42610</v>
       </c>
@@ -33781,10 +34355,10 @@
       </c>
       <c r="AD86" s="40">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="87" spans="2:33" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="2:33">
       <c r="B87" s="43">
         <v>42613</v>
       </c>
@@ -33862,13 +34436,13 @@
       </c>
       <c r="AD87" s="40">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AG87" s="49" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="88" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:33">
       <c r="B88" s="43">
         <v>42613</v>
       </c>
@@ -33946,10 +34520,10 @@
       </c>
       <c r="AD88" s="40">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="89" spans="2:33" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="2:33">
       <c r="B89" s="43">
         <v>42613</v>
       </c>
@@ -34027,10 +34601,10 @@
       </c>
       <c r="AD89" s="40">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="2:33" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="2:33">
       <c r="B90" s="43">
         <v>42613</v>
       </c>
@@ -34108,10 +34682,10 @@
       </c>
       <c r="AD90" s="40">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="91" spans="2:33" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="2:33">
       <c r="B91" s="43">
         <v>42613</v>
       </c>
@@ -34195,7 +34769,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:33">
       <c r="B92" s="43">
         <v>42613</v>
       </c>
@@ -34276,10 +34850,10 @@
       </c>
       <c r="AD92" s="40">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="2:33" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="2:33">
       <c r="B93" s="43">
         <v>42613</v>
       </c>
@@ -34354,10 +34928,10 @@
       </c>
       <c r="AD93" s="40">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="94" spans="2:33" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="2:33">
       <c r="B94" s="43">
         <v>42613</v>
       </c>
@@ -34438,10 +35012,10 @@
       </c>
       <c r="AD94" s="40">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="2:33" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="2:33">
       <c r="B95" s="43">
         <v>42613</v>
       </c>
@@ -34519,10 +35093,10 @@
       </c>
       <c r="AD95" s="40">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96" spans="2:33" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="2:33">
       <c r="B96" s="43">
         <v>42613</v>
       </c>
@@ -34597,10 +35171,10 @@
       </c>
       <c r="AD96" s="40">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="97" spans="2:33" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="2:33">
       <c r="B97" s="43">
         <v>42613</v>
       </c>
@@ -34678,10 +35252,10 @@
       </c>
       <c r="AD97" s="40">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="98" spans="2:33" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="2:33">
       <c r="B98" s="43">
         <v>42613</v>
       </c>
@@ -34756,10 +35330,10 @@
       </c>
       <c r="AD98" s="40">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="99" spans="2:33" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="2:33">
       <c r="B99" s="43">
         <v>42613</v>
       </c>
@@ -34834,10 +35408,10 @@
       </c>
       <c r="AD99" s="40">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="100" spans="2:33" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="2:33">
       <c r="B100" s="43">
         <v>42613</v>
       </c>
@@ -34918,10 +35492,10 @@
       </c>
       <c r="AD100" s="40">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="2:33" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="2:33">
       <c r="B101" s="43">
         <v>42613</v>
       </c>
@@ -34996,10 +35570,10 @@
       </c>
       <c r="AD101" s="40">
         <f t="shared" ref="AD101:AD121" si="2">IF(V101=$V$4,1,0)+IF(W101=$W$4,1,0)+IF(X101=$X$4,1,0)+IF(Y101=$Y$4,1,0)+IF(Z101=$Z$4,1,0)+IF(AA101=$AA$4,1,0)+IF(AB101=$AB$4,1,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="2:33" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="2:33">
       <c r="B102" s="43">
         <v>42613</v>
       </c>
@@ -35080,7 +35654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:33">
       <c r="B103" s="43">
         <v>42613</v>
       </c>
@@ -35143,10 +35717,10 @@
       </c>
       <c r="AD103" s="40">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="104" spans="2:33" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="2:33">
       <c r="B104" s="43">
         <v>42613</v>
       </c>
@@ -35208,7 +35782,7 @@
         <v>0</v>
       </c>
       <c r="V104" s="40" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="W104" s="40" t="s">
         <v>472</v>
@@ -35227,7 +35801,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="105" spans="2:33">
       <c r="B105" s="43">
         <v>42613</v>
       </c>
@@ -35302,10 +35876,10 @@
       </c>
       <c r="AD105" s="40">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="106" spans="2:33" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="2:33">
       <c r="B106" s="43">
         <v>42612</v>
       </c>
@@ -35313,7 +35887,7 @@
         <v>2</v>
       </c>
       <c r="D106" s="44" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="E106" s="45">
         <v>42612.770833333336</v>
@@ -35383,10 +35957,10 @@
       </c>
       <c r="AD106" s="40">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="107" spans="2:33" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="2:33">
       <c r="B107" s="43">
         <v>42612</v>
       </c>
@@ -35403,13 +35977,13 @@
         <v>87</v>
       </c>
       <c r="G107" s="41" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="H107" s="42" t="s">
         <v>88</v>
       </c>
       <c r="I107" s="42" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="J107" s="41">
         <v>1.58</v>
@@ -35461,10 +36035,10 @@
       </c>
       <c r="AD107" s="40">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="108" spans="2:33" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="2:33">
       <c r="B108" s="43">
         <v>42612</v>
       </c>
@@ -35481,13 +36055,13 @@
         <v>89</v>
       </c>
       <c r="G108" s="41" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="H108" s="42" t="s">
         <v>89</v>
       </c>
       <c r="I108" s="42" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="J108" s="41">
         <v>1.85</v>
@@ -35545,7 +36119,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="109" spans="2:33">
       <c r="B109" s="43">
         <v>42612</v>
       </c>
@@ -35562,13 +36136,13 @@
         <v>76</v>
       </c>
       <c r="G109" s="41" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="H109" s="42" t="s">
         <v>76</v>
       </c>
       <c r="I109" s="42" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="J109" s="41">
         <v>2.1</v>
@@ -35623,13 +36197,13 @@
       </c>
       <c r="AD109" s="40">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AG109" s="40" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="110" spans="2:33" x14ac:dyDescent="0.15">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="110" spans="2:33">
       <c r="B110" s="43">
         <v>42612</v>
       </c>
@@ -35643,13 +36217,13 @@
         <v>42613.114583333336</v>
       </c>
       <c r="F110" s="41" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="G110" s="41" t="s">
         <v>81</v>
       </c>
       <c r="H110" s="42" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="I110" s="42" t="s">
         <v>81</v>
@@ -35707,10 +36281,10 @@
       </c>
       <c r="AD110" s="40">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="111" spans="2:33" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="2:33">
       <c r="B111" s="43">
         <v>42612</v>
       </c>
@@ -35727,13 +36301,13 @@
         <v>92</v>
       </c>
       <c r="G111" s="41" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="H111" s="42" t="s">
         <v>92</v>
       </c>
       <c r="I111" s="42" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="J111" s="41">
         <v>2.25</v>
@@ -35791,7 +36365,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="112" spans="2:33">
       <c r="B112" s="43">
         <v>42612</v>
       </c>
@@ -35805,13 +36379,13 @@
         <v>42613.114583333336</v>
       </c>
       <c r="F112" s="41" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="G112" s="41" t="s">
         <v>142</v>
       </c>
       <c r="H112" s="42" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="I112" s="42" t="s">
         <v>142</v>
@@ -35869,13 +36443,13 @@
       </c>
       <c r="AD112" s="40">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AG112" s="49" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="113" spans="2:33" x14ac:dyDescent="0.15">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="113" spans="2:33">
       <c r="B113" s="43">
         <v>42612</v>
       </c>
@@ -35892,13 +36466,13 @@
         <v>79</v>
       </c>
       <c r="G113" s="41" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="H113" s="42" t="s">
         <v>80</v>
       </c>
       <c r="I113" s="42" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="J113" s="41">
         <v>1.71</v>
@@ -35959,10 +36533,10 @@
         <v>3</v>
       </c>
       <c r="AG113" s="49" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="114" spans="2:33" x14ac:dyDescent="0.15">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="114" spans="2:33">
       <c r="B114" s="43">
         <v>42612</v>
       </c>
@@ -35979,13 +36553,13 @@
         <v>145</v>
       </c>
       <c r="G114" s="41" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="H114" s="42" t="s">
         <v>145</v>
       </c>
       <c r="I114" s="42" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="J114" s="41">
         <v>1.78</v>
@@ -36040,13 +36614,13 @@
       </c>
       <c r="AD114" s="40">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG114" s="49" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="115" spans="2:33" x14ac:dyDescent="0.15">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="115" spans="2:33">
       <c r="B115" s="43">
         <v>42612</v>
       </c>
@@ -36060,16 +36634,16 @@
         <v>42613.114583333336</v>
       </c>
       <c r="F115" s="41" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="G115" s="41" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="H115" s="42" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="I115" s="42" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="J115" s="41">
         <v>3.52</v>
@@ -36127,7 +36701,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="116" spans="2:33">
       <c r="B116" s="43">
         <v>42612</v>
       </c>
@@ -36141,16 +36715,16 @@
         <v>42613.114583333336</v>
       </c>
       <c r="F116" s="41" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="G116" s="41" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="H116" s="42" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="I116" s="42" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="J116" s="41">
         <v>1.64</v>
@@ -36202,10 +36776,10 @@
       </c>
       <c r="AD116" s="40">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="117" spans="2:33" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="2:33">
       <c r="B117" s="43">
         <v>42612</v>
       </c>
@@ -36219,16 +36793,16 @@
         <v>42613.114583333336</v>
       </c>
       <c r="F117" s="41" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="G117" s="41" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="H117" s="42" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="I117" s="42" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="J117" s="41">
         <v>1.36</v>
@@ -36267,7 +36841,7 @@
         <v>3</v>
       </c>
       <c r="V117" s="40" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="W117" s="40" t="s">
         <v>472</v>
@@ -36280,10 +36854,10 @@
       </c>
       <c r="AD117" s="40">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="118" spans="2:33" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="2:33">
       <c r="B118" s="43">
         <v>42612</v>
       </c>
@@ -36297,16 +36871,16 @@
         <v>42613.114583333336</v>
       </c>
       <c r="F118" s="46" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="G118" s="46" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="H118" s="44" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="I118" s="44" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="J118" s="46">
         <v>1.6</v>
@@ -36345,7 +36919,7 @@
         <v>0</v>
       </c>
       <c r="V118" s="40" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="W118" s="40" t="s">
         <v>472</v>
@@ -36367,10 +36941,10 @@
         <v>3</v>
       </c>
       <c r="AG118" s="49" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="119" spans="2:33" x14ac:dyDescent="0.15">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="119" spans="2:33">
       <c r="B119" s="43">
         <v>42612</v>
       </c>
@@ -36384,13 +36958,13 @@
         <v>42613.114583333336</v>
       </c>
       <c r="F119" s="46" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="G119" s="46" t="s">
         <v>93</v>
       </c>
       <c r="H119" s="44" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="I119" s="44" t="s">
         <v>94</v>
@@ -36451,7 +37025,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="120" spans="2:33">
       <c r="B120" s="43">
         <v>42612</v>
       </c>
@@ -36468,13 +37042,13 @@
         <v>62</v>
       </c>
       <c r="G120" s="46" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="H120" s="44" t="s">
         <v>62</v>
       </c>
       <c r="I120" s="44" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="J120" s="46">
         <v>1.52</v>
@@ -36513,7 +37087,7 @@
         <v>0</v>
       </c>
       <c r="V120" s="40" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="W120" s="40" t="s">
         <v>472</v>
@@ -36532,13 +37106,13 @@
       </c>
       <c r="AD120" s="40">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AG120" s="49" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="121" spans="2:33" x14ac:dyDescent="0.15">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="121" spans="2:33">
       <c r="B121" s="43">
         <v>42612</v>
       </c>
@@ -36552,16 +37126,16 @@
         <v>42613.114583333336</v>
       </c>
       <c r="F121" s="46" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="G121" s="46" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="H121" s="44" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="I121" s="44" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="J121" s="46">
         <v>1.62</v>
@@ -36613,10 +37187,10 @@
       </c>
       <c r="AD121" s="40">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="135" spans="2:25" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="2:33">
       <c r="B135" s="43">
         <v>42614</v>
       </c>
@@ -36645,7 +37219,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="136" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="136" spans="2:33">
       <c r="C136" s="44">
         <v>4</v>
       </c>
@@ -36669,6 +37243,498 @@
       </c>
       <c r="Y136" s="40" t="s">
         <v>473</v>
+      </c>
+    </row>
+    <row r="137" spans="2:33">
+      <c r="B137" s="43">
+        <v>42616</v>
+      </c>
+      <c r="C137" s="44">
+        <v>18</v>
+      </c>
+      <c r="D137" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="E137" s="45">
+        <v>42616.802083333336</v>
+      </c>
+      <c r="F137" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="G137" s="46" t="s">
+        <v>613</v>
+      </c>
+      <c r="H137" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="I137" s="44" t="s">
+        <v>613</v>
+      </c>
+      <c r="J137" s="46">
+        <v>1.6</v>
+      </c>
+      <c r="K137" s="46">
+        <v>3.5</v>
+      </c>
+      <c r="L137" s="46">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="M137" s="44">
+        <v>2.84</v>
+      </c>
+      <c r="N137" s="44">
+        <v>3.65</v>
+      </c>
+      <c r="O137" s="44">
+        <v>1.99</v>
+      </c>
+      <c r="P137" s="44">
+        <v>-1</v>
+      </c>
+      <c r="V137" s="40" t="s">
+        <v>617</v>
+      </c>
+      <c r="W137" s="40" t="s">
+        <v>614</v>
+      </c>
+      <c r="X137" s="40" t="s">
+        <v>615</v>
+      </c>
+      <c r="Y137" s="40" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="138" spans="2:33">
+      <c r="V138" s="40" t="s">
+        <v>618</v>
+      </c>
+      <c r="W138" s="40" t="s">
+        <v>614</v>
+      </c>
+      <c r="X138" s="40" t="s">
+        <v>616</v>
+      </c>
+      <c r="Y138" s="40" t="s">
+        <v>619</v>
+      </c>
+      <c r="AA138" s="40">
+        <v>1</v>
+      </c>
+      <c r="AB138" s="40">
+        <v>1</v>
+      </c>
+      <c r="AC138" s="40" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="139" spans="2:33">
+      <c r="B139" s="43">
+        <v>42616</v>
+      </c>
+      <c r="C139" s="44">
+        <v>17</v>
+      </c>
+      <c r="D139" s="44" t="s">
+        <v>389</v>
+      </c>
+      <c r="E139" s="45">
+        <v>42616.75</v>
+      </c>
+      <c r="F139" s="46" t="s">
+        <v>368</v>
+      </c>
+      <c r="G139" s="46" t="s">
+        <v>621</v>
+      </c>
+      <c r="H139" s="44" t="s">
+        <v>368</v>
+      </c>
+      <c r="I139" s="44" t="s">
+        <v>621</v>
+      </c>
+      <c r="J139" s="46">
+        <v>1.58</v>
+      </c>
+      <c r="K139" s="46">
+        <v>3.55</v>
+      </c>
+      <c r="L139" s="46">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="M139" s="44">
+        <v>2.85</v>
+      </c>
+      <c r="N139" s="44">
+        <v>3.5</v>
+      </c>
+      <c r="O139" s="44">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="P139" s="44">
+        <v>-1</v>
+      </c>
+      <c r="V139" s="40" t="s">
+        <v>622</v>
+      </c>
+      <c r="W139" s="40" t="s">
+        <v>623</v>
+      </c>
+      <c r="X139" s="40" t="s">
+        <v>624</v>
+      </c>
+      <c r="Y139" s="40" t="s">
+        <v>615</v>
+      </c>
+      <c r="AC139" s="40" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="140" spans="2:33">
+      <c r="V140" s="40" t="s">
+        <v>625</v>
+      </c>
+      <c r="W140" s="40" t="s">
+        <v>623</v>
+      </c>
+      <c r="X140" s="40" t="s">
+        <v>626</v>
+      </c>
+      <c r="Y140" s="40" t="s">
+        <v>626</v>
+      </c>
+      <c r="AA140" s="40">
+        <v>1</v>
+      </c>
+      <c r="AB140" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="2:33">
+      <c r="B141" s="43">
+        <v>42616</v>
+      </c>
+      <c r="C141" s="44">
+        <v>16</v>
+      </c>
+      <c r="D141" s="44" t="s">
+        <v>232</v>
+      </c>
+      <c r="E141" s="45">
+        <v>42616.75</v>
+      </c>
+      <c r="F141" s="46" t="s">
+        <v>627</v>
+      </c>
+      <c r="G141" s="46" t="s">
+        <v>628</v>
+      </c>
+      <c r="H141" s="44" t="s">
+        <v>627</v>
+      </c>
+      <c r="I141" s="44" t="s">
+        <v>628</v>
+      </c>
+      <c r="J141" s="46">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K141" s="46">
+        <v>6.7</v>
+      </c>
+      <c r="L141" s="46">
+        <v>14</v>
+      </c>
+      <c r="M141" s="44">
+        <v>1.47</v>
+      </c>
+      <c r="N141" s="44">
+        <v>4.32</v>
+      </c>
+      <c r="O141" s="44">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="P141" s="44">
+        <v>-1</v>
+      </c>
+      <c r="V141" s="40" t="s">
+        <v>629</v>
+      </c>
+      <c r="W141" s="40" t="s">
+        <v>623</v>
+      </c>
+      <c r="X141" s="40" t="s">
+        <v>630</v>
+      </c>
+      <c r="Y141" s="40" t="s">
+        <v>631</v>
+      </c>
+      <c r="AC141" s="40" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="142" spans="2:33">
+      <c r="V142" s="40" t="s">
+        <v>632</v>
+      </c>
+      <c r="W142" s="40" t="s">
+        <v>623</v>
+      </c>
+      <c r="X142" s="40" t="s">
+        <v>630</v>
+      </c>
+      <c r="Y142" s="40" t="s">
+        <v>615</v>
+      </c>
+      <c r="AA142" s="40">
+        <v>1</v>
+      </c>
+      <c r="AB142" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="2:33">
+      <c r="B143" s="43">
+        <v>42616</v>
+      </c>
+      <c r="C143" s="44">
+        <v>15</v>
+      </c>
+      <c r="D143" s="44" t="s">
+        <v>232</v>
+      </c>
+      <c r="E143" s="45">
+        <v>42616.75</v>
+      </c>
+      <c r="F143" s="46" t="s">
+        <v>633</v>
+      </c>
+      <c r="G143" s="46" t="s">
+        <v>634</v>
+      </c>
+      <c r="H143" s="44" t="s">
+        <v>635</v>
+      </c>
+      <c r="I143" s="44" t="s">
+        <v>634</v>
+      </c>
+      <c r="J143" s="46">
+        <v>1.48</v>
+      </c>
+      <c r="K143" s="46">
+        <v>3.75</v>
+      </c>
+      <c r="L143" s="46">
+        <v>5.35</v>
+      </c>
+      <c r="M143" s="44">
+        <v>2.67</v>
+      </c>
+      <c r="N143" s="44">
+        <v>3.3</v>
+      </c>
+      <c r="O143" s="44">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="P143" s="44">
+        <v>-1</v>
+      </c>
+      <c r="V143" s="40" t="s">
+        <v>555</v>
+      </c>
+      <c r="W143" s="40" t="s">
+        <v>472</v>
+      </c>
+      <c r="X143" s="40" t="s">
+        <v>626</v>
+      </c>
+      <c r="Y143" s="40" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="144" spans="2:33">
+      <c r="V144" s="40" t="s">
+        <v>556</v>
+      </c>
+      <c r="W144" s="40" t="s">
+        <v>472</v>
+      </c>
+      <c r="X144" s="40" t="s">
+        <v>615</v>
+      </c>
+      <c r="Y144" s="40" t="s">
+        <v>557</v>
+      </c>
+      <c r="AA144" s="40">
+        <v>1</v>
+      </c>
+      <c r="AB144" s="40">
+        <v>1</v>
+      </c>
+      <c r="AG144" s="40" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="145" spans="2:33">
+      <c r="B145" s="43">
+        <v>42616</v>
+      </c>
+      <c r="C145" s="44">
+        <v>14</v>
+      </c>
+      <c r="D145" s="44" t="s">
+        <v>232</v>
+      </c>
+      <c r="E145" s="45">
+        <v>42616.75</v>
+      </c>
+      <c r="F145" s="46" t="s">
+        <v>637</v>
+      </c>
+      <c r="G145" s="46" t="s">
+        <v>638</v>
+      </c>
+      <c r="H145" s="44" t="s">
+        <v>637</v>
+      </c>
+      <c r="I145" s="44" t="s">
+        <v>639</v>
+      </c>
+      <c r="J145" s="46">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="K145" s="46">
+        <v>6.5</v>
+      </c>
+      <c r="L145" s="46">
+        <v>13.5</v>
+      </c>
+      <c r="M145" s="44">
+        <v>1.5</v>
+      </c>
+      <c r="N145" s="44">
+        <v>4.25</v>
+      </c>
+      <c r="O145" s="44">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="P145" s="44">
+        <v>-1</v>
+      </c>
+      <c r="V145" s="40" t="s">
+        <v>629</v>
+      </c>
+      <c r="W145" s="40" t="s">
+        <v>623</v>
+      </c>
+      <c r="X145" s="40" t="s">
+        <v>630</v>
+      </c>
+      <c r="Y145" s="40" t="s">
+        <v>631</v>
+      </c>
+      <c r="AC145" s="40" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="146" spans="2:33">
+      <c r="V146" s="40" t="s">
+        <v>632</v>
+      </c>
+      <c r="W146" s="40" t="s">
+        <v>623</v>
+      </c>
+      <c r="X146" s="40" t="s">
+        <v>630</v>
+      </c>
+      <c r="Y146" s="40" t="s">
+        <v>615</v>
+      </c>
+      <c r="AA146" s="40">
+        <v>1</v>
+      </c>
+      <c r="AB146" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="2:33">
+      <c r="B147" s="43">
+        <v>42616</v>
+      </c>
+      <c r="C147" s="44">
+        <v>13</v>
+      </c>
+      <c r="D147" s="44" t="s">
+        <v>232</v>
+      </c>
+      <c r="E147" s="45">
+        <v>42616.75</v>
+      </c>
+      <c r="F147" s="46" t="s">
+        <v>477</v>
+      </c>
+      <c r="G147" s="46" t="s">
+        <v>640</v>
+      </c>
+      <c r="H147" s="44" t="s">
+        <v>477</v>
+      </c>
+      <c r="I147" s="44" t="s">
+        <v>641</v>
+      </c>
+      <c r="J147" s="46">
+        <v>2.92</v>
+      </c>
+      <c r="K147" s="46">
+        <v>3.05</v>
+      </c>
+      <c r="L147" s="46">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="M147" s="44">
+        <v>1.5</v>
+      </c>
+      <c r="N147" s="44">
+        <v>3.8</v>
+      </c>
+      <c r="O147" s="44">
+        <v>5</v>
+      </c>
+      <c r="P147" s="44">
+        <v>1</v>
+      </c>
+      <c r="V147" s="40" t="s">
+        <v>541</v>
+      </c>
+      <c r="W147" s="40" t="s">
+        <v>472</v>
+      </c>
+      <c r="X147" s="40" t="s">
+        <v>473</v>
+      </c>
+      <c r="Y147" s="40" t="s">
+        <v>557</v>
+      </c>
+      <c r="AB147" s="40">
+        <v>1</v>
+      </c>
+      <c r="AG147" s="40" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="148" spans="2:33">
+      <c r="V148" s="40" t="s">
+        <v>542</v>
+      </c>
+      <c r="W148" s="40" t="s">
+        <v>472</v>
+      </c>
+      <c r="X148" s="40" t="s">
+        <v>557</v>
+      </c>
+      <c r="Y148" s="40" t="s">
+        <v>473</v>
+      </c>
+      <c r="AA148" s="40">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -36700,12 +37766,12 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:29" x14ac:dyDescent="0.15">
+    <row r="3" spans="3:29">
       <c r="C3" t="s">
         <v>140</v>
       </c>
@@ -36713,7 +37779,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="3:29" x14ac:dyDescent="0.15">
+    <row r="5" spans="3:29">
       <c r="AC5">
         <f>Q5*参数!D42</f>
         <v>0</v>

--- a/soccer/php/result/analyze/分析主表.xlsx
+++ b/soccer/php/result/analyze/分析主表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1643,7 +1643,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1752" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1737" uniqueCount="637">
   <si>
     <t>A</t>
     <phoneticPr fontId="1"/>
@@ -4409,6 +4409,67 @@
     <t>斯文登</t>
   </si>
   <si>
+    <t>蔚山现代</t>
+  </si>
+  <si>
+    <t>仙台维加泰</t>
+  </si>
+  <si>
+    <t>盛冈仙鹤</t>
+  </si>
+  <si>
+    <t>清水鼓动</t>
+  </si>
+  <si>
+    <t>水户蜀葵</t>
+  </si>
+  <si>
+    <t>清水心跳</t>
+  </si>
+  <si>
+    <t>这一场的临赔变化又是压着30分钟的轴，不好判断啊，不算临赔就不是冷，算临赔就很可能出冷</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鸟栖沙岩</t>
+  </si>
+  <si>
+    <t>琉球FC</t>
+  </si>
+  <si>
+    <t>FC琉球</t>
+  </si>
+  <si>
+    <t>东京绿茵</t>
+  </si>
+  <si>
+    <t>东京绿荫</t>
+  </si>
+  <si>
+    <t>这一场实在找不到相似的结果</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>吉灵汉姆</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>谢菲联</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>这个冷门怎么说呢？感觉是明显的假球，主队优势极其明显居然输了这么大比分</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>有升有降，主降</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>有升有降，主升</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>低</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -4421,96 +4482,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>有升有降，主降</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>有升有降，主升</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>升</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>选</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>蔚山现代</t>
-  </si>
-  <si>
-    <t>升2次</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>低</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>升</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>降2次</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>降</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>仙台维加泰</t>
-  </si>
-  <si>
-    <t>盛冈仙鹤</t>
-  </si>
-  <si>
-    <t>一路降</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>无</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>降</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>一路升</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>清水鼓动</t>
-  </si>
-  <si>
-    <t>水户蜀葵</t>
-  </si>
-  <si>
-    <t>清水心跳</t>
-  </si>
-  <si>
-    <t>这一场的临赔变化又是压着30分钟的轴，不好判断啊，不算临赔就不是冷，算临赔就很可能出冷</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>鸟栖沙岩</t>
-  </si>
-  <si>
-    <t>琉球FC</t>
-  </si>
-  <si>
-    <t>FC琉球</t>
-  </si>
-  <si>
-    <t>东京绿茵</t>
-  </si>
-  <si>
-    <t>东京绿荫</t>
-  </si>
-  <si>
-    <t>这一场实在找不到相似的结果</t>
+    <t>无</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5068,7 +5044,28 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="157">
+  <dxfs count="160">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -11612,11 +11609,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BW47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="9" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AP23" sqref="AP23"/>
+      <selection pane="bottomRight" activeCell="BA26" sqref="BA26:BV26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -15460,13 +15457,13 @@
         <v>368</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>368</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="J21" s="10">
         <v>1.58</v>
@@ -15668,16 +15665,16 @@
         <v>42616.75</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>628</v>
+        <v>616</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>628</v>
+        <v>616</v>
       </c>
       <c r="J22" s="10">
         <v>1.1000000000000001</v>
@@ -15879,16 +15876,16 @@
         <v>42616.75</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>633</v>
+        <v>617</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>634</v>
+        <v>618</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>635</v>
+        <v>619</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>634</v>
+        <v>618</v>
       </c>
       <c r="J23" s="10">
         <v>1.48</v>
@@ -16088,16 +16085,16 @@
         <v>42616.75</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>637</v>
+        <v>621</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>637</v>
+        <v>621</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>639</v>
+        <v>623</v>
       </c>
       <c r="J24" s="10">
         <v>1.1100000000000001</v>
@@ -16302,13 +16299,13 @@
         <v>477</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="H25" s="7" t="s">
         <v>477</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="J25" s="10">
         <v>2.92</v>
@@ -16497,33 +16494,77 @@
       <c r="BW25" s="22"/>
     </row>
     <row r="26" spans="2:75" customFormat="1">
-      <c r="B26" s="23"/>
+      <c r="B26" s="23">
+        <v>42617</v>
+      </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
+      <c r="F26" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>628</v>
+      </c>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="17"/>
-      <c r="S26" s="17"/>
-      <c r="T26" s="17"/>
-      <c r="U26" s="17"/>
-      <c r="V26" s="17"/>
-      <c r="W26" s="13"/>
-      <c r="X26" s="13"/>
-      <c r="Y26" s="13"/>
-      <c r="Z26" s="13"/>
-      <c r="AA26" s="13"/>
-      <c r="AB26" s="13"/>
+      <c r="J26" s="10">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="K26" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="L26" s="10">
+        <v>2.75</v>
+      </c>
+      <c r="M26" s="14">
+        <v>4.75</v>
+      </c>
+      <c r="N26" s="14">
+        <v>4.2</v>
+      </c>
+      <c r="O26" s="14">
+        <v>1.47</v>
+      </c>
+      <c r="P26" s="19">
+        <v>-1</v>
+      </c>
+      <c r="Q26" s="17">
+        <v>-3</v>
+      </c>
+      <c r="R26" s="17">
+        <v>2</v>
+      </c>
+      <c r="S26" s="17">
+        <v>-9</v>
+      </c>
+      <c r="T26" s="17">
+        <v>-4</v>
+      </c>
+      <c r="U26" s="17">
+        <v>5</v>
+      </c>
+      <c r="V26" s="17">
+        <v>-1</v>
+      </c>
+      <c r="W26" s="13">
+        <v>-10.824561403508762</v>
+      </c>
+      <c r="X26" s="13">
+        <v>4.5241379310344838</v>
+      </c>
+      <c r="Y26" s="13">
+        <v>-34.46551724137931</v>
+      </c>
+      <c r="Z26" s="13">
+        <v>-12.940594059405942</v>
+      </c>
+      <c r="AA26" s="13">
+        <v>18</v>
+      </c>
+      <c r="AB26" s="13">
+        <v>-3.6538461538461386</v>
+      </c>
       <c r="AC26" s="17"/>
       <c r="AD26" s="17"/>
       <c r="AE26" s="17"/>
@@ -16538,27 +16579,27 @@
       <c r="AN26" s="13"/>
       <c r="AO26" s="20">
         <f>Q26*参数!$D$3+W26</f>
-        <v>0</v>
+        <v>-16.82456140350876</v>
       </c>
       <c r="AP26" s="20">
         <f>R26*参数!$D$3+X26</f>
-        <v>0</v>
+        <v>8.5241379310344847</v>
       </c>
       <c r="AQ26" s="20">
         <f>S26*参数!$D$3+Y26</f>
-        <v>0</v>
+        <v>-52.46551724137931</v>
       </c>
       <c r="AR26" s="20">
         <f>T26*参数!$D$3+Z26</f>
-        <v>0</v>
+        <v>-20.940594059405942</v>
       </c>
       <c r="AS26" s="20">
         <f>U26*参数!$D$3+AA26</f>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AT26" s="20">
         <f>V26*参数!$D$3+AB26</f>
-        <v>0</v>
+        <v>-5.6538461538461391</v>
       </c>
       <c r="AU26" s="20">
         <f>AC26*参数!$D$3+AI26</f>
@@ -16584,60 +16625,72 @@
         <f>AH26*参数!$D$3+AN26</f>
         <v>0</v>
       </c>
-      <c r="BA26" s="12"/>
+      <c r="BA26" s="12">
+        <v>3</v>
+      </c>
       <c r="BB26" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="BC26" s="12"/>
+        <v>0</v>
+      </c>
+      <c r="BC26" s="12">
+        <v>3</v>
+      </c>
       <c r="BD26" s="12">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="BE26" s="12"/>
+        <v>0</v>
+      </c>
+      <c r="BE26" s="12">
+        <v>43</v>
+      </c>
       <c r="BF26" s="12">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG26" s="12"/>
       <c r="BH26" s="12">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="BI26" s="12"/>
+        <v>0</v>
+      </c>
+      <c r="BI26" s="12">
+        <v>41</v>
+      </c>
       <c r="BJ26" s="12">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="BK26" s="12"/>
+        <v>0</v>
+      </c>
+      <c r="BK26" s="12">
+        <v>40</v>
+      </c>
       <c r="BL26" s="12">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM26" s="12"/>
       <c r="BN26" s="12">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO26" s="12"/>
       <c r="BP26" s="12">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ26" s="12"/>
       <c r="BR26" s="12">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="12"/>
       <c r="BT26" s="12">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="BU26" s="12"/>
+        <v>0</v>
+      </c>
+      <c r="BU26" s="12">
+        <v>40</v>
+      </c>
       <c r="BV26" s="12">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW26" s="22"/>
     </row>
@@ -19566,357 +19619,357 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="BD7:BD14 BD16:BD45">
-    <cfRule type="cellIs" dxfId="156" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="102" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB7:BB14 BB16:BB45">
-    <cfRule type="cellIs" dxfId="155" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="103" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BR7:BR45">
-    <cfRule type="cellIs" dxfId="154" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="96" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF7:BF14 BF16:BF45">
-    <cfRule type="cellIs" dxfId="153" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="101" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ7:BJ14 BJ16:BJ45">
-    <cfRule type="cellIs" dxfId="152" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="100" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BL7:BL14 BL16:BL45">
-    <cfRule type="cellIs" dxfId="151" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="99" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BN7:BN45">
-    <cfRule type="cellIs" dxfId="150" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="98" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP7:BP45">
-    <cfRule type="cellIs" dxfId="149" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="97" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BT7:BT45">
-    <cfRule type="cellIs" dxfId="148" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="95" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD6:BD14 BD16:BD45">
-    <cfRule type="cellIs" dxfId="147" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="93" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB6:BB14 BB16:BB45">
-    <cfRule type="cellIs" dxfId="146" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="94" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BR6:BR45">
-    <cfRule type="cellIs" dxfId="145" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="87" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF6:BF14 BF16:BF45">
-    <cfRule type="cellIs" dxfId="144" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="92" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ6:BJ14 BJ16:BJ45">
-    <cfRule type="cellIs" dxfId="143" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="91" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BL6:BL14 BL16:BL45">
-    <cfRule type="cellIs" dxfId="142" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="90" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BN6:BN45">
-    <cfRule type="cellIs" dxfId="141" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="89" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP6:BP45">
-    <cfRule type="cellIs" dxfId="140" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="88" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BT6:BT45">
-    <cfRule type="cellIs" dxfId="139" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="86" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB6:BB14 BB16:BB45">
-    <cfRule type="cellIs" dxfId="138" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="85" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD6:BD14 BD16:BD45">
-    <cfRule type="cellIs" dxfId="137" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="84" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF6:BF14 BF16:BF45">
-    <cfRule type="cellIs" dxfId="136" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="83" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ6:BJ14 BJ16:BJ45">
-    <cfRule type="cellIs" dxfId="135" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="82" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BL6:BL14 BL16:BL45">
-    <cfRule type="cellIs" dxfId="134" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="81" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BN6:BN45">
-    <cfRule type="cellIs" dxfId="133" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="80" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP6:BP45">
-    <cfRule type="cellIs" dxfId="132" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="79" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BR6:BR45">
-    <cfRule type="cellIs" dxfId="131" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="78" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BT6:BT45">
-    <cfRule type="cellIs" dxfId="130" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="77" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO5:AO45">
-    <cfRule type="expression" dxfId="129" priority="44">
+    <cfRule type="expression" dxfId="132" priority="44">
       <formula>AO5=MAX($AO5:$AT5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO5:AO45">
-    <cfRule type="expression" dxfId="128" priority="43">
+    <cfRule type="expression" dxfId="131" priority="43">
       <formula>AO5=MIN($AO5:$AT5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP5:AT45">
-    <cfRule type="expression" dxfId="127" priority="42">
+    <cfRule type="expression" dxfId="130" priority="42">
       <formula>AP5=MAX($AO5:$AT5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP5:AT45">
-    <cfRule type="expression" dxfId="126" priority="41">
+    <cfRule type="expression" dxfId="129" priority="41">
       <formula>AP5=MIN($AO5:$AT5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU5:AU45">
-    <cfRule type="expression" dxfId="125" priority="40">
+    <cfRule type="expression" dxfId="128" priority="40">
       <formula>AU5=MAX($AU5:$AZ5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU5:AU45">
-    <cfRule type="expression" dxfId="124" priority="39">
+    <cfRule type="expression" dxfId="127" priority="39">
       <formula>AU5=MIN($AU5:$AZ5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV6:AZ45">
-    <cfRule type="expression" dxfId="123" priority="38">
+    <cfRule type="expression" dxfId="126" priority="38">
       <formula>AV6=MAX($AO6:$AT6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV6:AZ45">
-    <cfRule type="expression" dxfId="122" priority="37">
+    <cfRule type="expression" dxfId="125" priority="37">
       <formula>AV6=MIN($AO6:$AT6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV6:AZ45">
-    <cfRule type="expression" dxfId="121" priority="36">
+    <cfRule type="expression" dxfId="124" priority="36">
       <formula>AV6=MAX($AO6:$AT6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV6:AZ45">
-    <cfRule type="expression" dxfId="120" priority="35">
+    <cfRule type="expression" dxfId="123" priority="35">
       <formula>AV6=MIN($AO6:$AT6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV5:AV45">
-    <cfRule type="expression" dxfId="119" priority="34">
+    <cfRule type="expression" dxfId="122" priority="34">
       <formula>AV5=MAX($AU5:$AZ5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV5:AV45">
-    <cfRule type="expression" dxfId="118" priority="33">
+    <cfRule type="expression" dxfId="121" priority="33">
       <formula>AV5=MIN($AU5:$AZ5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW5:AW45">
-    <cfRule type="expression" dxfId="117" priority="32">
+    <cfRule type="expression" dxfId="120" priority="32">
       <formula>AW5=MAX($AU5:$AZ5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW5:AW45">
-    <cfRule type="expression" dxfId="116" priority="31">
+    <cfRule type="expression" dxfId="119" priority="31">
       <formula>AW5=MIN($AU5:$AZ5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX5:AX45">
-    <cfRule type="expression" dxfId="115" priority="30">
+    <cfRule type="expression" dxfId="118" priority="30">
       <formula>AX5=MAX($AU5:$AZ5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX5:AX45">
-    <cfRule type="expression" dxfId="114" priority="29">
+    <cfRule type="expression" dxfId="117" priority="29">
       <formula>AX5=MIN($AU5:$AZ5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY5:AY45">
-    <cfRule type="expression" dxfId="113" priority="28">
+    <cfRule type="expression" dxfId="116" priority="28">
       <formula>AY5=MAX($AU5:$AZ5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY5:AY45">
-    <cfRule type="expression" dxfId="112" priority="27">
+    <cfRule type="expression" dxfId="115" priority="27">
       <formula>AY5=MIN($AU5:$AZ5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ5:AZ45">
-    <cfRule type="expression" dxfId="111" priority="26">
+    <cfRule type="expression" dxfId="114" priority="26">
       <formula>AZ5=MAX($AU5:$AZ5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ5:AZ45">
-    <cfRule type="expression" dxfId="110" priority="25">
+    <cfRule type="expression" dxfId="113" priority="25">
       <formula>AZ5=MIN($AU5:$AZ5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD15">
-    <cfRule type="cellIs" dxfId="109" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="23" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB15">
-    <cfRule type="cellIs" dxfId="108" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="24" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF15">
-    <cfRule type="cellIs" dxfId="107" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="22" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ15">
-    <cfRule type="cellIs" dxfId="106" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="21" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BL15">
-    <cfRule type="cellIs" dxfId="105" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="20" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD15">
-    <cfRule type="cellIs" dxfId="104" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="18" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB15">
-    <cfRule type="cellIs" dxfId="103" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="19" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF15">
-    <cfRule type="cellIs" dxfId="102" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="17" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ15">
-    <cfRule type="cellIs" dxfId="101" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="16" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BL15">
-    <cfRule type="cellIs" dxfId="100" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="15" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB15">
-    <cfRule type="cellIs" dxfId="99" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="14" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD15">
-    <cfRule type="cellIs" dxfId="98" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF15">
-    <cfRule type="cellIs" dxfId="97" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ15">
-    <cfRule type="cellIs" dxfId="96" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BL15">
-    <cfRule type="cellIs" dxfId="95" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH7:BH14 BH16:BH45">
-    <cfRule type="cellIs" dxfId="94" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH6:BH14 BH16:BH45">
-    <cfRule type="cellIs" dxfId="93" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH6:BH14 BH16:BH45">
-    <cfRule type="cellIs" dxfId="92" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH15">
-    <cfRule type="cellIs" dxfId="91" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH15">
-    <cfRule type="cellIs" dxfId="90" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH15">
-    <cfRule type="cellIs" dxfId="89" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BV7:BV45">
-    <cfRule type="cellIs" dxfId="88" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BV6:BV45">
-    <cfRule type="cellIs" dxfId="87" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BV6:BV45">
-    <cfRule type="cellIs" dxfId="86" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27363,417 +27416,417 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="BD9:BD16 BD18:BD45">
-    <cfRule type="cellIs" dxfId="85" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="127" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB9:BB16 BB18:BB45">
-    <cfRule type="cellIs" dxfId="84" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="128" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BR9:BR16 BR18:BR45">
-    <cfRule type="cellIs" dxfId="83" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="121" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF9:BF16 BF18:BF45">
-    <cfRule type="cellIs" dxfId="82" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="126" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ9:BJ16 BJ18:BJ45">
-    <cfRule type="cellIs" dxfId="81" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="125" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BL9:BL16 BL18:BL45">
-    <cfRule type="cellIs" dxfId="80" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="124" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BN9:BN16 BN18:BN45">
-    <cfRule type="cellIs" dxfId="79" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="123" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP9:BP16 BP18:BP45">
-    <cfRule type="cellIs" dxfId="78" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="122" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BT9:BT16 BT18:BT45">
-    <cfRule type="cellIs" dxfId="77" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="120" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB6">
-    <cfRule type="cellIs" dxfId="76" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="119" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD6">
-    <cfRule type="cellIs" dxfId="75" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="118" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF6">
-    <cfRule type="cellIs" dxfId="74" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="117" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ6">
-    <cfRule type="cellIs" dxfId="73" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="116" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BL6">
-    <cfRule type="cellIs" dxfId="72" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="115" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BN6">
-    <cfRule type="cellIs" dxfId="71" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="114" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP6">
-    <cfRule type="cellIs" dxfId="70" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="113" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BR6">
-    <cfRule type="cellIs" dxfId="69" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="112" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BT6">
-    <cfRule type="cellIs" dxfId="68" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="111" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB7">
-    <cfRule type="cellIs" dxfId="67" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="110" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD7">
-    <cfRule type="cellIs" dxfId="66" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="109" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF7">
-    <cfRule type="cellIs" dxfId="65" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="108" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ7">
-    <cfRule type="cellIs" dxfId="64" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="107" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BL7">
-    <cfRule type="cellIs" dxfId="63" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="106" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BN7">
-    <cfRule type="cellIs" dxfId="62" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="105" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP7">
-    <cfRule type="cellIs" dxfId="61" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="104" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BR7">
-    <cfRule type="cellIs" dxfId="60" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="103" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BT7">
-    <cfRule type="cellIs" dxfId="59" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="102" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB8:BB16 BB18:BB45">
-    <cfRule type="cellIs" dxfId="58" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="101" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD8:BD16 BD18:BD45">
-    <cfRule type="cellIs" dxfId="57" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="100" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF8:BF16 BF18:BF45">
-    <cfRule type="cellIs" dxfId="56" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="99" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ8:BJ16 BJ18:BJ45">
-    <cfRule type="cellIs" dxfId="55" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="98" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BL8:BL16 BL18:BL45">
-    <cfRule type="cellIs" dxfId="54" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="97" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BN8:BN16 BN18:BN45">
-    <cfRule type="cellIs" dxfId="53" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="96" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP8:BP16 BP18:BP45">
-    <cfRule type="cellIs" dxfId="52" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="95" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BR8:BR16 BR18:BR45">
-    <cfRule type="cellIs" dxfId="51" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="94" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BT8:BT16 BT18:BT45">
-    <cfRule type="cellIs" dxfId="50" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="93" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO5:AO45">
-    <cfRule type="expression" dxfId="49" priority="63">
+    <cfRule type="expression" dxfId="52" priority="63">
       <formula>AO5=MAX($AO5:$AT5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO5:AO45">
-    <cfRule type="expression" dxfId="48" priority="62">
+    <cfRule type="expression" dxfId="51" priority="62">
       <formula>AO5=MIN($AO5:$AT5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP5:AT45">
-    <cfRule type="expression" dxfId="47" priority="61">
+    <cfRule type="expression" dxfId="50" priority="61">
       <formula>AP5=MAX($AO5:$AT5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP5:AT45">
-    <cfRule type="expression" dxfId="46" priority="60">
+    <cfRule type="expression" dxfId="49" priority="60">
       <formula>AP5=MIN($AO5:$AT5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU5:AZ45">
-    <cfRule type="expression" dxfId="45" priority="43">
+    <cfRule type="expression" dxfId="48" priority="43">
       <formula>AU5=MAX($AU5:$AZ5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU5:AZ45">
-    <cfRule type="expression" dxfId="44" priority="42">
+    <cfRule type="expression" dxfId="47" priority="42">
       <formula>AU5=MIN($AU5:$AZ5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH9:BH16 BH18:BH45">
-    <cfRule type="cellIs" dxfId="43" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="41" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH6">
-    <cfRule type="cellIs" dxfId="42" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="40" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH7">
-    <cfRule type="cellIs" dxfId="41" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="39" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH8:BH16 BH18:BH45">
-    <cfRule type="cellIs" dxfId="40" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="38" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD17">
-    <cfRule type="cellIs" dxfId="39" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="36" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB17">
-    <cfRule type="cellIs" dxfId="38" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="37" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BR17">
-    <cfRule type="cellIs" dxfId="37" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="30" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF17">
-    <cfRule type="cellIs" dxfId="36" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="35" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ17">
-    <cfRule type="cellIs" dxfId="35" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="34" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BL17">
-    <cfRule type="cellIs" dxfId="34" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="33" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BN17">
-    <cfRule type="cellIs" dxfId="33" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="32" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP17">
-    <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="31" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BT17">
-    <cfRule type="cellIs" dxfId="31" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="29" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD17">
-    <cfRule type="cellIs" dxfId="30" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="27" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB17">
-    <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="28" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BR17">
-    <cfRule type="cellIs" dxfId="28" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="21" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF17">
-    <cfRule type="cellIs" dxfId="27" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="26" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ17">
-    <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="25" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BL17">
-    <cfRule type="cellIs" dxfId="25" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="24" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BN17">
-    <cfRule type="cellIs" dxfId="24" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="23" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP17">
-    <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="22" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BT17">
-    <cfRule type="cellIs" dxfId="22" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="20" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB17">
-    <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="19" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD17">
-    <cfRule type="cellIs" dxfId="20" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="18" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF17">
-    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="17" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ17">
-    <cfRule type="cellIs" dxfId="18" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="16" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BL17">
-    <cfRule type="cellIs" dxfId="17" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="15" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BN17">
-    <cfRule type="cellIs" dxfId="16" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="14" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP17">
-    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BR17">
-    <cfRule type="cellIs" dxfId="14" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BT17">
-    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH17">
-    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH17">
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH17">
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BV9:BV16 BV18:BV45">
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BV6">
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BV7">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BV8:BV16 BV18:BV45">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BV17">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BV17">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BV17">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27785,13 +27838,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI148"/>
+  <dimension ref="A1:AI155"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="7" ySplit="5" topLeftCell="H111" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="7" ySplit="5" topLeftCell="P117" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F143" sqref="F143:M143"/>
+      <selection pane="bottomRight" activeCell="V144" sqref="V144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -27961,16 +28014,16 @@
     </row>
     <row r="4" spans="2:34">
       <c r="V4" s="40" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="W4" s="40" t="s">
         <v>472</v>
       </c>
       <c r="X4" s="40" t="s">
-        <v>557</v>
+        <v>473</v>
       </c>
       <c r="Y4" s="40" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="AA4" s="40">
         <v>1</v>
@@ -28089,7 +28142,7 @@
       </c>
       <c r="AD6" s="40">
         <f>IF(V6=$V$4,1,0)+IF(W6=$W$4,1,0)+IF(X6=$X$4,1,0)+IF(Y6=$Y$4,1,0)+IF(Z6=$Z$4,1,0)+IF(AA6=$AA$4,1,0)+IF(AB6=$AB$4,1,0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG6" s="40" t="s">
         <v>439</v>
@@ -28170,7 +28223,7 @@
       </c>
       <c r="AD7" s="40">
         <f t="shared" ref="AD7:AD70" si="0">IF(V7=$V$4,1,0)+IF(W7=$W$4,1,0)+IF(X7=$X$4,1,0)+IF(Y7=$Y$4,1,0)+IF(Z7=$Z$4,1,0)+IF(AA7=$AA$4,1,0)+IF(AB7=$AB$4,1,0)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG7" s="49" t="s">
         <v>442</v>
@@ -28251,7 +28304,7 @@
       </c>
       <c r="AD8" s="40">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG8" s="49" t="s">
         <v>442</v>
@@ -28713,7 +28766,7 @@
       </c>
       <c r="AD14" s="40">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="2:34">
@@ -28791,7 +28844,7 @@
       </c>
       <c r="AD15" s="40">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="2:34">
@@ -29013,7 +29066,7 @@
       </c>
       <c r="AD18" s="40">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="2:33">
@@ -29091,7 +29144,7 @@
       </c>
       <c r="AD19" s="40">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="2:33">
@@ -29244,7 +29297,7 @@
       </c>
       <c r="AD21" s="40">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="2:33">
@@ -29394,7 +29447,7 @@
       </c>
       <c r="AD23" s="40">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="2:33">
@@ -29475,7 +29528,7 @@
       </c>
       <c r="AD24" s="40">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="2:33">
@@ -29553,7 +29606,7 @@
       </c>
       <c r="AD25" s="40">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AG25" s="40" t="s">
         <v>536</v>
@@ -29778,7 +29831,7 @@
       </c>
       <c r="AD28" s="40">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="2:33">
@@ -30021,7 +30074,7 @@
       </c>
       <c r="AD31" s="40">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="2:33">
@@ -30177,7 +30230,7 @@
       </c>
       <c r="AD33" s="40">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:35">
@@ -30399,7 +30452,7 @@
       </c>
       <c r="AD36" s="40">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:35">
@@ -30477,7 +30530,7 @@
       </c>
       <c r="AD37" s="40">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:35">
@@ -30555,7 +30608,7 @@
       </c>
       <c r="AD38" s="40">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG38" s="40" t="s">
         <v>453</v>
@@ -30751,7 +30804,7 @@
       </c>
       <c r="AD41" s="40">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI41" s="40" t="s">
         <v>455</v>
@@ -30832,7 +30885,7 @@
       </c>
       <c r="AD42" s="40">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG42" s="40" t="s">
         <v>453</v>
@@ -30919,7 +30972,7 @@
       </c>
       <c r="AD43" s="40">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AG43" s="49" t="s">
         <v>456</v>
@@ -31165,7 +31218,7 @@
       </c>
       <c r="AD46" s="40">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:35">
@@ -31246,7 +31299,7 @@
       </c>
       <c r="AD47" s="40">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:35">
@@ -31327,7 +31380,7 @@
       </c>
       <c r="AD48" s="40">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG48" s="40" t="s">
         <v>460</v>
@@ -31498,7 +31551,7 @@
       </c>
       <c r="AD50" s="40">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="2:35">
@@ -31579,7 +31632,7 @@
       </c>
       <c r="AD51" s="40">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG51" s="40" t="s">
         <v>462</v>
@@ -31663,7 +31716,7 @@
       </c>
       <c r="AD52" s="40">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="2:35">
@@ -31747,7 +31800,7 @@
       </c>
       <c r="AD53" s="40">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="2:35">
@@ -31825,7 +31878,7 @@
       </c>
       <c r="AD54" s="40">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG54" s="49" t="s">
         <v>463</v>
@@ -31909,7 +31962,7 @@
       </c>
       <c r="AD55" s="40">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="2:35">
@@ -32093,7 +32146,7 @@
       </c>
       <c r="AD58" s="40">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="2:35">
@@ -32171,7 +32224,7 @@
       </c>
       <c r="AD59" s="40">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="2:35">
@@ -32336,7 +32389,7 @@
       </c>
       <c r="AD61" s="40">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="2:35">
@@ -32495,7 +32548,7 @@
       </c>
       <c r="AD63" s="40">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="2:35">
@@ -32576,7 +32629,7 @@
       </c>
       <c r="AD64" s="40">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="2:33">
@@ -32654,7 +32707,7 @@
       </c>
       <c r="AD65" s="40">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="2:33">
@@ -32732,7 +32785,7 @@
       </c>
       <c r="AD66" s="40">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="2:33">
@@ -32819,7 +32872,7 @@
       </c>
       <c r="AD67" s="40">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="2:33">
@@ -32900,7 +32953,7 @@
       </c>
       <c r="AD68" s="40">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="2:33">
@@ -33065,7 +33118,7 @@
       </c>
       <c r="AD70" s="40">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="2:33">
@@ -33146,7 +33199,7 @@
       </c>
       <c r="AD71" s="40">
         <f t="shared" ref="AD71:AD100" si="1">IF(V71=$V$4,1,0)+IF(W71=$W$4,1,0)+IF(X71=$X$4,1,0)+IF(Y71=$Y$4,1,0)+IF(Z71=$Z$4,1,0)+IF(AA71=$AA$4,1,0)+IF(AB71=$AB$4,1,0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="2:33">
@@ -33230,7 +33283,7 @@
       </c>
       <c r="AD72" s="40">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="2:33">
@@ -33311,7 +33364,7 @@
       </c>
       <c r="AD73" s="40">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="2:33">
@@ -33389,7 +33442,7 @@
       </c>
       <c r="AD74" s="40">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="2:33">
@@ -33470,7 +33523,7 @@
       </c>
       <c r="AD75" s="40">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="2:33">
@@ -33554,7 +33607,7 @@
       </c>
       <c r="AD76" s="40">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77" spans="2:33">
@@ -33635,7 +33688,7 @@
       </c>
       <c r="AD77" s="40">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="2:33">
@@ -33713,7 +33766,7 @@
       </c>
       <c r="AD78" s="40">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="2:33">
@@ -33794,7 +33847,7 @@
       </c>
       <c r="AD79" s="40">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="2:33">
@@ -33875,7 +33928,7 @@
       </c>
       <c r="AD80" s="40">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="2:33">
@@ -33953,7 +34006,7 @@
       </c>
       <c r="AD81" s="40">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="2:33">
@@ -34034,7 +34087,7 @@
       </c>
       <c r="AD82" s="40">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83" spans="2:33">
@@ -34112,7 +34165,7 @@
       </c>
       <c r="AD83" s="40">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" spans="2:33">
@@ -34190,7 +34243,7 @@
       </c>
       <c r="AD84" s="40">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="2:33">
@@ -34271,7 +34324,7 @@
       </c>
       <c r="AD85" s="40">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG85" s="49" t="s">
         <v>475</v>
@@ -34355,7 +34408,7 @@
       </c>
       <c r="AD86" s="40">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="2:33">
@@ -34436,7 +34489,7 @@
       </c>
       <c r="AD87" s="40">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG87" s="49" t="s">
         <v>535</v>
@@ -34601,7 +34654,7 @@
       </c>
       <c r="AD89" s="40">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="2:33">
@@ -34682,7 +34735,7 @@
       </c>
       <c r="AD90" s="40">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91" spans="2:33">
@@ -34766,7 +34819,7 @@
       </c>
       <c r="AD91" s="40">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92" spans="2:33">
@@ -35012,7 +35065,7 @@
       </c>
       <c r="AD94" s="40">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="2:33">
@@ -35171,7 +35224,7 @@
       </c>
       <c r="AD96" s="40">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97" spans="2:33">
@@ -35252,7 +35305,7 @@
       </c>
       <c r="AD97" s="40">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="2:33">
@@ -35330,7 +35383,7 @@
       </c>
       <c r="AD98" s="40">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="2:33">
@@ -35408,7 +35461,7 @@
       </c>
       <c r="AD99" s="40">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100" spans="2:33">
@@ -35492,7 +35545,7 @@
       </c>
       <c r="AD100" s="40">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101" spans="2:33">
@@ -35569,8 +35622,8 @@
         <v>471</v>
       </c>
       <c r="AD101" s="40">
-        <f t="shared" ref="AD101:AD121" si="2">IF(V101=$V$4,1,0)+IF(W101=$W$4,1,0)+IF(X101=$X$4,1,0)+IF(Y101=$Y$4,1,0)+IF(Z101=$Z$4,1,0)+IF(AA101=$AA$4,1,0)+IF(AB101=$AB$4,1,0)</f>
-        <v>2</v>
+        <f t="shared" ref="AD101:AD151" si="2">IF(V101=$V$4,1,0)+IF(W101=$W$4,1,0)+IF(X101=$X$4,1,0)+IF(Y101=$Y$4,1,0)+IF(Z101=$Z$4,1,0)+IF(AA101=$AA$4,1,0)+IF(AB101=$AB$4,1,0)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="102" spans="2:33">
@@ -35651,7 +35704,7 @@
       </c>
       <c r="AD102" s="40">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103" spans="2:33">
@@ -35798,7 +35851,7 @@
       </c>
       <c r="AD104" s="40">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="105" spans="2:33">
@@ -35876,7 +35929,7 @@
       </c>
       <c r="AD105" s="40">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106" spans="2:33">
@@ -35957,7 +36010,7 @@
       </c>
       <c r="AD106" s="40">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="107" spans="2:33">
@@ -36035,7 +36088,7 @@
       </c>
       <c r="AD107" s="40">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="108" spans="2:33">
@@ -36197,7 +36250,7 @@
       </c>
       <c r="AD109" s="40">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG109" s="40" t="s">
         <v>605</v>
@@ -36281,7 +36334,7 @@
       </c>
       <c r="AD110" s="40">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="111" spans="2:33">
@@ -36362,7 +36415,7 @@
       </c>
       <c r="AD111" s="40">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="112" spans="2:33">
@@ -36443,7 +36496,7 @@
       </c>
       <c r="AD112" s="40">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG112" s="49" t="s">
         <v>606</v>
@@ -36776,7 +36829,7 @@
       </c>
       <c r="AD116" s="40">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117" spans="2:33">
@@ -37022,7 +37075,7 @@
       </c>
       <c r="AD119" s="40">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="120" spans="2:33">
@@ -37106,7 +37159,7 @@
       </c>
       <c r="AD120" s="40">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG120" s="49" t="s">
         <v>612</v>
@@ -37187,570 +37240,690 @@
       </c>
       <c r="AD121" s="40">
         <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="2:33">
+      <c r="B122" s="43">
+        <v>42614</v>
+      </c>
+      <c r="C122" s="44">
+        <v>1</v>
+      </c>
+      <c r="F122" s="46" t="s">
+        <v>550</v>
+      </c>
+      <c r="G122" s="46" t="s">
+        <v>544</v>
+      </c>
+      <c r="P122" s="44">
+        <v>-1</v>
+      </c>
+      <c r="V122" s="40" t="s">
+        <v>546</v>
+      </c>
+      <c r="W122" s="40" t="s">
+        <v>547</v>
+      </c>
+      <c r="X122" s="40" t="s">
+        <v>471</v>
+      </c>
+      <c r="Y122" s="40" t="s">
+        <v>549</v>
+      </c>
+      <c r="AD122" s="40">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="2:33">
+      <c r="C123" s="44">
         <v>4</v>
       </c>
-    </row>
-    <row r="135" spans="2:33">
-      <c r="B135" s="43">
-        <v>42614</v>
-      </c>
-      <c r="C135" s="44">
-        <v>1</v>
-      </c>
-      <c r="F135" s="46" t="s">
-        <v>550</v>
-      </c>
-      <c r="G135" s="46" t="s">
-        <v>544</v>
-      </c>
-      <c r="P135" s="44">
+      <c r="F123" s="46" t="s">
+        <v>551</v>
+      </c>
+      <c r="G123" s="46" t="s">
+        <v>554</v>
+      </c>
+      <c r="P123" s="44">
         <v>-1</v>
       </c>
-      <c r="V135" s="40" t="s">
-        <v>546</v>
-      </c>
-      <c r="W135" s="40" t="s">
+      <c r="V123" s="40" t="s">
+        <v>555</v>
+      </c>
+      <c r="W123" s="40" t="s">
         <v>547</v>
       </c>
-      <c r="X135" s="40" t="s">
+      <c r="X123" s="40" t="s">
         <v>471</v>
       </c>
-      <c r="Y135" s="40" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="136" spans="2:33">
-      <c r="C136" s="44">
+      <c r="Y123" s="40" t="s">
+        <v>473</v>
+      </c>
+      <c r="AD123" s="40">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="2:33">
+      <c r="B124" s="43">
+        <v>42616</v>
+      </c>
+      <c r="C124" s="44">
+        <v>13</v>
+      </c>
+      <c r="D124" s="44" t="s">
+        <v>232</v>
+      </c>
+      <c r="E124" s="45">
+        <v>42616.75</v>
+      </c>
+      <c r="F124" s="46" t="s">
+        <v>477</v>
+      </c>
+      <c r="G124" s="46" t="s">
+        <v>624</v>
+      </c>
+      <c r="H124" s="44" t="s">
+        <v>477</v>
+      </c>
+      <c r="I124" s="44" t="s">
+        <v>625</v>
+      </c>
+      <c r="J124" s="46">
+        <v>2.92</v>
+      </c>
+      <c r="K124" s="46">
+        <v>3.05</v>
+      </c>
+      <c r="L124" s="46">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="M124" s="44">
+        <v>1.5</v>
+      </c>
+      <c r="N124" s="44">
+        <v>3.8</v>
+      </c>
+      <c r="O124" s="44">
+        <v>5</v>
+      </c>
+      <c r="P124" s="44">
+        <v>1</v>
+      </c>
+      <c r="V124" s="40" t="s">
+        <v>542</v>
+      </c>
+      <c r="W124" s="40" t="s">
+        <v>472</v>
+      </c>
+      <c r="X124" s="40" t="s">
+        <v>557</v>
+      </c>
+      <c r="Y124" s="40" t="s">
+        <v>473</v>
+      </c>
+      <c r="AA124" s="40">
+        <v>1</v>
+      </c>
+      <c r="AD124" s="40">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="F136" s="46" t="s">
-        <v>551</v>
-      </c>
-      <c r="G136" s="46" t="s">
-        <v>554</v>
-      </c>
-      <c r="P136" s="44">
+      <c r="AG124" s="40" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="125" spans="2:33">
+      <c r="B125" s="43">
+        <v>42616</v>
+      </c>
+      <c r="C125" s="44">
+        <v>14</v>
+      </c>
+      <c r="D125" s="44" t="s">
+        <v>232</v>
+      </c>
+      <c r="E125" s="45">
+        <v>42616.75</v>
+      </c>
+      <c r="F125" s="46" t="s">
+        <v>621</v>
+      </c>
+      <c r="G125" s="46" t="s">
+        <v>622</v>
+      </c>
+      <c r="H125" s="44" t="s">
+        <v>621</v>
+      </c>
+      <c r="I125" s="44" t="s">
+        <v>623</v>
+      </c>
+      <c r="J125" s="46">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="K125" s="46">
+        <v>6.5</v>
+      </c>
+      <c r="L125" s="46">
+        <v>13.5</v>
+      </c>
+      <c r="M125" s="44">
+        <v>1.5</v>
+      </c>
+      <c r="N125" s="44">
+        <v>4.25</v>
+      </c>
+      <c r="O125" s="44">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="P125" s="44">
         <v>-1</v>
       </c>
-      <c r="V136" s="40" t="s">
+      <c r="V125" s="40" t="s">
         <v>555</v>
       </c>
-      <c r="W136" s="40" t="s">
-        <v>547</v>
-      </c>
-      <c r="X136" s="40" t="s">
+      <c r="W125" s="40" t="s">
+        <v>472</v>
+      </c>
+      <c r="X125" s="40" t="s">
         <v>471</v>
       </c>
-      <c r="Y136" s="40" t="s">
+      <c r="Y125" s="40" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="137" spans="2:33">
-      <c r="B137" s="43">
+      <c r="AD125" s="40">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="2:33">
+      <c r="B126" s="43">
         <v>42616</v>
       </c>
-      <c r="C137" s="44">
+      <c r="C126" s="44">
+        <v>15</v>
+      </c>
+      <c r="D126" s="44" t="s">
+        <v>232</v>
+      </c>
+      <c r="E126" s="45">
+        <v>42616.75</v>
+      </c>
+      <c r="F126" s="46" t="s">
+        <v>617</v>
+      </c>
+      <c r="G126" s="46" t="s">
+        <v>618</v>
+      </c>
+      <c r="H126" s="44" t="s">
+        <v>619</v>
+      </c>
+      <c r="I126" s="44" t="s">
+        <v>618</v>
+      </c>
+      <c r="J126" s="46">
+        <v>1.48</v>
+      </c>
+      <c r="K126" s="46">
+        <v>3.75</v>
+      </c>
+      <c r="L126" s="46">
+        <v>5.35</v>
+      </c>
+      <c r="M126" s="44">
+        <v>2.67</v>
+      </c>
+      <c r="N126" s="44">
+        <v>3.3</v>
+      </c>
+      <c r="O126" s="44">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="P126" s="44">
+        <v>-1</v>
+      </c>
+      <c r="V126" s="40" t="s">
+        <v>555</v>
+      </c>
+      <c r="W126" s="40" t="s">
+        <v>472</v>
+      </c>
+      <c r="X126" s="40" t="s">
+        <v>473</v>
+      </c>
+      <c r="Y126" s="40" t="s">
+        <v>473</v>
+      </c>
+      <c r="AD126" s="40">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="AG126" s="40" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="127" spans="2:33">
+      <c r="B127" s="43">
+        <v>42616</v>
+      </c>
+      <c r="C127" s="44">
+        <v>16</v>
+      </c>
+      <c r="D127" s="44" t="s">
+        <v>232</v>
+      </c>
+      <c r="E127" s="45">
+        <v>42616.75</v>
+      </c>
+      <c r="F127" s="46" t="s">
+        <v>615</v>
+      </c>
+      <c r="G127" s="46" t="s">
+        <v>616</v>
+      </c>
+      <c r="H127" s="44" t="s">
+        <v>615</v>
+      </c>
+      <c r="I127" s="44" t="s">
+        <v>616</v>
+      </c>
+      <c r="J127" s="46">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K127" s="46">
+        <v>6.7</v>
+      </c>
+      <c r="L127" s="46">
+        <v>14</v>
+      </c>
+      <c r="M127" s="44">
+        <v>1.47</v>
+      </c>
+      <c r="N127" s="44">
+        <v>4.32</v>
+      </c>
+      <c r="O127" s="44">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="P127" s="44">
+        <v>-1</v>
+      </c>
+      <c r="V127" s="40" t="s">
+        <v>556</v>
+      </c>
+      <c r="W127" s="40" t="s">
+        <v>472</v>
+      </c>
+      <c r="X127" s="40" t="s">
+        <v>471</v>
+      </c>
+      <c r="Y127" s="40" t="s">
+        <v>557</v>
+      </c>
+      <c r="AA127" s="40">
+        <v>1</v>
+      </c>
+      <c r="AB127" s="40">
+        <v>1</v>
+      </c>
+      <c r="AD127" s="40">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="AG127" s="40" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="128" spans="2:33">
+      <c r="B128" s="43">
+        <v>42616</v>
+      </c>
+      <c r="C128" s="44">
+        <v>17</v>
+      </c>
+      <c r="D128" s="44" t="s">
+        <v>389</v>
+      </c>
+      <c r="E128" s="45">
+        <v>42616.75</v>
+      </c>
+      <c r="F128" s="46" t="s">
+        <v>368</v>
+      </c>
+      <c r="G128" s="46" t="s">
+        <v>614</v>
+      </c>
+      <c r="H128" s="44" t="s">
+        <v>368</v>
+      </c>
+      <c r="I128" s="44" t="s">
+        <v>614</v>
+      </c>
+      <c r="J128" s="46">
+        <v>1.58</v>
+      </c>
+      <c r="K128" s="46">
+        <v>3.55</v>
+      </c>
+      <c r="L128" s="46">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="M128" s="44">
+        <v>2.85</v>
+      </c>
+      <c r="N128" s="44">
+        <v>3.5</v>
+      </c>
+      <c r="O128" s="44">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="P128" s="44">
+        <v>-1</v>
+      </c>
+      <c r="V128" s="40" t="s">
+        <v>538</v>
+      </c>
+      <c r="W128" s="40" t="s">
+        <v>472</v>
+      </c>
+      <c r="X128" s="40" t="s">
+        <v>473</v>
+      </c>
+      <c r="Y128" s="40" t="s">
+        <v>473</v>
+      </c>
+      <c r="AA128" s="40">
+        <v>1</v>
+      </c>
+      <c r="AB128" s="40">
+        <v>1</v>
+      </c>
+      <c r="AD128" s="40">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="2:30">
+      <c r="B129" s="43">
+        <v>42616</v>
+      </c>
+      <c r="C129" s="44">
         <v>18</v>
       </c>
-      <c r="D137" s="44" t="s">
+      <c r="D129" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="E137" s="45">
+      <c r="E129" s="45">
         <v>42616.802083333336</v>
       </c>
-      <c r="F137" s="46" t="s">
+      <c r="F129" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="G137" s="46" t="s">
+      <c r="G129" s="46" t="s">
         <v>613</v>
       </c>
-      <c r="H137" s="44" t="s">
+      <c r="H129" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="I137" s="44" t="s">
+      <c r="I129" s="44" t="s">
         <v>613</v>
       </c>
-      <c r="J137" s="46">
+      <c r="J129" s="46">
         <v>1.6</v>
       </c>
-      <c r="K137" s="46">
+      <c r="K129" s="46">
         <v>3.5</v>
       </c>
-      <c r="L137" s="46">
+      <c r="L129" s="46">
         <v>4.4000000000000004</v>
       </c>
-      <c r="M137" s="44">
+      <c r="M129" s="44">
         <v>2.84</v>
       </c>
-      <c r="N137" s="44">
+      <c r="N129" s="44">
         <v>3.65</v>
       </c>
-      <c r="O137" s="44">
+      <c r="O129" s="44">
         <v>1.99</v>
       </c>
-      <c r="P137" s="44">
+      <c r="P129" s="44">
         <v>-1</v>
       </c>
-      <c r="V137" s="40" t="s">
-        <v>617</v>
-      </c>
-      <c r="W137" s="40" t="s">
-        <v>614</v>
-      </c>
-      <c r="X137" s="40" t="s">
-        <v>615</v>
-      </c>
-      <c r="Y137" s="40" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="138" spans="2:33">
-      <c r="V138" s="40" t="s">
-        <v>618</v>
-      </c>
-      <c r="W138" s="40" t="s">
-        <v>614</v>
-      </c>
-      <c r="X138" s="40" t="s">
-        <v>616</v>
-      </c>
-      <c r="Y138" s="40" t="s">
-        <v>619</v>
-      </c>
-      <c r="AA138" s="40">
-        <v>1</v>
-      </c>
-      <c r="AB138" s="40">
-        <v>1</v>
-      </c>
-      <c r="AC138" s="40" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="139" spans="2:33">
-      <c r="B139" s="43">
-        <v>42616</v>
-      </c>
-      <c r="C139" s="44">
-        <v>17</v>
-      </c>
-      <c r="D139" s="44" t="s">
-        <v>389</v>
-      </c>
-      <c r="E139" s="45">
-        <v>42616.75</v>
-      </c>
-      <c r="F139" s="46" t="s">
-        <v>368</v>
-      </c>
-      <c r="G139" s="46" t="s">
-        <v>621</v>
-      </c>
-      <c r="H139" s="44" t="s">
-        <v>368</v>
-      </c>
-      <c r="I139" s="44" t="s">
-        <v>621</v>
-      </c>
-      <c r="J139" s="46">
-        <v>1.58</v>
-      </c>
-      <c r="K139" s="46">
-        <v>3.55</v>
-      </c>
-      <c r="L139" s="46">
-        <v>4.6500000000000004</v>
-      </c>
-      <c r="M139" s="44">
-        <v>2.85</v>
-      </c>
-      <c r="N139" s="44">
-        <v>3.5</v>
-      </c>
-      <c r="O139" s="44">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="P139" s="44">
+      <c r="V129" s="40" t="s">
+        <v>541</v>
+      </c>
+      <c r="W129" s="40" t="s">
+        <v>472</v>
+      </c>
+      <c r="X129" s="40" t="s">
+        <v>473</v>
+      </c>
+      <c r="Y129" s="40" t="s">
+        <v>557</v>
+      </c>
+      <c r="AA129" s="40">
+        <v>1</v>
+      </c>
+      <c r="AB129" s="40">
+        <v>1</v>
+      </c>
+      <c r="AD129" s="40">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="2:30">
+      <c r="AD130" s="40">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="2:30">
+      <c r="AD131" s="40">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="2:30">
+      <c r="AD132" s="40">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="2:30">
+      <c r="AD133" s="40">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="2:30">
+      <c r="AD134" s="40">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="2:30">
+      <c r="AD135" s="40">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="2:30">
+      <c r="AD136" s="40">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="2:30">
+      <c r="AD137" s="40">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="2:30">
+      <c r="AD138" s="40">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="2:30">
+      <c r="AD139" s="40">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="2:30">
+      <c r="AD140" s="40">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="2:30">
+      <c r="AD141" s="40">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="2:30">
+      <c r="AD142" s="40">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="2:30">
+      <c r="AD143" s="40">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="2:30">
+      <c r="AD144" s="40">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="2:30">
+      <c r="AD145" s="40">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="2:30">
+      <c r="AD146" s="40">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="2:30">
+      <c r="AD147" s="40">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="2:30">
+      <c r="AD148" s="40">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="2:30">
+      <c r="AD149" s="40">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="2:30">
+      <c r="AD150" s="40">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="2:30">
+      <c r="AD151" s="40">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="2:30">
+      <c r="B154" s="43">
+        <v>42617</v>
+      </c>
+      <c r="F154" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="G154" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="J154" s="46">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="K154" s="46">
+        <v>3.1</v>
+      </c>
+      <c r="L154" s="46">
+        <v>2.75</v>
+      </c>
+      <c r="M154" s="44">
+        <v>4.75</v>
+      </c>
+      <c r="N154" s="44">
+        <v>4.2</v>
+      </c>
+      <c r="O154" s="44">
+        <v>1.47</v>
+      </c>
+      <c r="P154" s="44">
         <v>-1</v>
       </c>
-      <c r="V139" s="40" t="s">
-        <v>622</v>
-      </c>
-      <c r="W139" s="40" t="s">
-        <v>623</v>
-      </c>
-      <c r="X139" s="40" t="s">
-        <v>624</v>
-      </c>
-      <c r="Y139" s="40" t="s">
-        <v>615</v>
-      </c>
-      <c r="AC139" s="40" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="140" spans="2:33">
-      <c r="V140" s="40" t="s">
-        <v>625</v>
-      </c>
-      <c r="W140" s="40" t="s">
-        <v>623</v>
-      </c>
-      <c r="X140" s="40" t="s">
-        <v>626</v>
-      </c>
-      <c r="Y140" s="40" t="s">
-        <v>626</v>
-      </c>
-      <c r="AA140" s="40">
-        <v>1</v>
-      </c>
-      <c r="AB140" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="2:33">
-      <c r="B141" s="43">
-        <v>42616</v>
-      </c>
-      <c r="C141" s="44">
-        <v>16</v>
-      </c>
-      <c r="D141" s="44" t="s">
-        <v>232</v>
-      </c>
-      <c r="E141" s="45">
-        <v>42616.75</v>
-      </c>
-      <c r="F141" s="46" t="s">
-        <v>627</v>
-      </c>
-      <c r="G141" s="46" t="s">
-        <v>628</v>
-      </c>
-      <c r="H141" s="44" t="s">
-        <v>627</v>
-      </c>
-      <c r="I141" s="44" t="s">
-        <v>628</v>
-      </c>
-      <c r="J141" s="46">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="K141" s="46">
-        <v>6.7</v>
-      </c>
-      <c r="L141" s="46">
-        <v>14</v>
-      </c>
-      <c r="M141" s="44">
-        <v>1.47</v>
-      </c>
-      <c r="N141" s="44">
-        <v>4.32</v>
-      </c>
-      <c r="O141" s="44">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="P141" s="44">
-        <v>-1</v>
-      </c>
-      <c r="V141" s="40" t="s">
-        <v>629</v>
-      </c>
-      <c r="W141" s="40" t="s">
-        <v>623</v>
-      </c>
-      <c r="X141" s="40" t="s">
+      <c r="V154" s="40" t="s">
         <v>630</v>
       </c>
-      <c r="Y141" s="40" t="s">
+      <c r="W154" s="40" t="s">
+        <v>632</v>
+      </c>
+      <c r="X154" s="40" t="s">
+        <v>633</v>
+      </c>
+      <c r="Y154" s="40" t="s">
+        <v>636</v>
+      </c>
+      <c r="AB154" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="2:30">
+      <c r="V155" s="40" t="s">
         <v>631</v>
       </c>
-      <c r="AC141" s="40" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="142" spans="2:33">
-      <c r="V142" s="40" t="s">
+      <c r="W155" s="40" t="s">
         <v>632</v>
       </c>
-      <c r="W142" s="40" t="s">
-        <v>623</v>
-      </c>
-      <c r="X142" s="40" t="s">
-        <v>630</v>
-      </c>
-      <c r="Y142" s="40" t="s">
-        <v>615</v>
-      </c>
-      <c r="AA142" s="40">
-        <v>1</v>
-      </c>
-      <c r="AB142" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="2:33">
-      <c r="B143" s="43">
-        <v>42616</v>
-      </c>
-      <c r="C143" s="44">
-        <v>15</v>
-      </c>
-      <c r="D143" s="44" t="s">
-        <v>232</v>
-      </c>
-      <c r="E143" s="45">
-        <v>42616.75</v>
-      </c>
-      <c r="F143" s="46" t="s">
-        <v>633</v>
-      </c>
-      <c r="G143" s="46" t="s">
+      <c r="X155" s="40" t="s">
         <v>634</v>
       </c>
-      <c r="H143" s="44" t="s">
+      <c r="Y155" s="40" t="s">
         <v>635</v>
       </c>
-      <c r="I143" s="44" t="s">
-        <v>634</v>
-      </c>
-      <c r="J143" s="46">
-        <v>1.48</v>
-      </c>
-      <c r="K143" s="46">
-        <v>3.75</v>
-      </c>
-      <c r="L143" s="46">
-        <v>5.35</v>
-      </c>
-      <c r="M143" s="44">
-        <v>2.67</v>
-      </c>
-      <c r="N143" s="44">
-        <v>3.3</v>
-      </c>
-      <c r="O143" s="44">
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="P143" s="44">
-        <v>-1</v>
-      </c>
-      <c r="V143" s="40" t="s">
-        <v>555</v>
-      </c>
-      <c r="W143" s="40" t="s">
-        <v>472</v>
-      </c>
-      <c r="X143" s="40" t="s">
-        <v>626</v>
-      </c>
-      <c r="Y143" s="40" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="144" spans="2:33">
-      <c r="V144" s="40" t="s">
-        <v>556</v>
-      </c>
-      <c r="W144" s="40" t="s">
-        <v>472</v>
-      </c>
-      <c r="X144" s="40" t="s">
-        <v>615</v>
-      </c>
-      <c r="Y144" s="40" t="s">
-        <v>557</v>
-      </c>
-      <c r="AA144" s="40">
-        <v>1</v>
-      </c>
-      <c r="AB144" s="40">
-        <v>1</v>
-      </c>
-      <c r="AG144" s="40" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="145" spans="2:33">
-      <c r="B145" s="43">
-        <v>42616</v>
-      </c>
-      <c r="C145" s="44">
-        <v>14</v>
-      </c>
-      <c r="D145" s="44" t="s">
-        <v>232</v>
-      </c>
-      <c r="E145" s="45">
-        <v>42616.75</v>
-      </c>
-      <c r="F145" s="46" t="s">
-        <v>637</v>
-      </c>
-      <c r="G145" s="46" t="s">
-        <v>638</v>
-      </c>
-      <c r="H145" s="44" t="s">
-        <v>637</v>
-      </c>
-      <c r="I145" s="44" t="s">
-        <v>639</v>
-      </c>
-      <c r="J145" s="46">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="K145" s="46">
-        <v>6.5</v>
-      </c>
-      <c r="L145" s="46">
-        <v>13.5</v>
-      </c>
-      <c r="M145" s="44">
-        <v>1.5</v>
-      </c>
-      <c r="N145" s="44">
-        <v>4.25</v>
-      </c>
-      <c r="O145" s="44">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="P145" s="44">
-        <v>-1</v>
-      </c>
-      <c r="V145" s="40" t="s">
-        <v>629</v>
-      </c>
-      <c r="W145" s="40" t="s">
-        <v>623</v>
-      </c>
-      <c r="X145" s="40" t="s">
-        <v>630</v>
-      </c>
-      <c r="Y145" s="40" t="s">
-        <v>631</v>
-      </c>
-      <c r="AC145" s="40" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="146" spans="2:33">
-      <c r="V146" s="40" t="s">
-        <v>632</v>
-      </c>
-      <c r="W146" s="40" t="s">
-        <v>623</v>
-      </c>
-      <c r="X146" s="40" t="s">
-        <v>630</v>
-      </c>
-      <c r="Y146" s="40" t="s">
-        <v>615</v>
-      </c>
-      <c r="AA146" s="40">
-        <v>1</v>
-      </c>
-      <c r="AB146" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="2:33">
-      <c r="B147" s="43">
-        <v>42616</v>
-      </c>
-      <c r="C147" s="44">
-        <v>13</v>
-      </c>
-      <c r="D147" s="44" t="s">
-        <v>232</v>
-      </c>
-      <c r="E147" s="45">
-        <v>42616.75</v>
-      </c>
-      <c r="F147" s="46" t="s">
-        <v>477</v>
-      </c>
-      <c r="G147" s="46" t="s">
-        <v>640</v>
-      </c>
-      <c r="H147" s="44" t="s">
-        <v>477</v>
-      </c>
-      <c r="I147" s="44" t="s">
-        <v>641</v>
-      </c>
-      <c r="J147" s="46">
-        <v>2.92</v>
-      </c>
-      <c r="K147" s="46">
-        <v>3.05</v>
-      </c>
-      <c r="L147" s="46">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="M147" s="44">
-        <v>1.5</v>
-      </c>
-      <c r="N147" s="44">
-        <v>3.8</v>
-      </c>
-      <c r="O147" s="44">
-        <v>5</v>
-      </c>
-      <c r="P147" s="44">
-        <v>1</v>
-      </c>
-      <c r="V147" s="40" t="s">
-        <v>541</v>
-      </c>
-      <c r="W147" s="40" t="s">
-        <v>472</v>
-      </c>
-      <c r="X147" s="40" t="s">
-        <v>473</v>
-      </c>
-      <c r="Y147" s="40" t="s">
-        <v>557</v>
-      </c>
-      <c r="AB147" s="40">
-        <v>1</v>
-      </c>
-      <c r="AG147" s="40" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="148" spans="2:33">
-      <c r="V148" s="40" t="s">
-        <v>542</v>
-      </c>
-      <c r="W148" s="40" t="s">
-        <v>472</v>
-      </c>
-      <c r="X148" s="40" t="s">
-        <v>557</v>
-      </c>
-      <c r="Y148" s="40" t="s">
-        <v>473</v>
-      </c>
-      <c r="AA148" s="40">
+      <c r="AA155" s="40">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="W6:AB121">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+  <conditionalFormatting sqref="W6:AB151">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>W$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V6:V121">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+  <conditionalFormatting sqref="V6:V151">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>V$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD6:AD121">
-    <cfRule type="top10" dxfId="0" priority="1" rank="1"/>
+  <conditionalFormatting sqref="AD6:AD151">
+    <cfRule type="top10" dxfId="3" priority="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
